--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -86,7 +98,7 @@
     <t>126.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:00 AM</t>
+    <t>Thursday, 25 September, 2025 10:42 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -777,7 +789,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -814,38 +826,71 @@
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
-      <c r="P10" s="13">
-        <v>345</v>
-      </c>
-      <c r="Q10" s="13"/>
+      <c r="A10" s="7">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c t="s" r="C10" s="8">
+        <v>25</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c t="s" r="H10" s="9">
+        <v>26</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c t="s" r="L10" s="10">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10"/>
+      <c t="s" r="N10" s="8">
+        <v>27</v>
+      </c>
+      <c r="O10" s="8"/>
+      <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
+        <v>16</v>
+      </c>
     </row>
-    <row r="11" ht="16.5" customHeight="1">
-      <c t="s" r="A11" s="14">
-        <v>25</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c t="s" r="G11" s="15">
-        <v>26</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16"/>
-      <c t="s" r="K11" s="17">
-        <v>27</v>
-      </c>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
+    <row r="11" ht="25.5" customHeight="1">
+      <c r="P11" s="13">
+        <v>370</v>
+      </c>
+      <c r="Q11" s="13"/>
+    </row>
+    <row r="12" ht="16.5" customHeight="1">
+      <c t="s" r="A12" s="14">
+        <v>29</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c t="s" r="G12" s="15">
+        <v>30</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c t="s" r="K12" s="17">
+        <v>31</v>
+      </c>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
+  <mergeCells count="32">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -869,10 +914,15 @@
     <mergeCell ref="H9:K9"/>
     <mergeCell ref="L9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="K11:Q11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="K12:Q12"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -98,7 +98,7 @@
     <t>126.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:42 AM</t>
+    <t>Thursday, 25 September, 2025 10:44 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>102.00</t>
+  </si>
+  <si>
+    <t>102.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BRADIPECT 5 MG 28 F.C. TABS</t>
   </si>
   <si>
     <t>0:0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>168.00</t>
   </si>
   <si>
     <t>168.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -75,9 +87,6 @@
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>1:1</t>
   </si>
   <si>
     <t>51.00</t>
@@ -789,7 +798,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -822,7 +831,7 @@
         <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -838,7 +847,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -848,49 +857,82 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
-      <c r="P11" s="13">
-        <v>370</v>
-      </c>
-      <c r="Q11" s="13"/>
-    </row>
-    <row r="12" ht="16.5" customHeight="1">
-      <c t="s" r="A12" s="14">
+      <c r="A11" s="7">
+        <v>5</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c t="s" r="C11" s="8">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c t="s" r="H11" s="9">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c t="s" r="G12" s="15">
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c t="s" r="L11" s="10">
+        <v>13</v>
+      </c>
+      <c r="M11" s="10"/>
+      <c t="s" r="N11" s="8">
         <v>30</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16"/>
-      <c t="s" r="K12" s="17">
+      <c r="O11" s="8"/>
+      <c t="s" r="P11" s="11">
         <v>31</v>
       </c>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
+      <c t="s" r="Q11" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" ht="25.5" customHeight="1">
+      <c r="P12" s="13">
+        <v>472</v>
+      </c>
+      <c r="Q12" s="13"/>
+    </row>
+    <row r="13" ht="16.5" customHeight="1">
+      <c t="s" r="A13" s="14">
+        <v>32</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c t="s" r="G13" s="15">
+        <v>33</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c t="s" r="K13" s="17">
+        <v>34</v>
+      </c>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="37">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -919,10 +961,15 @@
     <mergeCell ref="H10:K10"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="K13:Q13"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -107,7 +107,7 @@
     <t>126.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:44 AM</t>
+    <t>Thursday, 25 September, 2025 10:46 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -86,6 +86,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -95,6 +107,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -107,7 +128,7 @@
     <t>126.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:46 AM</t>
+    <t>Thursday, 25 September, 2025 10:48 AM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -847,7 +868,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -857,11 +878,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -873,14 +894,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -901,38 +922,104 @@
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
-      <c r="P12" s="13">
-        <v>472</v>
-      </c>
-      <c r="Q12" s="13"/>
-    </row>
-    <row r="13" ht="16.5" customHeight="1">
-      <c t="s" r="A13" s="14">
+      <c r="A12" s="7">
+        <v>6</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c t="s" r="C12" s="8">
         <v>32</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c t="s" r="G13" s="15">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c t="s" r="H12" s="9">
+        <v>22</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c t="s" r="L12" s="10">
+        <v>13</v>
+      </c>
+      <c r="M12" s="10"/>
+      <c t="s" r="N12" s="8">
         <v>33</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16"/>
-      <c t="s" r="K13" s="17">
+      <c r="O12" s="8"/>
+      <c t="s" r="P12" s="11">
         <v>34</v>
       </c>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
+      <c t="s" r="Q12" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="24.75" customHeight="1">
+      <c r="A13" s="7">
+        <v>7</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c t="s" r="C13" s="8">
+        <v>35</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c t="s" r="H13" s="9">
+        <v>36</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c t="s" r="L13" s="10">
+        <v>13</v>
+      </c>
+      <c r="M13" s="10"/>
+      <c t="s" r="N13" s="8">
+        <v>37</v>
+      </c>
+      <c r="O13" s="8"/>
+      <c t="s" r="P13" s="11">
+        <v>38</v>
+      </c>
+      <c t="s" r="Q13" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="25.5" customHeight="1">
+      <c r="P14" s="13">
+        <v>527</v>
+      </c>
+      <c r="Q14" s="13"/>
+    </row>
+    <row r="15" ht="16.5" customHeight="1">
+      <c t="s" r="A15" s="14">
+        <v>39</v>
+      </c>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c t="s" r="G15" s="15">
+        <v>40</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c t="s" r="K15" s="17">
+        <v>41</v>
+      </c>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="47">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -966,10 +1053,20 @@
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="K13:Q13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:Q15"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -126,6 +126,18 @@
   </si>
   <si>
     <t>126.0000</t>
+  </si>
+  <si>
+    <t>صابون ديتول العنايه بالبشره</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
   </si>
   <si>
     <t>Thursday, 25 September, 2025 10:48 AM</t>
@@ -988,38 +1000,71 @@
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
-      <c r="P14" s="13">
-        <v>527</v>
-      </c>
-      <c r="Q14" s="13"/>
-    </row>
-    <row r="15" ht="16.5" customHeight="1">
-      <c t="s" r="A15" s="14">
+      <c r="A14" s="7">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c t="s" r="C14" s="8">
         <v>39</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c t="s" r="G15" s="15">
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c t="s" r="H14" s="9">
+        <v>26</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c t="s" r="L14" s="10">
         <v>40</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="16"/>
-      <c t="s" r="K15" s="17">
+      <c r="M14" s="10"/>
+      <c t="s" r="N14" s="8">
         <v>41</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
+      <c r="O14" s="8"/>
+      <c t="s" r="P14" s="11">
+        <v>42</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="P15" s="13">
+        <v>572</v>
+      </c>
+      <c r="Q15" s="13"/>
+    </row>
+    <row r="16" ht="16.5" customHeight="1">
+      <c t="s" r="A16" s="14">
+        <v>43</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c t="s" r="G16" s="15">
+        <v>44</v>
+      </c>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c t="s" r="K16" s="17">
+        <v>45</v>
+      </c>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="52">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1063,10 +1108,15 @@
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="K15:Q15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="K16:Q16"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -98,6 +98,27 @@
     <t>33.0000</t>
   </si>
   <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>8:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>15.8400</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -140,7 +161,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:48 AM</t>
+    <t>Thursday, 25 September, 2025 12:33 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -913,7 +934,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -930,7 +951,7 @@
         <v>31</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -946,7 +967,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -956,11 +977,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>22</v>
@@ -972,14 +993,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1012,59 +1033,125 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
       <c t="s" r="L14" s="10">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q14" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="24.75" customHeight="1">
+      <c r="A15" s="7">
+        <v>9</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c t="s" r="C15" s="8">
         <v>42</v>
       </c>
-      <c t="s" r="Q14" s="12">
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c t="s" r="H15" s="9">
+        <v>43</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c t="s" r="L15" s="10">
+        <v>13</v>
+      </c>
+      <c r="M15" s="10"/>
+      <c t="s" r="N15" s="8">
+        <v>44</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c t="s" r="P15" s="11">
+        <v>45</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="24.75" customHeight="1">
-      <c r="P15" s="13">
-        <v>572</v>
-      </c>
-      <c r="Q15" s="13"/>
-    </row>
-    <row r="16" ht="16.5" customHeight="1">
-      <c t="s" r="A16" s="14">
-        <v>43</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c t="s" r="G16" s="15">
-        <v>44</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="16"/>
-      <c t="s" r="K16" s="17">
-        <v>45</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
+    <row r="16" ht="25.5" customHeight="1">
+      <c r="A16" s="7">
+        <v>10</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c t="s" r="C16" s="8">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c t="s" r="H16" s="9">
+        <v>26</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c t="s" r="L16" s="10">
+        <v>47</v>
+      </c>
+      <c r="M16" s="10"/>
+      <c t="s" r="N16" s="8">
+        <v>48</v>
+      </c>
+      <c r="O16" s="8"/>
+      <c t="s" r="P16" s="11">
+        <v>49</v>
+      </c>
+      <c t="s" r="Q16" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="25.5" customHeight="1">
+      <c r="P17" s="13">
+        <v>645.25999999999999</v>
+      </c>
+      <c r="Q17" s="13"/>
+    </row>
+    <row r="18" ht="16.5" customHeight="1">
+      <c t="s" r="A18" s="14">
+        <v>50</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c t="s" r="G18" s="15">
+        <v>51</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c t="s" r="K18" s="17">
+        <v>52</v>
+      </c>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="62">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1113,10 +1200,20 @@
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="L14:M14"/>
     <mergeCell ref="N14:O14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="K16:Q16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="K18:Q18"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -149,19 +149,31 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>بادي سبلاش ايفا</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>175.00</t>
+  </si>
+  <si>
+    <t>175.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>45.00</t>
   </si>
   <si>
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:33 PM</t>
+    <t>Thursday, 25 September, 2025 12:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1099,59 +1111,92 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
-      <c r="P17" s="13">
-        <v>645.25999999999999</v>
-      </c>
-      <c r="Q17" s="13"/>
-    </row>
-    <row r="18" ht="16.5" customHeight="1">
-      <c t="s" r="A18" s="14">
-        <v>50</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c t="s" r="G18" s="15">
+      <c r="A17" s="7">
+        <v>11</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c t="s" r="C17" s="8">
         <v>51</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
-      <c t="s" r="K18" s="17">
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c t="s" r="H17" s="9">
+        <v>26</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c t="s" r="L17" s="10">
+        <v>48</v>
+      </c>
+      <c r="M17" s="10"/>
+      <c t="s" r="N17" s="8">
         <v>52</v>
       </c>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
+      <c r="O17" s="8"/>
+      <c t="s" r="P17" s="11">
+        <v>53</v>
+      </c>
+      <c t="s" r="Q17" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" ht="24.75" customHeight="1">
+      <c r="P18" s="13">
+        <v>820.25999999999999</v>
+      </c>
+      <c r="Q18" s="13"/>
+    </row>
+    <row r="19" ht="16.5" customHeight="1">
+      <c t="s" r="A19" s="14">
+        <v>54</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c t="s" r="G19" s="15">
+        <v>55</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c t="s" r="K19" s="17">
+        <v>56</v>
+      </c>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="67">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1210,10 +1255,15 @@
     <mergeCell ref="H16:K16"/>
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="K18:Q18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="K19:Q19"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -173,7 +173,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:41 PM</t>
+    <t>Thursday, 25 September, 2025 12:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -149,6 +149,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:7</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>14.1000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -173,7 +185,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:45 PM</t>
+    <t>Thursday, 25 September, 2025 12:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1117,18 +1129,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c t="s" r="L16" s="10">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1137,66 +1149,99 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
-      <c r="P18" s="13">
-        <v>820.25999999999999</v>
-      </c>
-      <c r="Q18" s="13"/>
-    </row>
-    <row r="19" ht="16.5" customHeight="1">
-      <c t="s" r="A19" s="14">
-        <v>54</v>
-      </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c t="s" r="G19" s="15">
+      <c r="A18" s="7">
+        <v>12</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c t="s" r="C18" s="8">
         <v>55</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="16"/>
-      <c t="s" r="K19" s="17">
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c t="s" r="H18" s="9">
+        <v>26</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c t="s" r="L18" s="10">
+        <v>52</v>
+      </c>
+      <c r="M18" s="10"/>
+      <c t="s" r="N18" s="8">
         <v>56</v>
       </c>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
+      <c r="O18" s="8"/>
+      <c t="s" r="P18" s="11">
+        <v>57</v>
+      </c>
+      <c t="s" r="Q18" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="P19" s="13">
+        <v>834.36000000000001</v>
+      </c>
+      <c r="Q19" s="13"/>
+    </row>
+    <row r="20" ht="16.5" customHeight="1">
+      <c t="s" r="A20" s="14">
+        <v>58</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c t="s" r="G20" s="15">
+        <v>59</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c t="s" r="K20" s="17">
+        <v>60</v>
+      </c>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="67">
+  <mergeCells count="72">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1260,10 +1305,15 @@
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="K19:Q19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="K20:Q20"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -128,6 +128,15 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -152,7 +161,7 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>1:7</t>
+    <t>1:9</t>
   </si>
   <si>
     <t>141.00</t>
@@ -164,7 +173,7 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>3:0</t>
+    <t>2:0</t>
   </si>
   <si>
     <t>0</t>
@@ -173,7 +182,7 @@
     <t>175.00</t>
   </si>
   <si>
-    <t>175.0000</t>
+    <t>350.0000</t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
@@ -185,7 +194,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:46 PM</t>
+    <t>Thursday, 25 September, 2025 12:51 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1057,7 +1066,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1090,7 +1099,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1100,14 +1109,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1116,14 +1125,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1133,14 +1142,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1149,31 +1158,31 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c t="s" r="L17" s="10">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1182,20 +1191,20 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
@@ -1206,42 +1215,75 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" ht="25.5" customHeight="1">
+      <c r="A19" s="7">
+        <v>13</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c t="s" r="C19" s="8">
+        <v>58</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c t="s" r="H19" s="9">
+        <v>26</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c t="s" r="L19" s="10">
+        <v>55</v>
+      </c>
+      <c r="M19" s="10"/>
+      <c t="s" r="N19" s="8">
+        <v>59</v>
+      </c>
+      <c r="O19" s="8"/>
+      <c t="s" r="P19" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q19" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="19" ht="25.5" customHeight="1">
-      <c r="P19" s="13">
-        <v>834.36000000000001</v>
-      </c>
-      <c r="Q19" s="13"/>
-    </row>
-    <row r="20" ht="16.5" customHeight="1">
-      <c t="s" r="A20" s="14">
-        <v>58</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c t="s" r="G20" s="15">
-        <v>59</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="16"/>
-      <c t="s" r="K20" s="17">
-        <v>60</v>
-      </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="17"/>
-      <c r="Q20" s="17"/>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="P20" s="13">
+        <v>1044.8599999999999</v>
+      </c>
+      <c r="Q20" s="13"/>
+    </row>
+    <row r="21" ht="16.5" customHeight="1">
+      <c t="s" r="A21" s="14">
+        <v>61</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c t="s" r="G21" s="15">
+        <v>62</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c t="s" r="K21" s="17">
+        <v>63</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
+  <mergeCells count="77">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1310,10 +1352,15 @@
     <mergeCell ref="H18:K18"/>
     <mergeCell ref="L18:M18"/>
     <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="K20:Q20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="K21:Q21"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -107,6 +107,15 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -194,7 +203,7 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 12:51 PM</t>
+    <t>Thursday, 25 September, 2025 1:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1000,7 +1009,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1010,14 +1019,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1026,14 +1035,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1050,7 +1059,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1066,7 +1075,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1083,7 +1092,7 @@
         <v>41</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1099,7 +1108,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1132,7 +1141,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1142,14 +1151,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1158,14 +1167,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1175,14 +1184,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1191,31 +1200,31 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c t="s" r="L18" s="10">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1224,20 +1233,20 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
@@ -1248,42 +1257,75 @@
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="24.75" customHeight="1">
+      <c r="A20" s="7">
+        <v>14</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c t="s" r="C20" s="8">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c t="s" r="H20" s="9">
+        <v>26</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c t="s" r="L20" s="10">
+        <v>58</v>
+      </c>
+      <c r="M20" s="10"/>
+      <c t="s" r="N20" s="8">
+        <v>62</v>
+      </c>
+      <c r="O20" s="8"/>
+      <c t="s" r="P20" s="11">
+        <v>63</v>
+      </c>
+      <c t="s" r="Q20" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="24.75" customHeight="1">
-      <c r="P20" s="13">
-        <v>1044.8599999999999</v>
-      </c>
-      <c r="Q20" s="13"/>
-    </row>
-    <row r="21" ht="16.5" customHeight="1">
-      <c t="s" r="A21" s="14">
-        <v>61</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c t="s" r="G21" s="15">
-        <v>62</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="16"/>
-      <c t="s" r="K21" s="17">
-        <v>63</v>
-      </c>
-      <c r="L21" s="17"/>
-      <c r="M21" s="17"/>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="17"/>
-      <c r="Q21" s="17"/>
+    <row r="21" ht="25.5" customHeight="1">
+      <c r="P21" s="13">
+        <v>1188.8599999999999</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" ht="16.5" customHeight="1">
+      <c t="s" r="A22" s="14">
+        <v>64</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c t="s" r="G22" s="15">
+        <v>65</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c t="s" r="K22" s="17">
+        <v>66</v>
+      </c>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="82">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1357,10 +1399,15 @@
     <mergeCell ref="H19:K19"/>
     <mergeCell ref="L19:M19"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="K21:Q21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="K22:Q22"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>-28.5000</t>
+  </si>
+  <si>
+    <t>0:-3</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
+  </si>
+  <si>
     <t>BRADIPECT 5 MG 28 F.C. TABS</t>
   </si>
   <si>
@@ -116,15 +143,24 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>6:1</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>-39.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
     <t>8:3</t>
   </si>
   <si>
-    <t>48.00</t>
-  </si>
-  <si>
     <t>15.8400</t>
   </si>
   <si>
@@ -182,16 +218,28 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
     <t>175.00</t>
   </si>
   <si>
-    <t>350.0000</t>
+    <t>525.0000</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>18.8000</t>
+  </si>
+  <si>
+    <t>9:0</t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
@@ -203,7 +251,16 @@
     <t>45.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 1:00 PM</t>
+    <t xml:space="preserve">معطر جو FRIDA </t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>65.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 25 September, 2025 1:22 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -894,7 +951,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -903,14 +960,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -920,14 +977,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -936,14 +993,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -953,11 +1010,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -969,14 +1026,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -986,14 +1043,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>31</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1002,14 +1059,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1019,11 +1076,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1035,14 +1092,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1052,14 +1109,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1068,14 +1125,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1085,11 +1142,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1101,14 +1158,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1118,14 +1175,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1134,14 +1191,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1151,14 +1208,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1167,14 +1224,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1184,11 +1241,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1200,14 +1257,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1217,14 +1274,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>49</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1233,31 +1290,31 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
       <c t="s" r="L19" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1266,20 +1323,20 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>26</v>
+        <v>61</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c t="s" r="L20" s="10">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
@@ -1294,38 +1351,203 @@
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
-      <c r="P21" s="13">
-        <v>1188.8599999999999</v>
-      </c>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" ht="16.5" customHeight="1">
-      <c t="s" r="A22" s="14">
+      <c r="A21" s="7">
+        <v>15</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c t="s" r="C21" s="8">
         <v>64</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c t="s" r="G22" s="15">
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c t="s" r="H21" s="9">
         <v>65</v>
       </c>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="16"/>
-      <c t="s" r="K22" s="17">
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c t="s" r="L21" s="10">
+        <v>13</v>
+      </c>
+      <c r="M21" s="10"/>
+      <c t="s" r="N21" s="8">
         <v>66</v>
       </c>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
+      <c r="O21" s="8"/>
+      <c t="s" r="P21" s="11">
+        <v>67</v>
+      </c>
+      <c t="s" r="Q21" s="12">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" ht="25.5" customHeight="1">
+      <c r="A22" s="7">
+        <v>16</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c t="s" r="C22" s="8">
+        <v>68</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c t="s" r="H22" s="9">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c t="s" r="L22" s="10">
+        <v>69</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c t="s" r="N22" s="8">
+        <v>70</v>
+      </c>
+      <c r="O22" s="8"/>
+      <c t="s" r="P22" s="11">
+        <v>71</v>
+      </c>
+      <c t="s" r="Q22" s="12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" ht="24.75" customHeight="1">
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c t="s" r="C23" s="8">
+        <v>73</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c t="s" r="H23" s="9">
+        <v>27</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c t="s" r="L23" s="10">
+        <v>69</v>
+      </c>
+      <c r="M23" s="10"/>
+      <c t="s" r="N23" s="8">
+        <v>74</v>
+      </c>
+      <c r="O23" s="8"/>
+      <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" ht="25.5" customHeight="1">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c t="s" r="C24" s="8">
+        <v>77</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c t="s" r="H24" s="9">
+        <v>35</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c t="s" r="L24" s="10">
+        <v>69</v>
+      </c>
+      <c r="M24" s="10"/>
+      <c t="s" r="N24" s="8">
+        <v>78</v>
+      </c>
+      <c r="O24" s="8"/>
+      <c t="s" r="P24" s="11">
+        <v>79</v>
+      </c>
+      <c t="s" r="Q24" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" ht="24.75" customHeight="1">
+      <c r="A25" s="7">
+        <v>19</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c t="s" r="C25" s="8">
+        <v>80</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c t="s" r="H25" s="9">
+        <v>81</v>
+      </c>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c t="s" r="L25" s="10">
+        <v>69</v>
+      </c>
+      <c r="M25" s="10"/>
+      <c t="s" r="N25" s="8">
+        <v>46</v>
+      </c>
+      <c r="O25" s="8"/>
+      <c t="s" r="P25" s="11">
+        <v>82</v>
+      </c>
+      <c t="s" r="Q25" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="25.5" customHeight="1">
+      <c r="P26" s="13">
+        <v>1356.1600000000001</v>
+      </c>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="16.5" customHeight="1">
+      <c t="s" r="A27" s="14">
+        <v>83</v>
+      </c>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c t="s" r="G27" s="15">
+        <v>84</v>
+      </c>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c t="s" r="K27" s="17">
+        <v>85</v>
+      </c>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="82">
+  <mergeCells count="107">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1404,10 +1626,35 @@
     <mergeCell ref="H20:K20"/>
     <mergeCell ref="L20:M20"/>
     <mergeCell ref="N20:O20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="K22:Q22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="N25:O25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="K27:Q27"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -260,7 +260,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 1:22 PM</t>
+    <t>Thursday, 25 September, 2025 1:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -101,12 +101,24 @@
     <t>168.0000</t>
   </si>
   <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>50.00</t>
   </si>
   <si>
@@ -206,13 +218,13 @@
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
-    <t>1:9</t>
+    <t>1:8</t>
   </si>
   <si>
     <t>141.00</t>
   </si>
   <si>
-    <t>14.1000</t>
+    <t>7.0500</t>
   </si>
   <si>
     <t>بادي سبلاش ايفا</t>
@@ -1050,7 +1062,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1059,14 +1071,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1083,7 +1095,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1099,7 +1111,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1109,14 +1121,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1125,14 +1137,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1142,14 +1154,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1158,14 +1170,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1182,7 +1194,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1208,14 +1220,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1224,14 +1236,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1241,14 +1253,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1257,14 +1269,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1274,14 +1286,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1290,14 +1302,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1307,14 +1319,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1323,14 +1335,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1347,7 +1359,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1380,7 +1392,7 @@
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1396,13 +1408,13 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
       <c t="s" r="L22" s="10">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
@@ -1413,7 +1425,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1422,20 +1434,20 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
@@ -1462,13 +1474,13 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
@@ -1479,7 +1491,7 @@
         <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1488,66 +1500,99 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
-      <c r="P26" s="13">
-        <v>1356.1600000000001</v>
-      </c>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c t="s" r="A27" s="14">
-        <v>83</v>
-      </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c t="s" r="G27" s="15">
+      <c r="A26" s="7">
+        <v>20</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c t="s" r="C26" s="8">
         <v>84</v>
       </c>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="16"/>
-      <c t="s" r="K27" s="17">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c t="s" r="H26" s="9">
         <v>85</v>
       </c>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c t="s" r="L26" s="10">
+        <v>73</v>
+      </c>
+      <c r="M26" s="10"/>
+      <c t="s" r="N26" s="8">
+        <v>50</v>
+      </c>
+      <c r="O26" s="8"/>
+      <c t="s" r="P26" s="11">
+        <v>86</v>
+      </c>
+      <c t="s" r="Q26" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="P27" s="13">
+        <v>1359.1099999999999</v>
+      </c>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="16.5" customHeight="1">
+      <c t="s" r="A28" s="14">
+        <v>87</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c t="s" r="G28" s="15">
+        <v>88</v>
+      </c>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c t="s" r="K28" s="17">
+        <v>89</v>
+      </c>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="112">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1651,10 +1696,15 @@
     <mergeCell ref="H25:K25"/>
     <mergeCell ref="L25:M25"/>
     <mergeCell ref="N25:O25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="K27:Q27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="N26:O26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="K28:Q28"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -272,7 +272,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 1:23 PM</t>
+    <t>Thursday, 25 September, 2025 1:24 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -89,6 +89,15 @@
     <t>-24.0000</t>
   </si>
   <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
     <t>BRADIPECT 5 MG 28 F.C. TABS</t>
   </si>
   <si>
@@ -116,6 +125,15 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -272,7 +290,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 1:24 PM</t>
+    <t>Thursday, 25 September, 2025 1:59 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1012,7 +1030,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1022,11 +1040,11 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
         <v>16</v>
@@ -1038,14 +1056,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1055,14 +1073,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1071,7 +1089,7 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -1088,14 +1106,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
+        <v>36</v>
+      </c>
+      <c t="s" r="Q12" s="12">
         <v>37</v>
-      </c>
-      <c t="s" r="Q12" s="12">
-        <v>34</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1111,7 +1129,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1121,11 +1139,11 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
         <v>16</v>
@@ -1137,14 +1155,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1154,14 +1172,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1170,14 +1188,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1210,7 +1228,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1220,14 +1238,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>21</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1236,14 +1254,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1253,14 +1271,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1269,14 +1287,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1293,7 +1311,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1309,7 +1327,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1319,14 +1337,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
         <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1342,7 +1360,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1359,7 +1377,7 @@
         <v>63</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1375,7 +1393,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1385,14 +1403,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1401,14 +1419,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1418,14 +1436,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1434,31 +1452,31 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
       <c t="s" r="L23" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1467,31 +1485,31 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
       <c t="s" r="L24" s="10">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>80</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1500,31 +1518,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1533,66 +1551,132 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
+        <v>85</v>
+      </c>
+      <c t="s" r="Q26" s="12">
         <v>86</v>
       </c>
-      <c t="s" r="Q26" s="12">
+    </row>
+    <row r="27" ht="25.5" customHeight="1">
+      <c r="A27" s="7">
+        <v>21</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c t="s" r="C27" s="8">
+        <v>87</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c t="s" r="H27" s="9">
+        <v>45</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c t="s" r="L27" s="10">
+        <v>79</v>
+      </c>
+      <c r="M27" s="10"/>
+      <c t="s" r="N27" s="8">
+        <v>88</v>
+      </c>
+      <c r="O27" s="8"/>
+      <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="27" ht="25.5" customHeight="1">
-      <c r="P27" s="13">
-        <v>1359.1099999999999</v>
-      </c>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" ht="16.5" customHeight="1">
-      <c t="s" r="A28" s="14">
-        <v>87</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c t="s" r="G28" s="15">
-        <v>88</v>
-      </c>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c t="s" r="K28" s="17">
-        <v>89</v>
-      </c>
-      <c r="L28" s="17"/>
-      <c r="M28" s="17"/>
-      <c r="N28" s="17"/>
-      <c r="O28" s="17"/>
-      <c r="P28" s="17"/>
-      <c r="Q28" s="17"/>
+    <row r="28" ht="24.75" customHeight="1">
+      <c r="A28" s="7">
+        <v>22</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c t="s" r="C28" s="8">
+        <v>90</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c t="s" r="H28" s="9">
+        <v>91</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c t="s" r="L28" s="10">
+        <v>79</v>
+      </c>
+      <c r="M28" s="10"/>
+      <c t="s" r="N28" s="8">
+        <v>56</v>
+      </c>
+      <c r="O28" s="8"/>
+      <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="P29" s="13">
+        <v>1620.1099999999999</v>
+      </c>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="16.5" customHeight="1">
+      <c t="s" r="A30" s="14">
+        <v>93</v>
+      </c>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c t="s" r="G30" s="15">
+        <v>94</v>
+      </c>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c t="s" r="K30" s="17">
+        <v>95</v>
+      </c>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="122">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1701,10 +1785,20 @@
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="N26:O26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="K30:Q30"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>69.0000</t>
   </si>
   <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -188,10 +200,10 @@
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
-    <t>8:3</t>
-  </si>
-  <si>
-    <t>15.8400</t>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
   </si>
   <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
@@ -224,15 +236,27 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
     <t>126.0000</t>
   </si>
   <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>27.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -248,9 +272,6 @@
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>175.00</t>
   </si>
   <si>
@@ -290,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 1:59 PM</t>
+    <t>Thursday, 25 September, 2025 2:08 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1162,7 +1183,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1172,14 +1193,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1188,14 +1209,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1212,7 +1233,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1228,7 +1249,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1238,14 +1259,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1254,14 +1275,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1271,14 +1292,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1287,14 +1308,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1311,7 +1332,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1337,14 +1358,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1353,14 +1374,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1370,14 +1391,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1386,14 +1407,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1403,14 +1424,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1419,14 +1440,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1436,11 +1457,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>37</v>
@@ -1452,14 +1473,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1476,7 +1497,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1492,7 +1513,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1502,14 +1523,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1518,14 +1539,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1542,7 +1563,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>82</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1551,20 +1572,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1575,7 +1596,7 @@
         <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>86</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1584,14 +1605,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1601,14 +1622,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>88</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>89</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1624,7 +1645,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1634,49 +1655,115 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" ht="25.5" customHeight="1">
+      <c r="A29" s="7">
+        <v>23</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c t="s" r="C29" s="8">
+        <v>94</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c t="s" r="H29" s="9">
+        <v>49</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c t="s" r="L29" s="10">
+        <v>79</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c t="s" r="N29" s="8">
+        <v>95</v>
+      </c>
+      <c r="O29" s="8"/>
+      <c t="s" r="P29" s="11">
+        <v>96</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="29" ht="25.5" customHeight="1">
-      <c r="P29" s="13">
-        <v>1620.1099999999999</v>
-      </c>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" ht="16.5" customHeight="1">
-      <c t="s" r="A30" s="14">
-        <v>93</v>
-      </c>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c t="s" r="G30" s="15">
-        <v>94</v>
-      </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="16"/>
-      <c t="s" r="K30" s="17">
-        <v>95</v>
-      </c>
-      <c r="L30" s="17"/>
-      <c r="M30" s="17"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="17"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="17"/>
+    <row r="30" ht="24.75" customHeight="1">
+      <c r="A30" s="7">
+        <v>24</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c t="s" r="C30" s="8">
+        <v>97</v>
+      </c>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c t="s" r="H30" s="9">
+        <v>98</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c t="s" r="L30" s="10">
+        <v>79</v>
+      </c>
+      <c r="M30" s="10"/>
+      <c t="s" r="N30" s="8">
+        <v>60</v>
+      </c>
+      <c r="O30" s="8"/>
+      <c t="s" r="P30" s="11">
+        <v>99</v>
+      </c>
+      <c t="s" r="Q30" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="P31" s="13">
+        <v>1780.9100000000001</v>
+      </c>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="16.5" customHeight="1">
+      <c t="s" r="A32" s="14">
+        <v>100</v>
+      </c>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c t="s" r="G32" s="15">
+        <v>101</v>
+      </c>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c t="s" r="K32" s="17">
+        <v>102</v>
+      </c>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="122">
+  <mergeCells count="132">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1795,10 +1882,20 @@
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="K32:Q32"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:08 PM</t>
+    <t>Thursday, 25 September, 2025 2:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:09 PM</t>
+    <t>Thursday, 25 September, 2025 2:22 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -311,7 +311,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:22 PM</t>
+    <t>Thursday, 25 September, 2025 2:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -89,6 +89,21 @@
     <t>-24.0000</t>
   </si>
   <si>
+    <t>BI ALCOFAN 150 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -122,9 +137,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -137,9 +149,6 @@
     <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>130.00</t>
   </si>
   <si>
@@ -224,6 +233,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
@@ -294,12 +312,6 @@
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
   </si>
   <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
@@ -1051,7 +1063,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1061,14 +1073,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1077,14 +1089,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1094,11 +1106,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1110,14 +1122,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1127,14 +1139,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1150,7 +1162,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1160,14 +1172,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1176,14 +1188,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1200,7 +1212,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1216,7 +1228,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1233,7 +1245,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1249,7 +1261,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1259,14 +1271,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1275,14 +1287,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1299,7 +1311,7 @@
         <v>54</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1315,7 +1327,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1332,7 +1344,7 @@
         <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1348,7 +1360,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1358,14 +1370,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1374,14 +1386,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1391,14 +1403,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1414,7 +1426,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1424,14 +1436,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1447,7 +1459,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1464,7 +1476,7 @@
         <v>70</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1480,7 +1492,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1497,7 +1509,7 @@
         <v>73</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1513,7 +1525,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1546,24 +1558,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1572,14 +1584,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>30</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1589,14 +1601,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>37</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1605,31 +1617,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1638,31 +1650,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>79</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1671,31 +1683,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1704,66 +1716,132 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
+        <v>98</v>
+      </c>
+      <c t="s" r="Q30" s="12">
         <v>99</v>
       </c>
-      <c t="s" r="Q30" s="12">
+    </row>
+    <row r="31" ht="25.5" customHeight="1">
+      <c r="A31" s="7">
+        <v>25</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c t="s" r="C31" s="8">
+        <v>100</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c t="s" r="H31" s="9">
+        <v>52</v>
+      </c>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c t="s" r="L31" s="10">
+        <v>85</v>
+      </c>
+      <c r="M31" s="10"/>
+      <c t="s" r="N31" s="8">
+        <v>75</v>
+      </c>
+      <c r="O31" s="8"/>
+      <c t="s" r="P31" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="31" ht="25.5" customHeight="1">
-      <c r="P31" s="13">
-        <v>1780.9100000000001</v>
-      </c>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" ht="16.5" customHeight="1">
-      <c t="s" r="A32" s="14">
-        <v>100</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c t="s" r="G32" s="15">
+    <row r="32" ht="25.5" customHeight="1">
+      <c r="A32" s="7">
+        <v>26</v>
+      </c>
+      <c r="B32" s="7"/>
+      <c t="s" r="C32" s="8">
         <v>101</v>
       </c>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c t="s" r="K32" s="17">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c t="s" r="H32" s="9">
         <v>102</v>
       </c>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c t="s" r="L32" s="10">
+        <v>85</v>
+      </c>
+      <c r="M32" s="10"/>
+      <c t="s" r="N32" s="8">
+        <v>63</v>
+      </c>
+      <c r="O32" s="8"/>
+      <c t="s" r="P32" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q32" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" ht="24.75" customHeight="1">
+      <c r="P33" s="13">
+        <v>1879.3699999999999</v>
+      </c>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="16.5" customHeight="1">
+      <c t="s" r="A34" s="14">
+        <v>104</v>
+      </c>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c t="s" r="G34" s="15">
+        <v>105</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c t="s" r="K34" s="17">
+        <v>106</v>
+      </c>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="132">
+  <mergeCells count="142">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1892,10 +1970,20 @@
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="N30:O30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="H31:K31"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="K34:Q34"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -263,7 +263,7 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>1:3</t>
+    <t>1:2</t>
   </si>
   <si>
     <t>0</t>
@@ -272,7 +272,7 @@
     <t>108.00</t>
   </si>
   <si>
-    <t>27.0000</t>
+    <t>54.0000</t>
   </si>
   <si>
     <t>RIVO 320MG 20*10 TABS</t>
@@ -323,7 +323,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:23 PM</t>
+    <t>Thursday, 25 September, 2025 2:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1641,7 +1641,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1811,7 +1811,7 @@
     </row>
     <row r="33" ht="24.75" customHeight="1">
       <c r="P33" s="13">
-        <v>1879.3699999999999</v>
+        <v>1906.3699999999999</v>
       </c>
       <c r="Q33" s="13"/>
     </row>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -311,9 +311,27 @@
     <t>9:0</t>
   </si>
   <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
+    <t>27:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
+    <t>مجموعه برد</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>8.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -323,7 +341,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:24 PM</t>
+    <t>Thursday, 25 September, 2025 2:26 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1756,7 +1774,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1766,11 +1784,11 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>16</v>
@@ -1782,14 +1800,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1799,49 +1817,115 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
-      <c r="P33" s="13">
-        <v>1906.3699999999999</v>
-      </c>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c t="s" r="A34" s="14">
+      <c r="A33" s="7">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7"/>
+      <c t="s" r="C33" s="8">
         <v>104</v>
       </c>
-      <c r="B34" s="14"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c t="s" r="G34" s="15">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c t="s" r="H33" s="9">
+        <v>35</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c t="s" r="L33" s="10">
+        <v>85</v>
+      </c>
+      <c r="M33" s="10"/>
+      <c t="s" r="N33" s="8">
         <v>105</v>
       </c>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="16"/>
-      <c t="s" r="K34" s="17">
+      <c r="O33" s="8"/>
+      <c t="s" r="P33" s="11">
         <v>106</v>
       </c>
-      <c r="L34" s="17"/>
-      <c r="M34" s="17"/>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
+      <c t="s" r="Q33" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" ht="25.5" customHeight="1">
+      <c r="A34" s="7">
+        <v>28</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c t="s" r="C34" s="8">
+        <v>107</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c t="s" r="H34" s="9">
+        <v>108</v>
+      </c>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c t="s" r="L34" s="10">
+        <v>85</v>
+      </c>
+      <c r="M34" s="10"/>
+      <c t="s" r="N34" s="8">
+        <v>63</v>
+      </c>
+      <c r="O34" s="8"/>
+      <c t="s" r="P34" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q34" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" ht="24.75" customHeight="1">
+      <c r="P35" s="13">
+        <v>1934.3699999999999</v>
+      </c>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="16.5" customHeight="1">
+      <c t="s" r="A36" s="14">
+        <v>110</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c t="s" r="G36" s="15">
+        <v>111</v>
+      </c>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c t="s" r="K36" s="17">
+        <v>112</v>
+      </c>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="142">
+  <mergeCells count="152">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -1980,10 +2064,20 @@
     <mergeCell ref="H32:K32"/>
     <mergeCell ref="L32:M32"/>
     <mergeCell ref="N32:O32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="K36:Q36"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:26 PM</t>
+    <t>Thursday, 25 September, 2025 2:27 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1246,7 +1246,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:27 PM</t>
+    <t>Thursday, 25 September, 2025 2:43 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -341,7 +341,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:43 PM</t>
+    <t>Thursday, 25 September, 2025 2:45 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -275,6 +275,15 @@
     <t>54.0000</t>
   </si>
   <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -287,6 +296,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ايزي سويت 3 قطع</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -299,6 +317,15 @@
     <t>3:0</t>
   </si>
   <si>
+    <t>زيت باراشوت صغير</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
@@ -317,7 +344,13 @@
     <t>27:0</t>
   </si>
   <si>
-    <t>20.0000</t>
+    <t>شمع حريمي</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>50.0000</t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
@@ -335,13 +368,19 @@
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:45 PM</t>
+    <t>مناديل شمع</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>40.0000</t>
+  </si>
+  <si>
+    <t>Thursday, 25 September, 2025 2:46 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1675,7 +1714,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1685,14 +1724,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1701,20 +1740,20 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
@@ -1725,7 +1764,7 @@
         <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>95</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1734,14 +1773,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1751,14 +1790,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1767,14 +1806,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1784,14 +1823,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1800,14 +1839,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1817,11 +1856,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>75</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1833,7 +1872,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1850,14 +1889,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1866,14 +1905,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -1883,49 +1922,214 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
-      <c r="P35" s="13">
-        <v>1934.3699999999999</v>
-      </c>
-      <c r="Q35" s="13"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c t="s" r="A36" s="14">
-        <v>110</v>
-      </c>
-      <c r="B36" s="14"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c t="s" r="G36" s="15">
+      <c r="A35" s="7">
+        <v>29</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c t="s" r="C35" s="8">
         <v>111</v>
       </c>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="16"/>
-      <c t="s" r="K36" s="17">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c t="s" r="H35" s="9">
         <v>112</v>
       </c>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c t="s" r="L35" s="10">
+        <v>85</v>
+      </c>
+      <c r="M35" s="10"/>
+      <c t="s" r="N35" s="8">
+        <v>49</v>
+      </c>
+      <c r="O35" s="8"/>
+      <c t="s" r="P35" s="11">
+        <v>113</v>
+      </c>
+      <c t="s" r="Q35" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="A36" s="7">
+        <v>30</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c t="s" r="C36" s="8">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c t="s" r="H36" s="9">
+        <v>52</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c t="s" r="L36" s="10">
+        <v>85</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c t="s" r="N36" s="8">
+        <v>75</v>
+      </c>
+      <c r="O36" s="8"/>
+      <c t="s" r="P36" s="11">
+        <v>76</v>
+      </c>
+      <c t="s" r="Q36" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" ht="25.5" customHeight="1">
+      <c r="A37" s="7">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c t="s" r="C37" s="8">
+        <v>115</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c t="s" r="H37" s="9">
+        <v>35</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c t="s" r="L37" s="10">
+        <v>85</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c t="s" r="N37" s="8">
+        <v>116</v>
+      </c>
+      <c r="O37" s="8"/>
+      <c t="s" r="P37" s="11">
+        <v>117</v>
+      </c>
+      <c t="s" r="Q37" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" customHeight="1">
+      <c r="A38" s="7">
+        <v>32</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c t="s" r="C38" s="8">
+        <v>118</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c t="s" r="H38" s="9">
+        <v>112</v>
+      </c>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c t="s" r="L38" s="10">
+        <v>85</v>
+      </c>
+      <c r="M38" s="10"/>
+      <c t="s" r="N38" s="8">
+        <v>63</v>
+      </c>
+      <c r="O38" s="8"/>
+      <c t="s" r="P38" s="11">
+        <v>119</v>
+      </c>
+      <c t="s" r="Q38" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" ht="25.5" customHeight="1">
+      <c r="A39" s="7">
+        <v>33</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c t="s" r="C39" s="8">
+        <v>120</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c t="s" r="H39" s="9">
+        <v>35</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c t="s" r="L39" s="10">
+        <v>85</v>
+      </c>
+      <c r="M39" s="10"/>
+      <c t="s" r="N39" s="8">
+        <v>121</v>
+      </c>
+      <c r="O39" s="8"/>
+      <c t="s" r="P39" s="11">
+        <v>122</v>
+      </c>
+      <c t="s" r="Q39" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="24.75" customHeight="1">
+      <c r="P40" s="13">
+        <v>2226.3699999999999</v>
+      </c>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="16.5" customHeight="1">
+      <c t="s" r="A41" s="14">
+        <v>123</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c t="s" r="G41" s="15">
+        <v>124</v>
+      </c>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c t="s" r="K41" s="17">
+        <v>125</v>
+      </c>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="152">
+  <mergeCells count="177">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2074,10 +2278,35 @@
     <mergeCell ref="H34:K34"/>
     <mergeCell ref="L34:M34"/>
     <mergeCell ref="N34:O34"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="K36:Q36"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:K36"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:K37"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K41:Q41"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -380,7 +380,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:46 PM</t>
+    <t>Thursday, 25 September, 2025 2:49 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -224,6 +224,21 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:2</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>12.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -380,7 +395,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 2:49 PM</t>
+    <t>Thursday, 25 September, 2025 3:14 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1549,7 +1564,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1559,14 +1574,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1575,14 +1590,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1592,14 +1607,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1608,14 +1623,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1625,14 +1640,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1641,14 +1656,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1658,14 +1673,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1674,20 +1689,20 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>84</v>
+        <v>30</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
@@ -1698,7 +1713,7 @@
         <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1714,24 +1729,24 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1740,14 +1755,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1757,14 +1772,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1773,31 +1788,31 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1806,31 +1821,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1839,7 +1854,7 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
@@ -1852,18 +1867,18 @@
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1872,31 +1887,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1905,31 +1920,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1938,28 +1953,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -1971,28 +1986,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2004,28 +2019,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>116</v>
+        <v>80</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>117</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2037,28 +2052,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>63</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2070,66 +2085,99 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
-      <c r="P40" s="13">
-        <v>2226.3699999999999</v>
-      </c>
-      <c r="Q40" s="13"/>
-    </row>
-    <row r="41" ht="16.5" customHeight="1">
-      <c t="s" r="A41" s="14">
-        <v>123</v>
-      </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c t="s" r="G41" s="15">
-        <v>124</v>
-      </c>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="16"/>
-      <c t="s" r="K41" s="17">
+      <c r="A40" s="7">
+        <v>34</v>
+      </c>
+      <c r="B40" s="7"/>
+      <c t="s" r="C40" s="8">
         <v>125</v>
       </c>
-      <c r="L41" s="17"/>
-      <c r="M41" s="17"/>
-      <c r="N41" s="17"/>
-      <c r="O41" s="17"/>
-      <c r="P41" s="17"/>
-      <c r="Q41" s="17"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c t="s" r="H40" s="9">
+        <v>35</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c t="s" r="L40" s="10">
+        <v>90</v>
+      </c>
+      <c r="M40" s="10"/>
+      <c t="s" r="N40" s="8">
+        <v>126</v>
+      </c>
+      <c r="O40" s="8"/>
+      <c t="s" r="P40" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" ht="25.5" customHeight="1">
+      <c r="P41" s="13">
+        <v>2238.3699999999999</v>
+      </c>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="16.5" customHeight="1">
+      <c t="s" r="A42" s="14">
+        <v>128</v>
+      </c>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c t="s" r="G42" s="15">
+        <v>129</v>
+      </c>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c t="s" r="K42" s="17">
+        <v>130</v>
+      </c>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="177">
+  <mergeCells count="182">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2303,10 +2351,15 @@
     <mergeCell ref="H39:K39"/>
     <mergeCell ref="L39:M39"/>
     <mergeCell ref="N39:O39"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="G42:I42"/>
+    <mergeCell ref="K42:Q42"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -248,6 +248,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>GRAMITIN TAB</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
     <t>KAPRITAGE SOAP 100 GM</t>
   </si>
   <si>
@@ -269,9 +281,6 @@
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
-    <t>126.00</t>
-  </si>
-  <si>
     <t>126.0000</t>
   </si>
   <si>
@@ -281,9 +290,6 @@
     <t>1:2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -395,7 +401,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 3:14 PM</t>
+    <t>Thursday, 25 September, 2025 3:17 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1630,24 +1636,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1656,14 +1662,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1673,14 +1679,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1689,14 +1695,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1706,14 +1712,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1722,31 +1728,31 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
       <c t="s" r="L28" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1755,31 +1761,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1788,14 +1794,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1805,14 +1811,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1821,31 +1827,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1854,31 +1860,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1887,7 +1893,7 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
@@ -1900,18 +1906,18 @@
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1920,31 +1926,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1953,31 +1959,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1999,15 +2005,15 @@
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2019,28 +2025,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>52</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2052,28 +2058,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2085,24 +2091,24 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
@@ -2125,59 +2131,92 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>126</v>
+        <v>63</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
-      <c r="P41" s="13">
-        <v>2238.3699999999999</v>
-      </c>
-      <c r="Q41" s="13"/>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="14">
+      <c r="A41" s="7">
+        <v>35</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c t="s" r="C41" s="8">
+        <v>127</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c t="s" r="H41" s="9">
+        <v>35</v>
+      </c>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c t="s" r="L41" s="10">
+        <v>80</v>
+      </c>
+      <c r="M41" s="10"/>
+      <c t="s" r="N41" s="8">
         <v>128</v>
       </c>
-      <c r="B42" s="14"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c t="s" r="G42" s="15">
+      <c r="O41" s="8"/>
+      <c t="s" r="P41" s="11">
         <v>129</v>
       </c>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="16"/>
-      <c t="s" r="K42" s="17">
+      <c t="s" r="Q41" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="P42" s="13">
+        <v>2321.5300000000002</v>
+      </c>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="14">
         <v>130</v>
       </c>
-      <c r="L42" s="17"/>
-      <c r="M42" s="17"/>
-      <c r="N42" s="17"/>
-      <c r="O42" s="17"/>
-      <c r="P42" s="17"/>
-      <c r="Q42" s="17"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c t="s" r="G43" s="15">
+        <v>131</v>
+      </c>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c t="s" r="K43" s="17">
+        <v>132</v>
+      </c>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="182">
+  <mergeCells count="187">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2356,10 +2395,15 @@
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:M40"/>
     <mergeCell ref="N40:O40"/>
-    <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="G42:I42"/>
-    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="P42:Q42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="K43:Q43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -65,30 +65,33 @@
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
-    <t>3:3</t>
+    <t>3:2</t>
   </si>
   <si>
     <t>57.00</t>
   </si>
   <si>
-    <t>-28.5000</t>
+    <t>-19.3800</t>
+  </si>
+  <si>
+    <t>0:-2</t>
+  </si>
+  <si>
+    <t>B-COM I.M./I.V. 6 AMP</t>
+  </si>
+  <si>
+    <t>5:3</t>
+  </si>
+  <si>
+    <t>48.00</t>
+  </si>
+  <si>
+    <t>-24.0000</t>
   </si>
   <si>
     <t>0:-3</t>
   </si>
   <si>
-    <t>B-COM I.M./I.V. 6 AMP</t>
-  </si>
-  <si>
-    <t>5:3</t>
-  </si>
-  <si>
-    <t>48.00</t>
-  </si>
-  <si>
-    <t>-24.0000</t>
-  </si>
-  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -197,13 +200,13 @@
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
-    <t>6:1</t>
+    <t>6:0</t>
   </si>
   <si>
     <t>65.00</t>
   </si>
   <si>
-    <t>-39.0000</t>
+    <t>-26.0000</t>
   </si>
   <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
@@ -317,12 +320,21 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>84.0000</t>
+  </si>
+  <si>
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>20.0000</t>
   </si>
   <si>
@@ -338,6 +350,12 @@
     <t>3:0</t>
   </si>
   <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>36:0</t>
+  </si>
+  <si>
     <t>زيت باراشوت صغير</t>
   </si>
   <si>
@@ -359,6 +377,15 @@
     <t>9:0</t>
   </si>
   <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>3.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
@@ -368,15 +395,21 @@
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>6:0</t>
-  </si>
-  <si>
     <t>50.0000</t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
+    <t xml:space="preserve">كالونا </t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -386,6 +419,15 @@
     <t>8.0000</t>
   </si>
   <si>
+    <t>محلول ملح</t>
+  </si>
+  <si>
+    <t>21:0</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -401,7 +443,7 @@
     <t>40.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 3:17 PM</t>
+    <t>Thursday, 25 September, 2025 3:23 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1125,7 +1167,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1134,14 +1176,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1151,14 +1193,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1167,7 +1209,7 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
@@ -1184,11 +1226,11 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
         <v>16</v>
@@ -1200,14 +1242,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1217,11 +1259,11 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
         <v>16</v>
@@ -1233,14 +1275,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1250,14 +1292,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1266,14 +1308,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1283,11 +1325,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1299,14 +1341,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1316,14 +1358,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1332,14 +1374,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1349,14 +1391,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1365,14 +1407,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1382,11 +1424,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1398,14 +1440,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1415,14 +1457,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1431,7 +1473,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1448,11 +1490,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1464,14 +1506,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1481,11 +1523,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1497,14 +1539,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1518,7 +1560,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1530,7 +1572,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1547,11 +1589,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1563,14 +1605,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1580,14 +1622,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1596,7 +1638,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1613,14 +1655,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1629,31 +1671,31 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1662,14 +1704,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1679,11 +1721,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1695,14 +1737,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1712,14 +1754,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1728,14 +1770,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1745,11 +1787,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1761,31 +1803,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1794,14 +1836,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1811,11 +1853,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1827,14 +1869,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1844,14 +1886,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1860,28 +1902,28 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>80</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>40</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1893,31 +1935,31 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>108</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1939,7 +1981,7 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
@@ -1950,7 +1992,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1959,31 +2001,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>35</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1992,28 +2034,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>16</v>
@@ -2032,24 +2074,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>49</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2058,28 +2100,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>84</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2091,28 +2133,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2124,28 +2166,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2157,66 +2199,231 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>128</v>
+        <v>85</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>129</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
-      <c r="P42" s="13">
-        <v>2321.5300000000002</v>
-      </c>
-      <c r="Q42" s="13"/>
-    </row>
-    <row r="43" ht="16.5" customHeight="1">
-      <c t="s" r="A43" s="14">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c r="B42" s="7"/>
+      <c t="s" r="C42" s="8">
         <v>130</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c t="s" r="G43" s="15">
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
+        <v>36</v>
+      </c>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c t="s" r="L42" s="10">
+        <v>81</v>
+      </c>
+      <c r="M42" s="10"/>
+      <c t="s" r="N42" s="8">
         <v>131</v>
       </c>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="16"/>
-      <c t="s" r="K43" s="17">
+      <c r="O42" s="8"/>
+      <c t="s" r="P42" s="11">
         <v>132</v>
       </c>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
+      <c t="s" r="Q42" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" ht="24.75" customHeight="1">
+      <c r="A43" s="7">
+        <v>37</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c t="s" r="C43" s="8">
+        <v>133</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c t="s" r="H43" s="9">
+        <v>36</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c t="s" r="L43" s="10">
+        <v>81</v>
+      </c>
+      <c r="M43" s="10"/>
+      <c t="s" r="N43" s="8">
+        <v>134</v>
+      </c>
+      <c r="O43" s="8"/>
+      <c t="s" r="P43" s="11">
+        <v>135</v>
+      </c>
+      <c t="s" r="Q43" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" ht="25.5" customHeight="1">
+      <c r="A44" s="7">
+        <v>38</v>
+      </c>
+      <c r="B44" s="7"/>
+      <c t="s" r="C44" s="8">
+        <v>136</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c t="s" r="H44" s="9">
+        <v>137</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c t="s" r="L44" s="10">
+        <v>81</v>
+      </c>
+      <c r="M44" s="10"/>
+      <c t="s" r="N44" s="8">
+        <v>74</v>
+      </c>
+      <c r="O44" s="8"/>
+      <c t="s" r="P44" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q44" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" ht="24.75" customHeight="1">
+      <c r="A45" s="7">
+        <v>39</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c t="s" r="C45" s="8">
+        <v>139</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c t="s" r="H45" s="9">
+        <v>63</v>
+      </c>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c t="s" r="L45" s="10">
+        <v>81</v>
+      </c>
+      <c r="M45" s="10"/>
+      <c t="s" r="N45" s="8">
+        <v>64</v>
+      </c>
+      <c r="O45" s="8"/>
+      <c t="s" r="P45" s="11">
+        <v>140</v>
+      </c>
+      <c t="s" r="Q45" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" ht="25.5" customHeight="1">
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>141</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>36</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>81</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>142</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2489.6500000000001</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>144</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>145</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>146</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="187">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2400,10 +2607,35 @@
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:M41"/>
     <mergeCell ref="N41:O41"/>
-    <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="N43:O43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:M44"/>
+    <mergeCell ref="N44:O44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -434,16 +434,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>مناديل شمع</t>
-  </si>
-  <si>
-    <t>40.00</t>
-  </si>
-  <si>
-    <t>40.0000</t>
-  </si>
-  <si>
-    <t>Thursday, 25 September, 2025 3:23 PM</t>
+    <t>Thursday, 25 September, 2025 4:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2359,71 +2350,38 @@
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="A46" s="7">
-        <v>40</v>
-      </c>
-      <c r="B46" s="7"/>
-      <c t="s" r="C46" s="8">
+      <c r="P46" s="13">
+        <v>2449.6500000000001</v>
+      </c>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" ht="16.5" customHeight="1">
+      <c t="s" r="A47" s="14">
         <v>141</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c t="s" r="H46" s="9">
-        <v>36</v>
-      </c>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c t="s" r="L46" s="10">
-        <v>81</v>
-      </c>
-      <c r="M46" s="10"/>
-      <c t="s" r="N46" s="8">
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c t="s" r="G47" s="15">
         <v>142</v>
       </c>
-      <c r="O46" s="8"/>
-      <c t="s" r="P46" s="11">
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c t="s" r="K47" s="17">
         <v>143</v>
       </c>
-      <c t="s" r="Q46" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2489.6500000000001</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>144</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
-        <v>145</v>
-      </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
-        <v>146</v>
-      </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="207">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2627,15 +2585,10 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="K47:Q47"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -95,51 +95,54 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>81.00</t>
+  </si>
+  <si>
+    <t>53.4600</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>BIONAL 30 CAP</t>
+  </si>
+  <si>
+    <t>192.00</t>
+  </si>
+  <si>
+    <t>192.0000</t>
+  </si>
+  <si>
+    <t>BRADIPECT 5 MG 28 F.C. TABS</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>168.0000</t>
+  </si>
+  <si>
+    <t>CALCIMATE 500 MG 12 CAPS.</t>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>10.0000</t>
+  </si>
+  <si>
     <t>0:1</t>
   </si>
   <si>
-    <t>81.00</t>
-  </si>
-  <si>
-    <t>53.4600</t>
-  </si>
-  <si>
-    <t>0:2</t>
-  </si>
-  <si>
-    <t>BIONAL 30 CAP</t>
-  </si>
-  <si>
-    <t>192.00</t>
-  </si>
-  <si>
-    <t>192.0000</t>
-  </si>
-  <si>
-    <t>BRADIPECT 5 MG 28 F.C. TABS</t>
-  </si>
-  <si>
-    <t>0:0</t>
-  </si>
-  <si>
-    <t>168.00</t>
-  </si>
-  <si>
-    <t>168.0000</t>
-  </si>
-  <si>
-    <t>CALCIMATE 500 MG 12 CAPS.</t>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>10.0000</t>
-  </si>
-  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -356,6 +359,18 @@
     <t>36:0</t>
   </si>
   <si>
+    <t>حفاضات كبار سن</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>230.00</t>
+  </si>
+  <si>
+    <t>25.3000</t>
+  </si>
+  <si>
     <t>زيت باراشوت صغير</t>
   </si>
   <si>
@@ -434,7 +449,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 4:53 PM</t>
+    <t>Thursday, 25 September, 2025 5:03 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1290,7 +1305,7 @@
         <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1299,7 +1314,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1316,11 +1331,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1332,7 +1347,7 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
@@ -1349,11 +1364,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>31</v>
@@ -1365,14 +1380,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1382,14 +1397,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1398,14 +1413,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1415,11 +1430,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1431,14 +1446,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1448,14 +1463,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1464,7 +1479,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1481,11 +1496,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1497,14 +1512,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1514,11 +1529,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1530,14 +1545,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1551,7 +1566,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1563,7 +1578,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1580,11 +1595,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1596,14 +1611,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1613,14 +1628,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1629,7 +1644,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1646,14 +1661,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1662,28 +1677,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>31</v>
@@ -1695,7 +1710,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1712,11 +1727,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1728,14 +1743,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1745,14 +1760,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1761,7 +1776,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1778,11 +1793,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1794,28 +1809,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -1827,7 +1842,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1844,11 +1859,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1860,14 +1875,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1877,14 +1892,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>28</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1893,14 +1908,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1910,11 +1925,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1926,20 +1941,20 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
@@ -1947,7 +1962,7 @@
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1959,7 +1974,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1972,18 +1987,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1992,20 +2007,20 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2013,7 +2028,7 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2025,31 +2040,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2058,31 +2073,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2091,7 +2106,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2104,18 +2119,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2124,28 +2139,28 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2157,28 +2172,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2190,28 +2205,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>86</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2223,28 +2238,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2256,7 +2271,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2269,15 +2284,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2289,28 +2304,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>74</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2322,66 +2337,99 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
-      <c r="P46" s="13">
-        <v>2449.6500000000001</v>
-      </c>
-      <c r="Q46" s="13"/>
-    </row>
-    <row r="47" ht="16.5" customHeight="1">
-      <c t="s" r="A47" s="14">
-        <v>141</v>
-      </c>
-      <c r="B47" s="14"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c t="s" r="G47" s="15">
-        <v>142</v>
-      </c>
-      <c r="H47" s="15"/>
-      <c r="I47" s="15"/>
-      <c r="J47" s="16"/>
-      <c t="s" r="K47" s="17">
-        <v>143</v>
-      </c>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="17"/>
-      <c r="O47" s="17"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
+      <c r="A46" s="7">
+        <v>40</v>
+      </c>
+      <c r="B46" s="7"/>
+      <c t="s" r="C46" s="8">
+        <v>144</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c t="s" r="H46" s="9">
+        <v>64</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c t="s" r="L46" s="10">
+        <v>82</v>
+      </c>
+      <c r="M46" s="10"/>
+      <c t="s" r="N46" s="8">
+        <v>65</v>
+      </c>
+      <c r="O46" s="8"/>
+      <c t="s" r="P46" s="11">
+        <v>145</v>
+      </c>
+      <c t="s" r="Q46" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" ht="25.5" customHeight="1">
+      <c r="P47" s="13">
+        <v>2474.9499999999998</v>
+      </c>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" ht="16.5" customHeight="1">
+      <c t="s" r="A48" s="14">
+        <v>146</v>
+      </c>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c t="s" r="G48" s="15">
+        <v>147</v>
+      </c>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c t="s" r="K48" s="17">
+        <v>148</v>
+      </c>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="207">
+  <mergeCells count="212">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2585,10 +2633,15 @@
     <mergeCell ref="H45:K45"/>
     <mergeCell ref="L45:M45"/>
     <mergeCell ref="N45:O45"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="K47:Q47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="K48:Q48"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -95,7 +95,7 @@
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
-    <t>2:1</t>
+    <t>3:1</t>
   </si>
   <si>
     <t>81.00</t>
@@ -131,9 +131,6 @@
     <t>CALCIMATE 500 MG 12 CAPS.</t>
   </si>
   <si>
-    <t>3:1</t>
-  </si>
-  <si>
     <t>20.00</t>
   </si>
   <si>
@@ -449,7 +446,7 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 5:03 PM</t>
+    <t>Thursday, 25 September, 2025 5:28 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1288,7 +1285,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1298,14 +1295,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
+        <v>41</v>
+      </c>
+      <c t="s" r="Q13" s="12">
         <v>42</v>
-      </c>
-      <c t="s" r="Q13" s="12">
-        <v>43</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1314,7 +1311,7 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
@@ -1331,11 +1328,11 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
         <v>16</v>
@@ -1347,14 +1344,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1364,11 +1361,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>31</v>
@@ -1380,14 +1377,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1397,14 +1394,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1413,14 +1410,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1430,11 +1427,11 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
         <v>16</v>
@@ -1446,14 +1443,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1463,14 +1460,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1479,7 +1476,7 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
@@ -1496,11 +1493,11 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
         <v>16</v>
@@ -1512,14 +1509,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1529,11 +1526,11 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q20" s="12">
         <v>21</v>
@@ -1545,14 +1542,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1566,7 +1563,7 @@
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>12</v>
@@ -1578,7 +1575,7 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
@@ -1595,11 +1592,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1611,14 +1608,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1628,14 +1625,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
+        <v>75</v>
+      </c>
+      <c t="s" r="Q23" s="12">
         <v>76</v>
-      </c>
-      <c t="s" r="Q23" s="12">
-        <v>77</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1644,7 +1641,7 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
@@ -1661,14 +1658,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1677,28 +1674,28 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>31</v>
@@ -1710,7 +1707,7 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
@@ -1727,11 +1724,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>16</v>
@@ -1743,14 +1740,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1760,14 +1757,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1776,7 +1773,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -1793,11 +1790,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -1809,28 +1806,28 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
         <v>31</v>
@@ -1842,7 +1839,7 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
@@ -1859,11 +1856,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1875,14 +1872,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1892,14 +1889,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1908,14 +1905,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1925,11 +1922,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1941,28 +1938,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1974,7 +1971,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -1987,18 +1984,18 @@
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>111</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>112</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>113</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2007,28 +2004,28 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2040,28 +2037,28 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
         <v>31</v>
@@ -2073,7 +2070,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2086,15 +2083,15 @@
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2106,7 +2103,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2119,18 +2116,18 @@
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q38" s="12">
         <v>125</v>
-      </c>
-      <c t="s" r="Q38" s="12">
-        <v>126</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2139,7 +2136,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2152,15 +2149,15 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
         <v>16</v>
@@ -2172,28 +2169,28 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2205,28 +2202,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2238,28 +2235,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2271,7 +2268,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2284,15 +2281,15 @@
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2304,7 +2301,7 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
@@ -2317,15 +2314,15 @@
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2337,28 +2334,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2370,28 +2367,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2405,7 +2402,7 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c t="s" r="A48" s="14">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B48" s="14"/>
       <c r="C48" s="14"/>
@@ -2413,13 +2410,13 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
       <c t="s" r="G48" s="15">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
       <c t="s" r="K48" s="17">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" s="17"/>
       <c r="M48" s="17"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AMRIZOLE 500 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>4:0</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>25.0000</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -162,9 +174,6 @@
   </si>
   <si>
     <t>50.00</t>
-  </si>
-  <si>
-    <t>25.0000</t>
   </si>
   <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
@@ -1137,7 +1146,7 @@
         <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1146,14 +1155,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1163,14 +1172,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>24</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>25</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1179,14 +1188,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1196,14 +1205,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>29</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>30</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1212,14 +1221,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1236,7 +1245,7 @@
         <v>34</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1245,14 +1254,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1285,7 +1294,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1295,14 +1304,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1318,7 +1327,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1335,7 +1344,7 @@
         <v>45</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1344,14 +1353,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1361,14 +1370,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1377,14 +1386,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1394,14 +1403,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1410,14 +1419,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1431,10 +1440,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1443,14 +1452,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1467,7 +1476,7 @@
         <v>58</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1483,7 +1492,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1500,7 +1509,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1516,7 +1525,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1526,14 +1535,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1542,14 +1551,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1559,14 +1568,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1582,7 +1591,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1592,14 +1601,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
         <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1615,7 +1624,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1625,14 +1634,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>76</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1641,14 +1650,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1658,14 +1667,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
+        <v>78</v>
+      </c>
+      <c t="s" r="Q24" s="12">
         <v>79</v>
-      </c>
-      <c t="s" r="Q24" s="12">
-        <v>42</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1681,24 +1690,24 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c t="s" r="L25" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1707,20 +1716,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1731,7 +1740,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1747,7 +1756,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1764,7 +1773,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1780,7 +1789,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1790,14 +1799,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1806,31 +1815,31 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1839,20 +1848,20 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>36</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
@@ -1863,7 +1872,7 @@
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1879,7 +1888,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1889,14 +1898,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>42</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1905,14 +1914,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1922,14 +1931,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1938,28 +1947,28 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c r="K33" s="9"/>
       <c t="s" r="L33" s="10">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>16</v>
@@ -1971,31 +1980,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>112</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2004,31 +2013,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2037,31 +2046,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>44</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2070,20 +2079,20 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2094,7 +2103,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2110,13 +2119,13 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
@@ -2127,7 +2136,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2136,31 +2145,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q39" s="12">
         <v>128</v>
-      </c>
-      <c t="s" r="Q39" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2176,21 +2185,21 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2202,28 +2211,28 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2235,28 +2244,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2268,28 +2277,28 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2308,13 +2317,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2341,17 +2350,17 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
@@ -2374,59 +2383,92 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>63</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
-      <c r="P47" s="13">
-        <v>2474.9499999999998</v>
-      </c>
-      <c r="Q47" s="13"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c t="s" r="A48" s="14">
-        <v>145</v>
-      </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c t="s" r="G48" s="15">
+      <c r="A47" s="7">
+        <v>41</v>
+      </c>
+      <c r="B47" s="7"/>
+      <c t="s" r="C47" s="8">
         <v>146</v>
       </c>
-      <c r="H48" s="15"/>
-      <c r="I48" s="15"/>
-      <c r="J48" s="16"/>
-      <c t="s" r="K48" s="17">
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c t="s" r="H47" s="9">
+        <v>66</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c t="s" r="L47" s="10">
+        <v>84</v>
+      </c>
+      <c r="M47" s="10"/>
+      <c t="s" r="N47" s="8">
+        <v>67</v>
+      </c>
+      <c r="O47" s="8"/>
+      <c t="s" r="P47" s="11">
         <v>147</v>
       </c>
-      <c r="L48" s="17"/>
-      <c r="M48" s="17"/>
-      <c r="N48" s="17"/>
-      <c r="O48" s="17"/>
-      <c r="P48" s="17"/>
-      <c r="Q48" s="17"/>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="P48" s="13">
+        <v>2499.9499999999998</v>
+      </c>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" ht="16.5" customHeight="1">
+      <c t="s" r="A49" s="14">
+        <v>148</v>
+      </c>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c t="s" r="G49" s="15">
+        <v>149</v>
+      </c>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c t="s" r="K49" s="17">
+        <v>150</v>
+      </c>
+      <c r="L49" s="17"/>
+      <c r="M49" s="17"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="212">
+  <mergeCells count="217">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2635,10 +2677,15 @@
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="N46:O46"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="K48:Q48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="H47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="K49:Q49"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -296,6 +296,12 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -344,9 +350,6 @@
     <t>ايزي سويت 3 قطع</t>
   </si>
   <si>
-    <t>20.0000</t>
-  </si>
-  <si>
     <t>بادي سبلاش ايفا</t>
   </si>
   <si>
@@ -455,7 +458,13 @@
     <t>65.0000</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 5:28 PM</t>
+    <t>مناديل سولو سحب</t>
+  </si>
+  <si>
+    <t>19:0</t>
+  </si>
+  <si>
+    <t>Thursday, 25 September, 2025 5:57 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1855,24 +1864,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1881,31 +1890,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1914,14 +1923,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>40</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1931,14 +1940,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1947,14 +1956,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1964,14 +1973,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1980,24 +1989,24 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
@@ -2020,7 +2029,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2030,14 +2039,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>115</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2046,14 +2055,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>117</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2063,14 +2072,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2079,14 +2088,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2096,14 +2105,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>44</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2112,14 +2121,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2129,14 +2138,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2145,14 +2154,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2162,14 +2171,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>128</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2178,7 +2187,7 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
@@ -2195,14 +2204,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2211,14 +2220,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2228,11 +2237,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>44</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2244,14 +2253,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2261,11 +2270,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2277,14 +2286,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2294,11 +2303,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>88</v>
+        <v>54</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>89</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2317,7 +2326,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2327,11 +2336,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2343,7 +2352,7 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
@@ -2360,11 +2369,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2376,14 +2385,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2393,11 +2402,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>77</v>
+        <v>142</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2409,14 +2418,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2426,49 +2435,115 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
+        <v>146</v>
+      </c>
+      <c t="s" r="Q47" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" ht="24.75" customHeight="1">
+      <c r="A48" s="7">
+        <v>42</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c t="s" r="C48" s="8">
         <v>147</v>
       </c>
-      <c t="s" r="Q47" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" ht="24.75" customHeight="1">
-      <c r="P48" s="13">
-        <v>2499.9499999999998</v>
-      </c>
-      <c r="Q48" s="13"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c t="s" r="A49" s="14">
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c t="s" r="H48" s="9">
+        <v>66</v>
+      </c>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c t="s" r="L48" s="10">
+        <v>84</v>
+      </c>
+      <c r="M48" s="10"/>
+      <c t="s" r="N48" s="8">
+        <v>67</v>
+      </c>
+      <c r="O48" s="8"/>
+      <c t="s" r="P48" s="11">
         <v>148</v>
       </c>
-      <c r="B49" s="14"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c t="s" r="G49" s="15">
+      <c t="s" r="Q48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" ht="25.5" customHeight="1">
+      <c r="A49" s="7">
+        <v>43</v>
+      </c>
+      <c r="B49" s="7"/>
+      <c t="s" r="C49" s="8">
         <v>149</v>
       </c>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="16"/>
-      <c t="s" r="K49" s="17">
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c t="s" r="H49" s="9">
         <v>150</v>
       </c>
-      <c r="L49" s="17"/>
-      <c r="M49" s="17"/>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c t="s" r="L49" s="10">
+        <v>84</v>
+      </c>
+      <c r="M49" s="10"/>
+      <c t="s" r="N49" s="8">
+        <v>88</v>
+      </c>
+      <c r="O49" s="8"/>
+      <c t="s" r="P49" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q49" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" ht="24.75" customHeight="1">
+      <c r="P50" s="13">
+        <v>2564.9499999999998</v>
+      </c>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" ht="16.5" customHeight="1">
+      <c t="s" r="A51" s="14">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c t="s" r="G51" s="15">
+        <v>152</v>
+      </c>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c t="s" r="K51" s="17">
+        <v>153</v>
+      </c>
+      <c r="L51" s="17"/>
+      <c r="M51" s="17"/>
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="217">
+  <mergeCells count="227">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2682,10 +2757,20 @@
     <mergeCell ref="H47:K47"/>
     <mergeCell ref="L47:M47"/>
     <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="K49:Q49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="H49:K49"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="G51:I51"/>
+    <mergeCell ref="K51:Q51"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -206,6 +206,18 @@
     <t>144.0000</t>
   </si>
   <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>85.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -335,6 +347,24 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>ZADOGLOBIN 20 CAPS</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>135.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -356,10 +386,7 @@
     <t>175.00</t>
   </si>
   <si>
-    <t>525.0000</t>
-  </si>
-  <si>
-    <t>3:0</t>
+    <t>700.0000</t>
   </si>
   <si>
     <t xml:space="preserve">جهاز محلول </t>
@@ -395,10 +422,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>18.8000</t>
-  </si>
-  <si>
-    <t>9:0</t>
+    <t>28.8000</t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -464,7 +491,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 5:57 PM</t>
+    <t>Thursday, 25 September, 2025 6:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1584,7 +1611,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1610,14 +1637,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1626,14 +1653,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>74</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1643,14 +1670,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1659,14 +1686,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1683,7 +1710,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1692,14 +1719,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1716,7 +1743,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>46</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1725,20 +1752,20 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1749,7 +1776,7 @@
         <v>86</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1765,24 +1792,24 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1791,14 +1818,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1808,14 +1835,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1824,14 +1851,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1841,14 +1868,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1857,14 +1884,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1874,11 +1901,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1890,31 +1917,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>44</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1930,24 +1957,24 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1956,14 +1983,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>105</v>
+        <v>40</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -1980,7 +2007,7 @@
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2013,7 +2040,7 @@
         <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2029,21 +2056,21 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2055,31 +2082,31 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>116</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2088,28 +2115,28 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2121,31 +2148,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2161,13 +2188,13 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
@@ -2178,7 +2205,7 @@
         <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2194,24 +2221,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2220,31 +2247,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2253,28 +2280,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>134</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2293,24 +2320,24 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>138</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2319,28 +2346,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>88</v>
+        <v>140</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>89</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2352,28 +2379,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2385,28 +2412,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2418,28 +2445,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2458,21 +2485,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>67</v>
+        <v>148</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2484,66 +2511,165 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
-      <c r="P50" s="13">
-        <v>2564.9499999999998</v>
-      </c>
-      <c r="Q50" s="13"/>
-    </row>
-    <row r="51" ht="16.5" customHeight="1">
-      <c t="s" r="A51" s="14">
-        <v>151</v>
-      </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c t="s" r="G51" s="15">
-        <v>152</v>
-      </c>
-      <c r="H51" s="15"/>
-      <c r="I51" s="15"/>
-      <c r="J51" s="16"/>
-      <c t="s" r="K51" s="17">
+      <c r="A50" s="7">
+        <v>44</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c t="s" r="C50" s="8">
         <v>153</v>
       </c>
-      <c r="L51" s="17"/>
-      <c r="M51" s="17"/>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17"/>
-      <c r="Q51" s="17"/>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c t="s" r="H50" s="9">
+        <v>154</v>
+      </c>
+      <c r="I50" s="9"/>
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c t="s" r="L50" s="10">
+        <v>88</v>
+      </c>
+      <c r="M50" s="10"/>
+      <c t="s" r="N50" s="8">
+        <v>81</v>
+      </c>
+      <c r="O50" s="8"/>
+      <c t="s" r="P50" s="11">
+        <v>155</v>
+      </c>
+      <c t="s" r="Q50" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" ht="25.5" customHeight="1">
+      <c r="A51" s="7">
+        <v>45</v>
+      </c>
+      <c r="B51" s="7"/>
+      <c t="s" r="C51" s="8">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c t="s" r="H51" s="9">
+        <v>70</v>
+      </c>
+      <c r="I51" s="9"/>
+      <c r="J51" s="9"/>
+      <c r="K51" s="9"/>
+      <c t="s" r="L51" s="10">
+        <v>88</v>
+      </c>
+      <c r="M51" s="10"/>
+      <c t="s" r="N51" s="8">
+        <v>71</v>
+      </c>
+      <c r="O51" s="8"/>
+      <c t="s" r="P51" s="11">
+        <v>157</v>
+      </c>
+      <c t="s" r="Q51" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" ht="25.5" customHeight="1">
+      <c r="A52" s="7">
+        <v>46</v>
+      </c>
+      <c r="B52" s="7"/>
+      <c t="s" r="C52" s="8">
+        <v>158</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c t="s" r="H52" s="9">
+        <v>159</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c t="s" r="L52" s="10">
+        <v>88</v>
+      </c>
+      <c r="M52" s="10"/>
+      <c t="s" r="N52" s="8">
+        <v>92</v>
+      </c>
+      <c r="O52" s="8"/>
+      <c t="s" r="P52" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q52" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" ht="24.75" customHeight="1">
+      <c r="P53" s="13">
+        <v>3092.9499999999998</v>
+      </c>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" ht="16.5" customHeight="1">
+      <c t="s" r="A54" s="14">
+        <v>160</v>
+      </c>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c t="s" r="G54" s="15">
+        <v>161</v>
+      </c>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c t="s" r="K54" s="17">
+        <v>162</v>
+      </c>
+      <c r="L54" s="17"/>
+      <c r="M54" s="17"/>
+      <c r="N54" s="17"/>
+      <c r="O54" s="17"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="227">
+  <mergeCells count="242">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2767,10 +2893,25 @@
     <mergeCell ref="H49:K49"/>
     <mergeCell ref="L49:M49"/>
     <mergeCell ref="N49:O49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="G51:I51"/>
-    <mergeCell ref="K51:Q51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="H50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="H51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="H52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="K54:Q54"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -230,6 +230,15 @@
     <t>-26.0000</t>
   </si>
   <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -248,6 +257,18 @@
     <t>51.0000</t>
   </si>
   <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
     <t>FAWAR FRUIT 6 SACHETS</t>
   </si>
   <si>
@@ -317,12 +338,6 @@
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
     <t>54.0000</t>
   </si>
   <si>
@@ -491,7 +506,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 6:24 PM</t>
+    <t>Thursday, 25 September, 2025 7:09 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1660,7 +1675,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1670,14 +1685,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1693,7 +1708,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1703,14 +1718,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1726,7 +1741,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1736,14 +1751,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1752,14 +1767,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1769,14 +1784,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1785,31 +1800,31 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
+        <v>89</v>
+      </c>
+      <c t="s" r="Q27" s="12">
         <v>90</v>
-      </c>
-      <c t="s" r="Q27" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1825,7 +1840,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1842,7 +1857,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1864,18 +1879,18 @@
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1884,14 +1899,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1901,11 +1916,11 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q30" s="12">
         <v>16</v>
@@ -1917,14 +1932,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1934,14 +1949,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1950,31 +1965,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>35</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1983,14 +1998,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2000,7 +2015,7 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>44</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
@@ -2023,24 +2038,24 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2049,7 +2064,7 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
@@ -2066,11 +2081,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2082,14 +2097,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2099,14 +2114,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2115,14 +2130,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2132,11 +2147,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>16</v>
@@ -2148,28 +2163,28 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>44</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2188,24 +2203,24 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2214,20 +2229,20 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2235,7 +2250,7 @@
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>16</v>
@@ -2254,24 +2269,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2280,28 +2295,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>132</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2313,31 +2328,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>138</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2346,28 +2361,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2379,31 +2394,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>40</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2419,21 +2434,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>54</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2445,28 +2460,28 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2478,28 +2493,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2511,28 +2526,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2544,28 +2559,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>81</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2577,24 +2592,24 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
@@ -2623,53 +2638,119 @@
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
-      <c r="P53" s="13">
-        <v>3092.9499999999998</v>
-      </c>
-      <c r="Q53" s="13"/>
-    </row>
-    <row r="54" ht="16.5" customHeight="1">
-      <c t="s" r="A54" s="14">
-        <v>160</v>
-      </c>
-      <c r="B54" s="14"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c t="s" r="G54" s="15">
+      <c r="A53" s="7">
+        <v>47</v>
+      </c>
+      <c r="B53" s="7"/>
+      <c t="s" r="C53" s="8">
         <v>161</v>
       </c>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-      <c r="J54" s="16"/>
-      <c t="s" r="K54" s="17">
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c t="s" r="H53" s="9">
+        <v>70</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c t="s" r="L53" s="10">
+        <v>95</v>
+      </c>
+      <c r="M53" s="10"/>
+      <c t="s" r="N53" s="8">
+        <v>71</v>
+      </c>
+      <c r="O53" s="8"/>
+      <c t="s" r="P53" s="11">
         <v>162</v>
       </c>
-      <c r="L54" s="17"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="17"/>
-      <c r="O54" s="17"/>
-      <c r="P54" s="17"/>
-      <c r="Q54" s="17"/>
+      <c t="s" r="Q53" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" ht="25.5" customHeight="1">
+      <c r="A54" s="7">
+        <v>48</v>
+      </c>
+      <c r="B54" s="7"/>
+      <c t="s" r="C54" s="8">
+        <v>163</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c t="s" r="H54" s="9">
+        <v>164</v>
+      </c>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c t="s" r="L54" s="10">
+        <v>95</v>
+      </c>
+      <c r="M54" s="10"/>
+      <c t="s" r="N54" s="8">
+        <v>99</v>
+      </c>
+      <c r="O54" s="8"/>
+      <c t="s" r="P54" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q54" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" ht="24.75" customHeight="1">
+      <c r="P55" s="13">
+        <v>3172.105</v>
+      </c>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" ht="16.5" customHeight="1">
+      <c t="s" r="A56" s="14">
+        <v>165</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c t="s" r="G56" s="15">
+        <v>166</v>
+      </c>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c t="s" r="K56" s="17">
+        <v>167</v>
+      </c>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="17"/>
+      <c r="O56" s="17"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="242">
+  <mergeCells count="252">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2908,10 +2989,20 @@
     <mergeCell ref="H52:K52"/>
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="K54:Q54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="H53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P55:Q55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="K56:Q56"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -506,7 +506,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:09 PM</t>
+    <t>Thursday, 25 September, 2025 7:16 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>93.00</t>
+  </si>
+  <si>
+    <t>30.6900</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -149,9 +161,6 @@
     <t>10.0000</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -293,6 +302,15 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
     <t>GRAMITIN TAB</t>
   </si>
   <si>
@@ -329,6 +347,18 @@
     <t>126.0000</t>
   </si>
   <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>15.3600</t>
+  </si>
+  <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
   </si>
   <si>
@@ -362,6 +392,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -386,9 +425,6 @@
     <t>8:0</t>
   </si>
   <si>
-    <t>84.00</t>
-  </si>
-  <si>
     <t>84.0000</t>
   </si>
   <si>
@@ -506,7 +542,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:16 PM</t>
+    <t>Thursday, 25 September, 2025 7:24 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1213,7 +1249,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1223,14 +1259,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
+        <v>23</v>
+      </c>
+      <c t="s" r="Q9" s="12">
         <v>24</v>
-      </c>
-      <c t="s" r="Q9" s="12">
-        <v>25</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1239,14 +1275,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1256,14 +1292,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
+        <v>28</v>
+      </c>
+      <c t="s" r="Q10" s="12">
         <v>29</v>
-      </c>
-      <c t="s" r="Q10" s="12">
-        <v>30</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1272,14 +1308,14 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1289,14 +1325,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q11" s="12">
         <v>34</v>
-      </c>
-      <c t="s" r="Q11" s="12">
-        <v>35</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1305,14 +1341,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1329,7 +1365,7 @@
         <v>38</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1338,14 +1374,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1378,7 +1414,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1388,14 +1424,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1411,7 +1447,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1428,7 +1464,7 @@
         <v>49</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1444,7 +1480,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1461,7 +1497,7 @@
         <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1477,7 +1513,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1491,10 +1527,10 @@
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1503,14 +1539,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1524,10 +1560,10 @@
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1536,14 +1572,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1560,7 +1596,7 @@
         <v>61</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1576,7 +1612,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1593,7 +1629,7 @@
         <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1609,7 +1645,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1619,11 +1655,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1635,14 +1671,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1652,14 +1688,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1668,14 +1704,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1692,7 +1728,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1708,7 +1744,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1718,14 +1754,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1741,7 +1777,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1751,14 +1787,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1774,7 +1810,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1784,14 +1820,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1800,14 +1836,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1817,14 +1853,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>90</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1833,14 +1869,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1850,14 +1886,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
+        <v>92</v>
+      </c>
+      <c t="s" r="Q28" s="12">
         <v>93</v>
-      </c>
-      <c t="s" r="Q28" s="12">
-        <v>46</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1873,24 +1909,24 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
       <c t="s" r="L29" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1899,14 +1935,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1916,14 +1952,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1932,20 +1968,20 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
@@ -1956,7 +1992,7 @@
         <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1972,7 +2008,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -1982,11 +2018,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -1998,14 +2034,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2015,14 +2051,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>44</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2031,31 +2067,31 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>39</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
       <c t="s" r="L34" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2064,14 +2100,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2081,14 +2117,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2097,14 +2133,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2114,14 +2150,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>48</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>46</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2130,31 +2166,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>101</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2170,7 +2206,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2220,7 +2256,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2236,24 +2272,24 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>124</v>
+        <v>44</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2262,31 +2298,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2295,28 +2331,28 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2328,31 +2364,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2361,28 +2397,28 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>137</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2401,13 +2437,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2418,7 +2454,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>143</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2427,28 +2463,28 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2460,31 +2496,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2500,21 +2536,21 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2526,31 +2562,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>99</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>100</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2559,28 +2595,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2592,28 +2628,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>48</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2625,28 +2661,28 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2658,28 +2694,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>71</v>
+        <v>105</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2691,66 +2727,198 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
-      <c r="P55" s="13">
-        <v>3172.105</v>
-      </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="14">
-        <v>165</v>
-      </c>
-      <c r="B56" s="14"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c t="s" r="G56" s="15">
-        <v>166</v>
-      </c>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-      <c r="J56" s="16"/>
-      <c t="s" r="K56" s="17">
+      <c r="A55" s="7">
+        <v>49</v>
+      </c>
+      <c r="B55" s="7"/>
+      <c t="s" r="C55" s="8">
         <v>167</v>
       </c>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="17"/>
-      <c r="O56" s="17"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c t="s" r="H55" s="9">
+        <v>44</v>
+      </c>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c t="s" r="L55" s="10">
+        <v>101</v>
+      </c>
+      <c r="M55" s="10"/>
+      <c t="s" r="N55" s="8">
+        <v>168</v>
+      </c>
+      <c r="O55" s="8"/>
+      <c t="s" r="P55" s="11">
+        <v>169</v>
+      </c>
+      <c t="s" r="Q55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="A56" s="7">
+        <v>50</v>
+      </c>
+      <c r="B56" s="7"/>
+      <c t="s" r="C56" s="8">
+        <v>170</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c t="s" r="H56" s="9">
+        <v>171</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c t="s" r="L56" s="10">
+        <v>101</v>
+      </c>
+      <c r="M56" s="10"/>
+      <c t="s" r="N56" s="8">
+        <v>91</v>
+      </c>
+      <c r="O56" s="8"/>
+      <c t="s" r="P56" s="11">
+        <v>172</v>
+      </c>
+      <c t="s" r="Q56" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" ht="25.5" customHeight="1">
+      <c r="A57" s="7">
+        <v>51</v>
+      </c>
+      <c r="B57" s="7"/>
+      <c t="s" r="C57" s="8">
+        <v>173</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c t="s" r="H57" s="9">
+        <v>73</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c t="s" r="L57" s="10">
+        <v>101</v>
+      </c>
+      <c r="M57" s="10"/>
+      <c t="s" r="N57" s="8">
+        <v>74</v>
+      </c>
+      <c r="O57" s="8"/>
+      <c t="s" r="P57" s="11">
+        <v>174</v>
+      </c>
+      <c t="s" r="Q57" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" ht="24.75" customHeight="1">
+      <c r="A58" s="7">
+        <v>52</v>
+      </c>
+      <c r="B58" s="7"/>
+      <c t="s" r="C58" s="8">
+        <v>175</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c t="s" r="H58" s="9">
+        <v>176</v>
+      </c>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c t="s" r="L58" s="10">
+        <v>101</v>
+      </c>
+      <c r="M58" s="10"/>
+      <c t="s" r="N58" s="8">
+        <v>105</v>
+      </c>
+      <c r="O58" s="8"/>
+      <c t="s" r="P58" s="11">
+        <v>106</v>
+      </c>
+      <c t="s" r="Q58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" ht="25.5" customHeight="1">
+      <c r="P59" s="13">
+        <v>3361.1350000000002</v>
+      </c>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" ht="16.5" customHeight="1">
+      <c t="s" r="A60" s="14">
+        <v>177</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c t="s" r="G60" s="15">
+        <v>178</v>
+      </c>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c t="s" r="K60" s="17">
+        <v>179</v>
+      </c>
+      <c r="L60" s="17"/>
+      <c r="M60" s="17"/>
+      <c r="N60" s="17"/>
+      <c r="O60" s="17"/>
+      <c r="P60" s="17"/>
+      <c r="Q60" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="252">
+  <mergeCells count="272">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -2999,10 +3167,30 @@
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
     <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P55:Q55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="K56:Q56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:G58"/>
+    <mergeCell ref="H58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="G60:I60"/>
+    <mergeCell ref="K60:Q60"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -62,6 +62,33 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>AM GINKO TAB</t>
+  </si>
+  <si>
+    <t>0:1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>99.0000</t>
+  </si>
+  <si>
+    <t>AMOCEREBRAL PLUS 20/40 MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>11.8800</t>
+  </si>
+  <si>
     <t>AMRIZOLE 500 MG 20 TABS.</t>
   </si>
   <si>
@@ -74,6 +101,27 @@
     <t>25.0000</t>
   </si>
   <si>
+    <t>ANDOPENTENE XR 300 MG 20 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>67.5000</t>
+  </si>
+  <si>
+    <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t>141.00</t>
+  </si>
+  <si>
+    <t>46.5300</t>
+  </si>
+  <si>
     <t>AVEROTHIAZIDE 5/20/12.5MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -83,9 +131,6 @@
     <t>30.6900</t>
   </si>
   <si>
-    <t>0:1</t>
-  </si>
-  <si>
     <t>AVIL 45.5MG/2ML 6 I.M. AMPS</t>
   </si>
   <si>
@@ -128,9 +173,6 @@
     <t>53.4600</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>BIONAL 30 CAP</t>
   </si>
   <si>
@@ -218,13 +260,13 @@
     <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
   </si>
   <si>
-    <t>2:1</t>
-  </si>
-  <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>85.0000</t>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
   </si>
   <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
@@ -314,15 +356,18 @@
     <t>GRAMITIN TAB</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>126.00</t>
   </si>
   <si>
     <t>83.1600</t>
   </si>
   <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
     <t>KAPRITAGE SOAP 100 GM</t>
   </si>
   <si>
@@ -350,9 +395,6 @@
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
-    <t>2:2</t>
-  </si>
-  <si>
     <t>96.00</t>
   </si>
   <si>
@@ -386,9 +428,6 @@
     <t>1:8</t>
   </si>
   <si>
-    <t>141.00</t>
-  </si>
-  <si>
     <t>7.0500</t>
   </si>
   <si>
@@ -413,9 +452,6 @@
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
-    <t>135.00</t>
-  </si>
-  <si>
     <t>135.0000</t>
   </si>
   <si>
@@ -473,10 +509,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>28.8000</t>
-  </si>
-  <si>
-    <t>14:0</t>
+    <t>40.8000</t>
+  </si>
+  <si>
+    <t>20:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -542,7 +578,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:24 PM</t>
+    <t>Thursday, 25 September, 2025 7:29 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1222,18 +1258,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1242,14 +1278,14 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
@@ -1259,14 +1295,14 @@
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1275,14 +1311,14 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
@@ -1292,14 +1328,14 @@
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1315,7 +1351,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1325,14 +1361,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1341,14 +1377,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1358,14 +1394,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1374,14 +1410,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1391,14 +1427,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1407,14 +1443,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1424,14 +1460,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1440,14 +1476,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1457,14 +1493,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>48</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>49</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>24</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1480,7 +1516,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1490,14 +1526,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1506,7 +1542,7 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -1523,14 +1559,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1539,14 +1575,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1556,14 +1592,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1572,14 +1608,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1589,14 +1625,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1605,14 +1641,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1622,14 +1658,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1638,7 +1674,7 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -1655,14 +1691,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1671,14 +1707,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1688,14 +1724,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1728,7 +1764,7 @@
         <v>75</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1744,7 +1780,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1761,7 +1797,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1777,7 +1813,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1787,14 +1823,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1827,7 +1863,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1836,14 +1872,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1853,14 +1889,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1869,14 +1905,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1893,7 +1929,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>93</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1902,14 +1938,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1919,14 +1955,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1935,14 +1971,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1952,14 +1988,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1968,31 +2004,31 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c t="s" r="L31" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2001,14 +2037,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2025,7 +2061,7 @@
         <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2034,14 +2070,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2051,14 +2087,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2067,14 +2103,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2084,14 +2120,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2100,31 +2136,31 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2133,14 +2169,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2150,14 +2186,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2166,31 +2202,31 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2199,14 +2235,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2216,14 +2252,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2232,14 +2268,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>23</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2249,14 +2285,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2272,7 +2308,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2289,7 +2325,7 @@
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2305,7 +2341,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2315,11 +2351,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>62</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>16</v>
@@ -2331,31 +2367,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2364,14 +2400,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>137</v>
+        <v>58</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2381,11 +2417,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>16</v>
@@ -2397,31 +2433,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2437,13 +2473,13 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
@@ -2470,21 +2506,21 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>144</v>
+        <v>58</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>117</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2496,31 +2532,31 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
       <c r="K47" s="9"/>
       <c t="s" r="L47" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>31</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2529,28 +2565,28 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2562,31 +2598,31 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>44</v>
+        <v>149</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>155</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2595,31 +2631,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2628,28 +2664,28 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q51" s="12">
         <v>16</v>
@@ -2661,31 +2697,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>73</v>
+        <v>158</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2694,28 +2730,28 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>106</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -2734,13 +2770,13 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
@@ -2751,7 +2787,7 @@
         <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2760,28 +2796,28 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -2793,28 +2829,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2833,17 +2869,17 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -2866,59 +2902,224 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>73</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
-      <c r="P59" s="13">
-        <v>3361.1350000000002</v>
-      </c>
-      <c r="Q59" s="13"/>
-    </row>
-    <row r="60" ht="16.5" customHeight="1">
-      <c t="s" r="A60" s="14">
+      <c r="A59" s="7">
+        <v>53</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c t="s" r="C59" s="8">
+        <v>176</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c t="s" r="H59" s="9">
+        <v>58</v>
+      </c>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c t="s" r="L59" s="10">
+        <v>19</v>
+      </c>
+      <c r="M59" s="10"/>
+      <c t="s" r="N59" s="8">
         <v>177</v>
       </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c t="s" r="G60" s="15">
+      <c r="O59" s="8"/>
+      <c t="s" r="P59" s="11">
         <v>178</v>
       </c>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="16"/>
-      <c t="s" r="K60" s="17">
+      <c t="s" r="Q59" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" ht="24.75" customHeight="1">
+      <c r="A60" s="7">
+        <v>54</v>
+      </c>
+      <c r="B60" s="7"/>
+      <c t="s" r="C60" s="8">
         <v>179</v>
       </c>
-      <c r="L60" s="17"/>
-      <c r="M60" s="17"/>
-      <c r="N60" s="17"/>
-      <c r="O60" s="17"/>
-      <c r="P60" s="17"/>
-      <c r="Q60" s="17"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c t="s" r="H60" s="9">
+        <v>58</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c t="s" r="L60" s="10">
+        <v>19</v>
+      </c>
+      <c r="M60" s="10"/>
+      <c t="s" r="N60" s="8">
+        <v>180</v>
+      </c>
+      <c r="O60" s="8"/>
+      <c t="s" r="P60" s="11">
+        <v>181</v>
+      </c>
+      <c t="s" r="Q60" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" ht="25.5" customHeight="1">
+      <c r="A61" s="7">
+        <v>55</v>
+      </c>
+      <c r="B61" s="7"/>
+      <c t="s" r="C61" s="8">
+        <v>182</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c t="s" r="H61" s="9">
+        <v>183</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c t="s" r="L61" s="10">
+        <v>19</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c t="s" r="N61" s="8">
+        <v>105</v>
+      </c>
+      <c r="O61" s="8"/>
+      <c t="s" r="P61" s="11">
+        <v>184</v>
+      </c>
+      <c t="s" r="Q61" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" ht="25.5" customHeight="1">
+      <c r="A62" s="7">
+        <v>56</v>
+      </c>
+      <c r="B62" s="7"/>
+      <c t="s" r="C62" s="8">
+        <v>185</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c t="s" r="H62" s="9">
+        <v>87</v>
+      </c>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c t="s" r="L62" s="10">
+        <v>19</v>
+      </c>
+      <c r="M62" s="10"/>
+      <c t="s" r="N62" s="8">
+        <v>88</v>
+      </c>
+      <c r="O62" s="8"/>
+      <c t="s" r="P62" s="11">
+        <v>186</v>
+      </c>
+      <c t="s" r="Q62" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" ht="24.75" customHeight="1">
+      <c r="A63" s="7">
+        <v>57</v>
+      </c>
+      <c r="B63" s="7"/>
+      <c t="s" r="C63" s="8">
+        <v>187</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c t="s" r="H63" s="9">
+        <v>188</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c t="s" r="L63" s="10">
+        <v>19</v>
+      </c>
+      <c r="M63" s="10"/>
+      <c t="s" r="N63" s="8">
+        <v>120</v>
+      </c>
+      <c r="O63" s="8"/>
+      <c t="s" r="P63" s="11">
+        <v>121</v>
+      </c>
+      <c t="s" r="Q63" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" ht="25.5" customHeight="1">
+      <c r="P64" s="13">
+        <v>3709.7750000000001</v>
+      </c>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" ht="16.5" customHeight="1">
+      <c t="s" r="A65" s="14">
+        <v>189</v>
+      </c>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c t="s" r="G65" s="15">
+        <v>190</v>
+      </c>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c t="s" r="K65" s="17">
+        <v>191</v>
+      </c>
+      <c r="L65" s="17"/>
+      <c r="M65" s="17"/>
+      <c r="N65" s="17"/>
+      <c r="O65" s="17"/>
+      <c r="P65" s="17"/>
+      <c r="Q65" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="297">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3187,10 +3388,35 @@
     <mergeCell ref="H58:K58"/>
     <mergeCell ref="L58:M58"/>
     <mergeCell ref="N58:O58"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="G60:I60"/>
-    <mergeCell ref="K60:Q60"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:G60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="C61:G61"/>
+    <mergeCell ref="H61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="H62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="H63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="K65:Q65"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -221,6 +221,15 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
     <t>CONGESTAL 20 TABS</t>
   </si>
   <si>
@@ -416,9 +425,6 @@
     <t>PRIDOCAINE CREAM 15 GM</t>
   </si>
   <si>
-    <t>32.00</t>
-  </si>
-  <si>
     <t>32.0000</t>
   </si>
   <si>
@@ -578,7 +584,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:29 PM</t>
+    <t>Thursday, 25 September, 2025 7:30 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1714,7 +1720,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1728,7 +1734,7 @@
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>18</v>
@@ -1740,14 +1746,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1761,10 +1767,10 @@
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1773,14 +1779,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1797,7 +1803,7 @@
         <v>78</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1813,7 +1819,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1830,7 +1836,7 @@
         <v>81</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1846,7 +1852,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1863,7 +1869,7 @@
         <v>84</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>85</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1872,14 +1878,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1889,14 +1895,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1905,14 +1911,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1929,7 +1935,7 @@
         <v>92</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1945,7 +1951,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>94</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1955,14 +1961,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
         <v>95</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1978,7 +1984,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1988,14 +1994,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2011,7 +2017,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2021,14 +2027,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2037,14 +2043,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2054,14 +2060,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2070,14 +2076,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2087,14 +2093,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
+        <v>109</v>
+      </c>
+      <c t="s" r="Q33" s="12">
         <v>110</v>
-      </c>
-      <c t="s" r="Q33" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2110,7 +2116,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2143,13 +2149,13 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c r="K35" s="9"/>
       <c t="s" r="L35" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
@@ -2160,7 +2166,7 @@
         <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2176,24 +2182,24 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>52</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2202,7 +2208,7 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
@@ -2219,14 +2225,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2242,7 +2248,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2259,7 +2265,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2275,7 +2281,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2285,14 +2291,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2301,14 +2307,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2318,14 +2324,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2341,7 +2347,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2351,14 +2357,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>62</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2367,31 +2373,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2400,31 +2406,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2440,7 +2446,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>138</v>
+        <v>58</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2450,14 +2456,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2466,14 +2472,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2483,11 +2489,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>141</v>
+        <v>35</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>18</v>
@@ -2499,7 +2505,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2516,14 +2522,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2532,7 +2538,7 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
@@ -2549,7 +2555,7 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
@@ -2572,7 +2578,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>58</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2582,11 +2588,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>141</v>
+        <v>31</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>16</v>
@@ -2598,28 +2604,28 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q49" s="12">
         <v>16</v>
@@ -2631,14 +2637,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2648,14 +2654,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>153</v>
+        <v>62</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2664,14 +2670,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2681,14 +2687,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>62</v>
+        <v>155</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2714,14 +2720,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>62</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2730,14 +2736,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2747,14 +2753,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2763,14 +2769,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2780,14 +2786,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2796,7 +2802,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2813,14 +2819,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2829,14 +2835,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>172</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2846,11 +2852,11 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2869,7 +2875,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>87</v>
+        <v>174</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2879,11 +2885,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2902,7 +2908,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2912,11 +2918,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -2928,14 +2934,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2945,11 +2951,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>123</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2961,7 +2967,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -2978,11 +2984,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -2994,14 +3000,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>58</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3011,11 +3017,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3027,14 +3033,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3044,7 +3050,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3067,7 +3073,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>188</v>
+        <v>90</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3077,49 +3083,82 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
-      <c r="P64" s="13">
-        <v>3709.7750000000001</v>
-      </c>
-      <c r="Q64" s="13"/>
-    </row>
-    <row r="65" ht="16.5" customHeight="1">
-      <c t="s" r="A65" s="14">
+      <c r="A64" s="7">
+        <v>58</v>
+      </c>
+      <c r="B64" s="7"/>
+      <c t="s" r="C64" s="8">
         <v>189</v>
       </c>
-      <c r="B65" s="14"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c t="s" r="G65" s="15">
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c t="s" r="H64" s="9">
         <v>190</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="15"/>
-      <c r="J65" s="16"/>
-      <c t="s" r="K65" s="17">
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c t="s" r="L64" s="10">
+        <v>19</v>
+      </c>
+      <c r="M64" s="10"/>
+      <c t="s" r="N64" s="8">
+        <v>123</v>
+      </c>
+      <c r="O64" s="8"/>
+      <c t="s" r="P64" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q64" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" ht="24.75" customHeight="1">
+      <c r="P65" s="13">
+        <v>3725.7750000000001</v>
+      </c>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" ht="16.5" customHeight="1">
+      <c t="s" r="A66" s="14">
         <v>191</v>
       </c>
-      <c r="L65" s="17"/>
-      <c r="M65" s="17"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-      <c r="Q65" s="17"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c t="s" r="G66" s="15">
+        <v>192</v>
+      </c>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c t="s" r="K66" s="17">
+        <v>193</v>
+      </c>
+      <c r="L66" s="17"/>
+      <c r="M66" s="17"/>
+      <c r="N66" s="17"/>
+      <c r="O66" s="17"/>
+      <c r="P66" s="17"/>
+      <c r="Q66" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="297">
+  <mergeCells count="302">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3413,10 +3452,15 @@
     <mergeCell ref="H63:K63"/>
     <mergeCell ref="L63:M63"/>
     <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="A65:F65"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="H64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="K66:Q66"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -344,6 +344,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -416,6 +425,18 @@
     <t>20.0000</t>
   </si>
   <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
@@ -428,6 +449,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -455,6 +485,33 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>URICODROP 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -515,10 +572,10 @@
     <t>2.00</t>
   </si>
   <si>
-    <t>40.8000</t>
-  </si>
-  <si>
-    <t>20:0</t>
+    <t>48.8000</t>
+  </si>
+  <si>
+    <t>24:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -584,7 +641,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:30 PM</t>
+    <t>Thursday, 25 September, 2025 7:47 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2116,7 +2173,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2149,7 +2206,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2182,13 +2239,13 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c r="K36" s="9"/>
       <c t="s" r="L36" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
@@ -2199,7 +2256,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2215,24 +2272,24 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>52</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2241,7 +2298,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2258,14 +2315,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>52</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2281,7 +2338,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2298,7 +2355,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2314,7 +2371,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2324,14 +2381,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2340,14 +2397,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2357,14 +2414,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2380,7 +2437,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2390,14 +2447,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2406,31 +2463,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2439,14 +2496,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2456,14 +2513,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>71</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2472,31 +2529,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2505,7 +2562,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2522,14 +2579,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>71</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2538,14 +2595,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2555,14 +2612,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2571,14 +2628,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2588,14 +2645,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2604,14 +2661,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2621,14 +2678,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2637,28 +2694,28 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>151</v>
+        <v>58</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
         <v>16</v>
@@ -2670,31 +2727,31 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
       <c r="K51" s="9"/>
       <c t="s" r="L51" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2703,31 +2760,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>158</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>62</v>
+        <v>24</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2736,31 +2793,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>160</v>
+        <v>23</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>83</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2769,7 +2826,7 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
@@ -2782,18 +2839,18 @@
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2802,7 +2859,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2815,18 +2872,18 @@
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>167</v>
+        <v>31</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>168</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>169</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2835,28 +2892,28 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
         <v>16</v>
@@ -2868,14 +2925,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2889,7 +2946,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2901,14 +2958,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2918,14 +2975,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>74</v>
+        <v>174</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2934,14 +2991,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -2951,11 +3008,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -2974,7 +3031,7 @@
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -2984,14 +3041,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3000,14 +3057,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3017,11 +3074,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3033,14 +3090,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3050,14 +3107,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>108</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3066,14 +3123,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3083,11 +3140,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3099,14 +3156,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3116,49 +3173,280 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>123</v>
+        <v>62</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
-      <c r="P65" s="13">
-        <v>3725.7750000000001</v>
-      </c>
-      <c r="Q65" s="13"/>
-    </row>
-    <row r="66" ht="16.5" customHeight="1">
-      <c t="s" r="A66" s="14">
-        <v>191</v>
-      </c>
-      <c r="B66" s="14"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c t="s" r="G66" s="15">
-        <v>192</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="15"/>
-      <c r="J66" s="16"/>
-      <c t="s" r="K66" s="17">
-        <v>193</v>
-      </c>
-      <c r="L66" s="17"/>
-      <c r="M66" s="17"/>
-      <c r="N66" s="17"/>
-      <c r="O66" s="17"/>
-      <c r="P66" s="17"/>
-      <c r="Q66" s="17"/>
+      <c r="A65" s="7">
+        <v>59</v>
+      </c>
+      <c r="B65" s="7"/>
+      <c t="s" r="C65" s="8">
+        <v>194</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c t="s" r="H65" s="9">
+        <v>90</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c t="s" r="L65" s="10">
+        <v>19</v>
+      </c>
+      <c r="M65" s="10"/>
+      <c t="s" r="N65" s="8">
+        <v>74</v>
+      </c>
+      <c r="O65" s="8"/>
+      <c t="s" r="P65" s="11">
+        <v>195</v>
+      </c>
+      <c t="s" r="Q65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" ht="25.5" customHeight="1">
+      <c r="A66" s="7">
+        <v>60</v>
+      </c>
+      <c r="B66" s="7"/>
+      <c t="s" r="C66" s="8">
+        <v>196</v>
+      </c>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c t="s" r="H66" s="9">
+        <v>76</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c t="s" r="L66" s="10">
+        <v>19</v>
+      </c>
+      <c r="M66" s="10"/>
+      <c t="s" r="N66" s="8">
+        <v>126</v>
+      </c>
+      <c r="O66" s="8"/>
+      <c t="s" r="P66" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q66" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" ht="25.5" customHeight="1">
+      <c r="A67" s="7">
+        <v>61</v>
+      </c>
+      <c r="B67" s="7"/>
+      <c t="s" r="C67" s="8">
+        <v>197</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c t="s" r="H67" s="9">
+        <v>58</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c t="s" r="L67" s="10">
+        <v>19</v>
+      </c>
+      <c r="M67" s="10"/>
+      <c t="s" r="N67" s="8">
+        <v>198</v>
+      </c>
+      <c r="O67" s="8"/>
+      <c t="s" r="P67" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q67" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" ht="24.75" customHeight="1">
+      <c r="A68" s="7">
+        <v>62</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c t="s" r="C68" s="8">
+        <v>200</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c t="s" r="H68" s="9">
+        <v>58</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c t="s" r="L68" s="10">
+        <v>19</v>
+      </c>
+      <c r="M68" s="10"/>
+      <c t="s" r="N68" s="8">
+        <v>201</v>
+      </c>
+      <c r="O68" s="8"/>
+      <c t="s" r="P68" s="11">
+        <v>202</v>
+      </c>
+      <c t="s" r="Q68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" ht="25.5" customHeight="1">
+      <c r="A69" s="7">
+        <v>63</v>
+      </c>
+      <c r="B69" s="7"/>
+      <c t="s" r="C69" s="8">
+        <v>203</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c t="s" r="H69" s="9">
+        <v>204</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c t="s" r="L69" s="10">
+        <v>19</v>
+      </c>
+      <c r="M69" s="10"/>
+      <c t="s" r="N69" s="8">
+        <v>108</v>
+      </c>
+      <c r="O69" s="8"/>
+      <c t="s" r="P69" s="11">
+        <v>205</v>
+      </c>
+      <c t="s" r="Q69" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" ht="24.75" customHeight="1">
+      <c r="A70" s="7">
+        <v>64</v>
+      </c>
+      <c r="B70" s="7"/>
+      <c t="s" r="C70" s="8">
+        <v>206</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c t="s" r="H70" s="9">
+        <v>90</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c t="s" r="L70" s="10">
+        <v>19</v>
+      </c>
+      <c r="M70" s="10"/>
+      <c t="s" r="N70" s="8">
+        <v>91</v>
+      </c>
+      <c r="O70" s="8"/>
+      <c t="s" r="P70" s="11">
+        <v>207</v>
+      </c>
+      <c t="s" r="Q70" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" ht="25.5" customHeight="1">
+      <c r="A71" s="7">
+        <v>65</v>
+      </c>
+      <c r="B71" s="7"/>
+      <c t="s" r="C71" s="8">
+        <v>208</v>
+      </c>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c t="s" r="H71" s="9">
+        <v>209</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c t="s" r="L71" s="10">
+        <v>19</v>
+      </c>
+      <c r="M71" s="10"/>
+      <c t="s" r="N71" s="8">
+        <v>126</v>
+      </c>
+      <c r="O71" s="8"/>
+      <c t="s" r="P71" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="P72" s="13">
+        <v>4120.6049999999996</v>
+      </c>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" ht="16.5" customHeight="1">
+      <c t="s" r="A73" s="14">
+        <v>210</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c t="s" r="G73" s="15">
+        <v>211</v>
+      </c>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c t="s" r="K73" s="17">
+        <v>212</v>
+      </c>
+      <c r="L73" s="17"/>
+      <c r="M73" s="17"/>
+      <c r="N73" s="17"/>
+      <c r="O73" s="17"/>
+      <c r="P73" s="17"/>
+      <c r="Q73" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="302">
+  <mergeCells count="337">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3457,10 +3745,45 @@
     <mergeCell ref="H64:K64"/>
     <mergeCell ref="L64:M64"/>
     <mergeCell ref="N64:O64"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="A66:F66"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="H65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="H66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="H67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:G68"/>
+    <mergeCell ref="H68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:G69"/>
+    <mergeCell ref="H69:K69"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:G70"/>
+    <mergeCell ref="H70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:G71"/>
+    <mergeCell ref="H71:K71"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="G73:I73"/>
+    <mergeCell ref="K73:Q73"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -299,6 +299,15 @@
     <t>61.8750</t>
   </si>
   <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -629,6 +638,18 @@
     <t>24.0000</t>
   </si>
   <si>
+    <t>مخمريه العود الملكي</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -641,7 +662,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:47 PM</t>
+    <t>Thursday, 25 September, 2025 7:50 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2041,7 +2062,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2051,14 +2072,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>47</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
         <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2074,7 +2095,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2084,14 +2105,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2107,7 +2128,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>12</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2117,14 +2138,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2133,14 +2154,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2150,14 +2171,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>110</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2166,14 +2187,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2183,14 +2204,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
+        <v>112</v>
+      </c>
+      <c t="s" r="Q34" s="12">
         <v>113</v>
-      </c>
-      <c t="s" r="Q34" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2206,7 +2227,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2239,7 +2260,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2272,13 +2293,13 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c r="K37" s="9"/>
       <c t="s" r="L37" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
@@ -2289,7 +2310,7 @@
         <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2305,24 +2326,24 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2331,7 +2352,7 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
@@ -2348,14 +2369,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2371,7 +2392,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2388,7 +2409,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2404,7 +2425,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2414,14 +2435,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2430,14 +2451,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2447,14 +2468,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
         <v>135</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2470,7 +2491,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2480,14 +2501,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>62</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2496,14 +2517,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2513,14 +2534,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>62</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>141</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2529,31 +2550,31 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>23</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2562,31 +2583,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2595,14 +2616,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>103</v>
+        <v>58</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2612,14 +2633,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2635,7 +2656,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>150</v>
+        <v>106</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2645,7 +2666,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2668,7 +2689,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>58</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2678,7 +2699,7 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>35</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
@@ -2718,7 +2739,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2734,7 +2755,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2744,14 +2765,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2760,7 +2781,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2777,11 +2798,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>24</v>
+        <v>159</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>18</v>
@@ -2793,14 +2814,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2810,11 +2831,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>83</v>
+        <v>24</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>18</v>
@@ -2826,14 +2847,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2843,7 +2864,7 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
@@ -2866,7 +2887,7 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2876,14 +2897,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2892,14 +2913,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>170</v>
+        <v>58</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2909,7 +2930,7 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
@@ -2932,21 +2953,21 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -2958,14 +2979,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>58</v>
+        <v>173</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -2975,14 +2996,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>174</v>
+        <v>62</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -2998,7 +3019,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>177</v>
+        <v>58</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3008,14 +3029,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>62</v>
+        <v>177</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3024,14 +3045,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3041,14 +3062,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3057,14 +3078,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>182</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3081,7 +3102,7 @@
         <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3097,7 +3118,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3114,7 +3135,7 @@
         <v>187</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3123,7 +3144,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3140,14 +3161,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
+        <v>190</v>
+      </c>
+      <c t="s" r="Q63" s="12">
         <v>191</v>
-      </c>
-      <c t="s" r="Q63" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3163,7 +3184,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>58</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3173,11 +3194,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>137</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3189,14 +3210,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3206,11 +3227,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3222,14 +3243,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3239,11 +3260,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>127</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3255,14 +3276,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3272,11 +3293,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>129</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3328,7 +3349,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>58</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3338,7 +3359,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3361,7 +3382,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>90</v>
+        <v>207</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3371,11 +3392,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3387,14 +3408,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3404,49 +3425,115 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>127</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
-      <c r="P72" s="13">
-        <v>4120.6049999999996</v>
-      </c>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>210</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>211</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>212</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>213</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>90</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>19</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>91</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>214</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>215</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>216</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>19</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>129</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
+        <v>130</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="P74" s="13">
+        <v>4173.6049999999996</v>
+      </c>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>217</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>218</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>219</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3780,10 +3867,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -662,7 +662,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:50 PM</t>
+    <t>Thursday, 25 September, 2025 7:59 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -62,6 +62,18 @@
     <t>1:0</t>
   </si>
   <si>
+    <t>ALZENTAL 200MG 6 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>1:2</t>
+  </si>
+  <si>
+    <t>33.00</t>
+  </si>
+  <si>
+    <t>33.0000</t>
+  </si>
+  <si>
     <t>AM GINKO TAB</t>
   </si>
   <si>
@@ -242,12 +254,6 @@
     <t>13:0</t>
   </si>
   <si>
-    <t>33.00</t>
-  </si>
-  <si>
-    <t>33.0000</t>
-  </si>
-  <si>
     <t>CYMBATEX 20 MG 30 CAPS.</t>
   </si>
   <si>
@@ -329,9 +335,6 @@
     <t>FAROVIGA 100MG 12 F.C.TAB.</t>
   </si>
   <si>
-    <t>1:2</t>
-  </si>
-  <si>
     <t>108.00</t>
   </si>
   <si>
@@ -446,10 +449,31 @@
     <t>0:4</t>
   </si>
   <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
     <t>PANADOL EXTRA 48 TAB</t>
   </si>
   <si>
-    <t>54.0000</t>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>0:-1</t>
   </si>
   <si>
     <t>PRIDOCAINE CREAM 15 GM</t>
@@ -467,6 +491,12 @@
     <t>98.0100</t>
   </si>
   <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
     <t>RIVO 320MG 20*10 TABS</t>
   </si>
   <si>
@@ -521,6 +551,24 @@
     <t>28.7100</t>
   </si>
   <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
+    <t>56.00</t>
+  </si>
+  <si>
+    <t>56.0000</t>
+  </si>
+  <si>
     <t>ZADOGLOBIN 20 CAPS</t>
   </si>
   <si>
@@ -575,16 +623,25 @@
     <t>150.0000</t>
   </si>
   <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>4.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
     <t>2.00</t>
   </si>
   <si>
-    <t>48.8000</t>
-  </si>
-  <si>
-    <t>24:0</t>
+    <t>50.8000</t>
+  </si>
+  <si>
+    <t>25:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -611,6 +668,15 @@
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
+    <t>فازلين بيور وسط</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -620,6 +686,12 @@
     <t>15.0000</t>
   </si>
   <si>
+    <t>كريم ONE للبشره الحساسه</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -635,21 +707,12 @@
     <t>21:0</t>
   </si>
   <si>
-    <t>24.0000</t>
-  </si>
-  <si>
     <t>مخمريه العود الملكي</t>
   </si>
   <si>
     <t>5:0</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">معطر جو FRIDA </t>
   </si>
   <si>
@@ -662,7 +725,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 7:59 PM</t>
+    <t>Thursday, 25 September, 2025 8:13 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1342,18 +1405,18 @@
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
       <c t="s" r="L8" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" s="10"/>
       <c t="s" r="N8" s="8">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O8" s="8"/>
       <c t="s" r="P8" s="11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q8" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="25.5" customHeight="1">
@@ -1362,20 +1425,20 @@
       </c>
       <c r="B9" s="7"/>
       <c t="s" r="C9" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c t="s" r="H9" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
@@ -1386,7 +1449,7 @@
         <v>25</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1419,7 +1482,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1435,7 +1498,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
@@ -1445,14 +1508,14 @@
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O11" s="8"/>
       <c t="s" r="P11" s="11">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1461,14 +1524,14 @@
       </c>
       <c r="B12" s="7"/>
       <c t="s" r="C12" s="8">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1485,7 +1548,7 @@
         <v>36</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1501,7 +1564,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1511,14 +1574,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1527,14 +1590,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1551,7 +1614,7 @@
         <v>43</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1560,14 +1623,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1577,14 +1640,14 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
+        <v>47</v>
+      </c>
+      <c t="s" r="Q15" s="12">
         <v>48</v>
-      </c>
-      <c t="s" r="Q15" s="12">
-        <v>49</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1593,14 +1656,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1610,14 +1673,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>53</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>23</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1633,7 +1696,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1643,14 +1706,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1659,14 +1722,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1699,7 +1762,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1709,14 +1772,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1725,14 +1788,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1742,14 +1805,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1758,14 +1821,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1775,14 +1838,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1791,14 +1854,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1808,14 +1871,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1824,14 +1887,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1841,14 +1904,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1857,14 +1920,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1874,14 +1937,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1897,7 +1960,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1907,14 +1970,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1923,14 +1986,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1940,14 +2003,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1956,14 +2019,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1973,14 +2036,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -1989,14 +2052,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2006,14 +2069,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>44</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2022,14 +2085,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2039,14 +2102,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2055,14 +2118,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2072,14 +2135,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2088,14 +2151,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2105,14 +2168,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2121,14 +2184,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2138,14 +2201,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>51</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2154,14 +2217,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2171,14 +2234,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2187,14 +2250,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2204,14 +2267,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>113</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2220,14 +2283,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2237,14 +2300,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2253,14 +2316,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2270,14 +2333,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2286,14 +2349,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2303,14 +2366,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2319,31 +2382,31 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c t="s" r="L38" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2352,31 +2415,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>58</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2385,14 +2448,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2402,14 +2465,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2418,14 +2481,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2435,14 +2498,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2451,14 +2514,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2468,14 +2531,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2484,14 +2547,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2501,14 +2564,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2517,14 +2580,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2534,14 +2597,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2550,14 +2613,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>106</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2567,14 +2630,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>144</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2583,31 +2646,31 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2616,14 +2679,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2633,14 +2696,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2649,31 +2712,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>108</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2689,7 +2752,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2699,14 +2762,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q49" s="12">
         <v>154</v>
-      </c>
-      <c t="s" r="Q49" s="12">
-        <v>18</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2722,7 +2785,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2732,14 +2795,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2748,14 +2811,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2765,14 +2828,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2781,14 +2844,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2798,14 +2861,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2814,14 +2877,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2831,14 +2894,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
         <v>164</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2854,7 +2917,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2864,14 +2927,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2880,14 +2943,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2897,14 +2960,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2913,14 +2976,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2930,14 +2993,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>31</v>
+        <v>169</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2946,14 +3009,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>173</v>
+        <v>12</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -2963,14 +3026,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>174</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2986,24 +3049,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>173</v>
+        <v>27</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3012,31 +3075,31 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
       <c t="s" r="L59" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3045,31 +3108,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>105</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3078,31 +3141,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>182</v>
+        <v>80</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3111,24 +3174,24 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3151,24 +3214,24 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
         <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>191</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3177,28 +3240,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3210,31 +3273,31 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>62</v>
+        <v>193</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>140</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3243,28 +3306,28 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>196</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3276,31 +3339,31 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>76</v>
+        <v>198</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3309,28 +3372,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3342,28 +3405,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3375,31 +3438,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>207</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>111</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>210</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3408,28 +3471,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>62</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3441,28 +3504,28 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>90</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3474,66 +3537,363 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>92</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
+        <v>217</v>
+      </c>
+      <c t="s" r="Q73" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" ht="25.5" customHeight="1">
+      <c r="A74" s="7">
+        <v>68</v>
+      </c>
+      <c r="B74" s="7"/>
+      <c t="s" r="C74" s="8">
+        <v>218</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c t="s" r="H74" s="9">
+        <v>80</v>
+      </c>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c t="s" r="L74" s="10">
+        <v>23</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c t="s" r="N74" s="8">
         <v>130</v>
       </c>
-      <c t="s" r="Q73" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" ht="25.5" customHeight="1">
-      <c r="P74" s="13">
-        <v>4173.6049999999996</v>
-      </c>
-      <c r="Q74" s="13"/>
-    </row>
-    <row r="75" ht="16.5" customHeight="1">
-      <c t="s" r="A75" s="14">
-        <v>217</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c t="s" r="G75" s="15">
-        <v>218</v>
-      </c>
-      <c r="H75" s="15"/>
-      <c r="I75" s="15"/>
-      <c r="J75" s="16"/>
-      <c t="s" r="K75" s="17">
+      <c r="O74" s="8"/>
+      <c t="s" r="P74" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q74" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" ht="24.75" customHeight="1">
+      <c r="A75" s="7">
+        <v>69</v>
+      </c>
+      <c r="B75" s="7"/>
+      <c t="s" r="C75" s="8">
         <v>219</v>
       </c>
-      <c r="L75" s="17"/>
-      <c r="M75" s="17"/>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c t="s" r="H75" s="9">
+        <v>16</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c t="s" r="L75" s="10">
+        <v>23</v>
+      </c>
+      <c r="M75" s="10"/>
+      <c t="s" r="N75" s="8">
+        <v>220</v>
+      </c>
+      <c r="O75" s="8"/>
+      <c t="s" r="P75" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" ht="25.5" customHeight="1">
+      <c r="A76" s="7">
+        <v>70</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c t="s" r="C76" s="8">
+        <v>222</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c t="s" r="H76" s="9">
+        <v>62</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c t="s" r="L76" s="10">
+        <v>23</v>
+      </c>
+      <c r="M76" s="10"/>
+      <c t="s" r="N76" s="8">
+        <v>223</v>
+      </c>
+      <c r="O76" s="8"/>
+      <c t="s" r="P76" s="11">
+        <v>224</v>
+      </c>
+      <c t="s" r="Q76" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" ht="25.5" customHeight="1">
+      <c r="A77" s="7">
+        <v>71</v>
+      </c>
+      <c r="B77" s="7"/>
+      <c t="s" r="C77" s="8">
+        <v>225</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c t="s" r="H77" s="9">
+        <v>226</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c t="s" r="L77" s="10">
+        <v>23</v>
+      </c>
+      <c r="M77" s="10"/>
+      <c t="s" r="N77" s="8">
+        <v>32</v>
+      </c>
+      <c r="O77" s="8"/>
+      <c t="s" r="P77" s="11">
+        <v>33</v>
+      </c>
+      <c t="s" r="Q77" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" ht="24.75" customHeight="1">
+      <c r="A78" s="7">
+        <v>72</v>
+      </c>
+      <c r="B78" s="7"/>
+      <c t="s" r="C78" s="8">
+        <v>227</v>
+      </c>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c t="s" r="H78" s="9">
+        <v>62</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c t="s" r="L78" s="10">
+        <v>23</v>
+      </c>
+      <c r="M78" s="10"/>
+      <c t="s" r="N78" s="8">
+        <v>228</v>
+      </c>
+      <c r="O78" s="8"/>
+      <c t="s" r="P78" s="11">
+        <v>229</v>
+      </c>
+      <c t="s" r="Q78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" ht="25.5" customHeight="1">
+      <c r="A79" s="7">
+        <v>73</v>
+      </c>
+      <c r="B79" s="7"/>
+      <c t="s" r="C79" s="8">
+        <v>230</v>
+      </c>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c t="s" r="H79" s="9">
+        <v>231</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c t="s" r="L79" s="10">
+        <v>23</v>
+      </c>
+      <c r="M79" s="10"/>
+      <c t="s" r="N79" s="8">
+        <v>112</v>
+      </c>
+      <c r="O79" s="8"/>
+      <c t="s" r="P79" s="11">
+        <v>161</v>
+      </c>
+      <c t="s" r="Q79" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" ht="24.75" customHeight="1">
+      <c r="A80" s="7">
+        <v>74</v>
+      </c>
+      <c r="B80" s="7"/>
+      <c t="s" r="C80" s="8">
+        <v>232</v>
+      </c>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c t="s" r="H80" s="9">
+        <v>233</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c t="s" r="L80" s="10">
+        <v>23</v>
+      </c>
+      <c r="M80" s="10"/>
+      <c t="s" r="N80" s="8">
+        <v>220</v>
+      </c>
+      <c r="O80" s="8"/>
+      <c t="s" r="P80" s="11">
+        <v>221</v>
+      </c>
+      <c t="s" r="Q80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" ht="25.5" customHeight="1">
+      <c r="A81" s="7">
+        <v>75</v>
+      </c>
+      <c r="B81" s="7"/>
+      <c t="s" r="C81" s="8">
+        <v>234</v>
+      </c>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c t="s" r="H81" s="9">
+        <v>92</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c t="s" r="L81" s="10">
+        <v>23</v>
+      </c>
+      <c r="M81" s="10"/>
+      <c t="s" r="N81" s="8">
+        <v>93</v>
+      </c>
+      <c r="O81" s="8"/>
+      <c t="s" r="P81" s="11">
+        <v>235</v>
+      </c>
+      <c t="s" r="Q81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" ht="25.5" customHeight="1">
+      <c r="A82" s="7">
+        <v>76</v>
+      </c>
+      <c r="B82" s="7"/>
+      <c t="s" r="C82" s="8">
+        <v>236</v>
+      </c>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c t="s" r="H82" s="9">
+        <v>237</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c t="s" r="L82" s="10">
+        <v>23</v>
+      </c>
+      <c r="M82" s="10"/>
+      <c t="s" r="N82" s="8">
+        <v>130</v>
+      </c>
+      <c r="O82" s="8"/>
+      <c t="s" r="P82" s="11">
+        <v>131</v>
+      </c>
+      <c t="s" r="Q82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" ht="24.75" customHeight="1">
+      <c r="P83" s="13">
+        <v>4411.4350000000004</v>
+      </c>
+      <c r="Q83" s="13"/>
+    </row>
+    <row r="84" ht="16.5" customHeight="1">
+      <c t="s" r="A84" s="14">
+        <v>238</v>
+      </c>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c t="s" r="G84" s="15">
+        <v>239</v>
+      </c>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c t="s" r="K84" s="17">
+        <v>240</v>
+      </c>
+      <c r="L84" s="17"/>
+      <c r="M84" s="17"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="392">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3877,10 +4237,55 @@
     <mergeCell ref="H73:K73"/>
     <mergeCell ref="L73:M73"/>
     <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="A75:F75"/>
-    <mergeCell ref="G75:I75"/>
-    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="H74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="H75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:G76"/>
+    <mergeCell ref="H76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="H77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="H78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="H79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="H80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="H81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:G82"/>
+    <mergeCell ref="H82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="G84:I84"/>
+    <mergeCell ref="K84:Q84"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -725,7 +725,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:13 PM</t>
+    <t>Thursday, 25 September, 2025 8:15 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -392,6 +392,12 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
     <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
   </si>
   <si>
@@ -725,7 +731,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:15 PM</t>
+    <t>Thursday, 25 September, 2025 8:16 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2465,14 +2471,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>56</v>
+        <v>93</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2498,14 +2504,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>56</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2514,14 +2520,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2531,14 +2537,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2547,14 +2553,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2564,14 +2570,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
         <v>136</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2587,7 +2593,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2597,14 +2603,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2613,14 +2619,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2630,14 +2636,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>66</v>
+        <v>140</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2653,7 +2659,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2663,14 +2669,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>66</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2679,14 +2685,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>147</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2696,14 +2702,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>27</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2712,31 +2718,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>12</v>
+        <v>149</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
         <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2758,18 +2764,18 @@
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>94</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>154</v>
+        <v>114</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2778,14 +2784,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2795,14 +2801,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>75</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>94</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>156</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2818,7 +2824,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2828,14 +2834,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2844,14 +2850,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2861,14 +2867,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>161</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2884,7 +2890,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>163</v>
+        <v>90</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2894,14 +2900,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2910,14 +2916,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2927,11 +2933,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>39</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>22</v>
@@ -2943,7 +2949,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -2960,14 +2966,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2976,14 +2982,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2993,14 +2999,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3026,7 +3032,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3049,7 +3055,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3059,7 +3065,7 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
@@ -3082,7 +3088,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3092,11 +3098,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>178</v>
+        <v>85</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3108,14 +3114,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>181</v>
+        <v>16</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3125,11 +3131,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>105</v>
+        <v>180</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3141,14 +3147,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3158,14 +3164,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>105</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3174,14 +3180,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3191,7 +3197,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>35</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3214,7 +3220,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>189</v>
+        <v>62</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3224,11 +3230,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3240,28 +3246,28 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
       <c t="s" r="L64" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>141</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3273,14 +3279,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>62</v>
+        <v>191</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3290,14 +3296,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>193</v>
+        <v>66</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>194</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3306,14 +3312,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>196</v>
+        <v>62</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3323,14 +3329,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>66</v>
+        <v>195</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3356,14 +3362,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>66</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3372,14 +3378,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3389,14 +3395,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3405,14 +3411,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3422,11 +3428,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3438,7 +3444,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3455,14 +3461,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>210</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3471,7 +3477,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3488,14 +3494,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>212</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3504,14 +3510,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>62</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3521,11 +3527,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>141</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3544,7 +3550,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3554,11 +3560,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3577,7 +3583,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3587,11 +3593,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3603,14 +3609,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>80</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3620,11 +3626,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>132</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3636,14 +3642,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3653,11 +3659,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3669,14 +3675,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>62</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3686,11 +3692,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3709,7 +3715,7 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3719,11 +3725,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3735,14 +3741,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>62</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3752,11 +3758,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>112</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>161</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3785,11 +3791,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>220</v>
+        <v>112</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3808,7 +3814,7 @@
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>92</v>
+        <v>235</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3818,11 +3824,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>93</v>
+        <v>222</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3841,7 +3847,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>92</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3851,49 +3857,82 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>131</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
-      <c r="P83" s="13">
-        <v>4411.4350000000004</v>
-      </c>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" ht="16.5" customHeight="1">
-      <c t="s" r="A84" s="14">
+      <c r="A83" s="7">
+        <v>77</v>
+      </c>
+      <c r="B83" s="7"/>
+      <c t="s" r="C83" s="8">
         <v>238</v>
       </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c t="s" r="G84" s="15">
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c t="s" r="H83" s="9">
         <v>239</v>
       </c>
-      <c r="H84" s="15"/>
-      <c r="I84" s="15"/>
-      <c r="J84" s="16"/>
-      <c t="s" r="K84" s="17">
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c t="s" r="L83" s="10">
+        <v>23</v>
+      </c>
+      <c r="M83" s="10"/>
+      <c t="s" r="N83" s="8">
+        <v>132</v>
+      </c>
+      <c r="O83" s="8"/>
+      <c t="s" r="P83" s="11">
+        <v>133</v>
+      </c>
+      <c t="s" r="Q83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" ht="25.5" customHeight="1">
+      <c r="P84" s="13">
+        <v>4541.4350000000004</v>
+      </c>
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" ht="16.5" customHeight="1">
+      <c t="s" r="A85" s="14">
         <v>240</v>
       </c>
-      <c r="L84" s="17"/>
-      <c r="M84" s="17"/>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c t="s" r="G85" s="15">
+        <v>241</v>
+      </c>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c t="s" r="K85" s="17">
+        <v>242</v>
+      </c>
+      <c r="L85" s="17"/>
+      <c r="M85" s="17"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17"/>
+      <c r="Q85" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4282,10 +4321,15 @@
     <mergeCell ref="H82:K82"/>
     <mergeCell ref="L82:M82"/>
     <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="A84:F84"/>
-    <mergeCell ref="G84:I84"/>
-    <mergeCell ref="K84:Q84"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="H83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="K85:Q85"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -215,6 +215,18 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>CETAL 120 MG 5 INFANTILE SUPP</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>13.0000</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -731,7 +743,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:16 PM</t>
+    <t>Thursday, 25 September, 2025 8:34 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1834,7 +1846,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1844,11 +1856,11 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
         <v>16</v>
@@ -1860,14 +1872,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1877,14 +1889,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1893,14 +1905,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1910,14 +1922,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1926,14 +1938,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1943,11 +1955,11 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c t="s" r="Q24" s="12">
         <v>22</v>
@@ -1959,14 +1971,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1976,14 +1988,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1992,14 +2004,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>84</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2009,14 +2021,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2025,14 +2037,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2042,14 +2054,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2058,14 +2070,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2075,14 +2087,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>90</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2098,7 +2110,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>92</v>
+        <v>12</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2108,14 +2120,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
+        <v>93</v>
+      </c>
+      <c t="s" r="Q29" s="12">
         <v>94</v>
-      </c>
-      <c t="s" r="Q29" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2131,7 +2143,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2141,14 +2153,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2157,14 +2169,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2174,14 +2186,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2190,14 +2202,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2207,14 +2219,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2223,14 +2235,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2240,14 +2252,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2256,14 +2268,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2273,14 +2285,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2289,14 +2301,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2313,7 +2325,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2322,14 +2334,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2346,7 +2358,7 @@
         <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2355,14 +2367,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2372,11 +2384,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>22</v>
@@ -2388,14 +2400,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2405,11 +2417,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>22</v>
@@ -2421,31 +2433,31 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c t="s" r="L39" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2454,31 +2466,31 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>90</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2487,7 +2499,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2504,14 +2516,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>22</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2520,7 +2532,7 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
@@ -2537,14 +2549,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2553,14 +2565,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2570,14 +2582,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2586,14 +2598,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2603,14 +2615,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2619,14 +2631,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2636,14 +2648,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2652,14 +2664,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2669,14 +2681,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2685,14 +2697,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2702,14 +2714,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>145</v>
+        <v>66</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>147</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2725,7 +2737,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2735,14 +2747,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
+        <v>150</v>
+      </c>
+      <c t="s" r="Q48" s="12">
         <v>151</v>
-      </c>
-      <c t="s" r="Q48" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2758,24 +2770,24 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
       <c r="K49" s="9"/>
       <c t="s" r="L49" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>108</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>114</v>
+        <v>27</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2784,7 +2796,7 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
@@ -2797,18 +2809,18 @@
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>112</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2817,14 +2829,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2834,14 +2846,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2850,14 +2862,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2867,14 +2879,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>160</v>
+        <v>79</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2883,14 +2895,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>90</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2900,14 +2912,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2916,14 +2928,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>94</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2933,14 +2945,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2949,14 +2961,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>62</v>
+        <v>169</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2966,11 +2978,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>168</v>
+        <v>39</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2982,7 +2994,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -2999,14 +3011,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3015,14 +3027,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3032,14 +3044,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3048,7 +3060,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3065,11 +3077,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3081,14 +3093,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3098,11 +3110,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>22</v>
@@ -3114,14 +3126,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3131,11 +3143,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>22</v>
@@ -3147,14 +3159,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>183</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3164,11 +3176,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3180,14 +3192,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3197,14 +3209,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>186</v>
+        <v>109</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3213,14 +3225,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3230,11 +3242,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3246,14 +3258,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>62</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3263,11 +3275,11 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>168</v>
+        <v>35</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3279,28 +3291,28 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>66</v>
+        <v>172</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3312,14 +3324,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>62</v>
+        <v>195</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3329,14 +3341,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>195</v>
+        <v>66</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3345,14 +3357,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3362,14 +3374,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>66</v>
+        <v>199</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>143</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3378,14 +3390,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3395,14 +3407,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>202</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3418,7 +3430,7 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>204</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3428,14 +3440,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3444,14 +3456,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3461,11 +3473,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>16</v>
@@ -3477,7 +3489,7 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
@@ -3494,14 +3506,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>212</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3534,7 +3546,7 @@
         <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>216</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3543,14 +3555,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>217</v>
+        <v>62</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3560,11 +3572,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>66</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>143</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3576,14 +3588,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>92</v>
+        <v>221</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3593,11 +3605,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3609,14 +3621,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3626,11 +3638,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>133</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3642,14 +3654,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3659,11 +3671,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>222</v>
+        <v>136</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3675,14 +3687,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3692,11 +3704,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3708,14 +3720,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>62</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3725,11 +3737,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>33</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3741,14 +3753,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>62</v>
+        <v>232</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3758,11 +3770,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>32</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3774,14 +3786,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>233</v>
+        <v>62</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3791,11 +3803,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>112</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3807,14 +3819,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3824,11 +3836,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>222</v>
+        <v>116</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>223</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3840,14 +3852,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>92</v>
+        <v>239</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3857,11 +3869,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>93</v>
+        <v>226</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3873,14 +3885,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>239</v>
+        <v>96</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3890,49 +3902,82 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>132</v>
+        <v>97</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>133</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
-      <c r="P84" s="13">
-        <v>4541.4350000000004</v>
-      </c>
-      <c r="Q84" s="13"/>
-    </row>
-    <row r="85" ht="16.5" customHeight="1">
-      <c t="s" r="A85" s="14">
-        <v>240</v>
-      </c>
-      <c r="B85" s="14"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c t="s" r="G85" s="15">
-        <v>241</v>
-      </c>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="16"/>
-      <c t="s" r="K85" s="17">
+      <c r="A84" s="7">
+        <v>78</v>
+      </c>
+      <c r="B84" s="7"/>
+      <c t="s" r="C84" s="8">
         <v>242</v>
       </c>
-      <c r="L85" s="17"/>
-      <c r="M85" s="17"/>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17"/>
-      <c r="Q85" s="17"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c t="s" r="H84" s="9">
+        <v>243</v>
+      </c>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c t="s" r="L84" s="10">
+        <v>23</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c t="s" r="N84" s="8">
+        <v>136</v>
+      </c>
+      <c r="O84" s="8"/>
+      <c t="s" r="P84" s="11">
+        <v>137</v>
+      </c>
+      <c t="s" r="Q84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" ht="24.75" customHeight="1">
+      <c r="P85" s="13">
+        <v>4554.4350000000004</v>
+      </c>
+      <c r="Q85" s="13"/>
+    </row>
+    <row r="86" ht="16.5" customHeight="1">
+      <c t="s" r="A86" s="14">
+        <v>244</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c t="s" r="G86" s="15">
+        <v>245</v>
+      </c>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c t="s" r="K86" s="17">
+        <v>246</v>
+      </c>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="397">
+  <mergeCells count="402">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4326,10 +4371,15 @@
     <mergeCell ref="H83:K83"/>
     <mergeCell ref="L83:M83"/>
     <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="A85:F85"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="K85:Q85"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:G84"/>
+    <mergeCell ref="H84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="G86:I86"/>
+    <mergeCell ref="K86:Q86"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -227,6 +227,18 @@
     <t>13.0000</t>
   </si>
   <si>
+    <t>CETAL 250MG/5ML 60ML SUSP</t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -263,9 +275,6 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
-    <t>13:0</t>
-  </si>
-  <si>
     <t>CYMBATEX 20 MG 30 CAPS.</t>
   </si>
   <si>
@@ -404,6 +413,15 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>57.0000</t>
+  </si>
+  <si>
     <t>IVY ZAD SYRUP 120 ML</t>
   </si>
   <si>
@@ -533,6 +551,12 @@
     <t>42.0000</t>
   </si>
   <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -680,9 +704,6 @@
     <t>شمع حريمي</t>
   </si>
   <si>
-    <t>50.0000</t>
-  </si>
-  <si>
     <t>صابون ديتول العنايه بالبشره</t>
   </si>
   <si>
@@ -743,7 +764,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:34 PM</t>
+    <t>Thursday, 25 September, 2025 8:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1879,7 +1900,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1889,11 +1910,11 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c t="s" r="Q22" s="12">
         <v>16</v>
@@ -1905,14 +1926,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1922,14 +1943,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1938,14 +1959,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1955,14 +1976,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1971,14 +1992,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1988,11 +2009,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>22</v>
@@ -2004,14 +2025,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>84</v>
+        <v>22</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2021,14 +2042,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2037,14 +2058,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2054,14 +2075,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2077,7 +2098,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2094,7 +2115,7 @@
         <v>90</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2110,7 +2131,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2127,7 +2148,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>94</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2136,14 +2157,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>96</v>
+        <v>12</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2153,14 +2174,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>48</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2169,14 +2190,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2193,7 +2214,7 @@
         <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2209,7 +2230,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2226,7 +2247,7 @@
         <v>104</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2242,7 +2263,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2252,14 +2273,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>107</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2275,7 +2296,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>12</v>
+        <v>109</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2285,14 +2306,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2308,7 +2329,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2325,7 +2346,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2341,7 +2362,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2351,14 +2372,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2367,14 +2388,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2384,14 +2405,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
+        <v>120</v>
+      </c>
+      <c t="s" r="Q37" s="12">
         <v>121</v>
-      </c>
-      <c t="s" r="Q37" s="12">
-        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2407,7 +2428,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>16</v>
+        <v>97</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2440,7 +2461,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2473,13 +2494,13 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c r="K40" s="9"/>
       <c t="s" r="L40" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
@@ -2490,7 +2511,7 @@
         <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2506,24 +2527,24 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>94</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2532,31 +2553,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>62</v>
+        <v>135</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2565,7 +2586,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2582,14 +2603,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2598,14 +2619,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2615,7 +2636,7 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
@@ -2638,7 +2659,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2648,11 +2669,11 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>16</v>
@@ -2664,14 +2685,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2681,11 +2702,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>22</v>
@@ -2697,14 +2718,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2714,11 +2735,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>16</v>
@@ -2730,14 +2751,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2747,14 +2768,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>151</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2770,7 +2791,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>153</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2780,14 +2801,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2796,31 +2817,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
+        <v>156</v>
+      </c>
+      <c t="s" r="Q50" s="12">
         <v>157</v>
-      </c>
-      <c t="s" r="Q50" s="12">
-        <v>118</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2836,7 +2857,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>12</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2846,14 +2867,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>160</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2862,31 +2883,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2895,14 +2916,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2912,14 +2933,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>22</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2928,14 +2949,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2945,11 +2966,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>16</v>
@@ -2961,14 +2982,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>169</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2978,11 +2999,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>22</v>
@@ -2994,14 +3015,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3011,14 +3032,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>173</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3034,7 +3055,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3044,14 +3065,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>175</v>
+        <v>39</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3067,7 +3088,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3077,11 +3098,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>22</v>
@@ -3093,14 +3114,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3110,14 +3131,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3126,14 +3147,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3143,14 +3164,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>89</v>
+        <v>183</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3159,14 +3180,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3176,11 +3197,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>22</v>
@@ -3192,14 +3213,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>187</v>
+        <v>12</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3209,7 +3230,7 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
@@ -3232,7 +3253,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3242,14 +3263,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3258,14 +3279,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3275,14 +3296,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3308,14 +3329,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>112</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3331,21 +3352,21 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>195</v>
+        <v>73</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3357,7 +3378,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3370,18 +3391,18 @@
       <c r="J67" s="9"/>
       <c r="K67" s="9"/>
       <c t="s" r="L67" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>35</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3390,28 +3411,28 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
       <c t="s" r="L68" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>66</v>
+        <v>178</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>147</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3423,14 +3444,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3440,14 +3461,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>66</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3456,14 +3477,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3473,14 +3494,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3489,14 +3510,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>62</v>
+        <v>210</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3506,11 +3527,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3522,14 +3543,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>62</v>
+        <v>212</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3539,14 +3560,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>216</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3555,14 +3576,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3572,11 +3593,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3588,14 +3609,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>221</v>
+        <v>62</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3605,11 +3626,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>147</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3621,14 +3642,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3638,14 +3659,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
         <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>224</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3654,14 +3675,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3671,11 +3692,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3687,14 +3708,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>16</v>
+        <v>229</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3704,11 +3725,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3720,14 +3741,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3737,11 +3758,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>86</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3760,7 +3781,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>232</v>
+        <v>73</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3770,11 +3791,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3786,14 +3807,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3803,11 +3824,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3819,14 +3840,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>237</v>
+        <v>62</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3836,11 +3857,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>167</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3869,11 +3890,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>226</v>
+        <v>32</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>227</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3892,7 +3913,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3902,11 +3923,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3918,14 +3939,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3935,49 +3956,148 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
-      <c r="P85" s="13">
-        <v>4554.4350000000004</v>
-      </c>
-      <c r="Q85" s="13"/>
-    </row>
-    <row r="86" ht="16.5" customHeight="1">
-      <c t="s" r="A86" s="14">
-        <v>244</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c t="s" r="G86" s="15">
+      <c r="A85" s="7">
+        <v>79</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c t="s" r="C85" s="8">
         <v>245</v>
       </c>
-      <c r="H86" s="15"/>
-      <c r="I86" s="15"/>
-      <c r="J86" s="16"/>
-      <c t="s" r="K86" s="17">
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c t="s" r="H85" s="9">
         <v>246</v>
       </c>
-      <c r="L86" s="17"/>
-      <c r="M86" s="17"/>
-      <c r="N86" s="17"/>
-      <c r="O86" s="17"/>
-      <c r="P86" s="17"/>
-      <c r="Q86" s="17"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c t="s" r="L85" s="10">
+        <v>23</v>
+      </c>
+      <c r="M85" s="10"/>
+      <c t="s" r="N85" s="8">
+        <v>233</v>
+      </c>
+      <c r="O85" s="8"/>
+      <c t="s" r="P85" s="11">
+        <v>234</v>
+      </c>
+      <c t="s" r="Q85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" ht="25.5" customHeight="1">
+      <c r="A86" s="7">
+        <v>80</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c t="s" r="C86" s="8">
+        <v>247</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c t="s" r="H86" s="9">
+        <v>99</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
+      <c t="s" r="L86" s="10">
+        <v>23</v>
+      </c>
+      <c r="M86" s="10"/>
+      <c t="s" r="N86" s="8">
+        <v>100</v>
+      </c>
+      <c r="O86" s="8"/>
+      <c t="s" r="P86" s="11">
+        <v>248</v>
+      </c>
+      <c t="s" r="Q86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="7">
+        <v>81</v>
+      </c>
+      <c r="B87" s="7"/>
+      <c t="s" r="C87" s="8">
+        <v>249</v>
+      </c>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c t="s" r="H87" s="9">
+        <v>250</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c t="s" r="L87" s="10">
+        <v>23</v>
+      </c>
+      <c r="M87" s="10"/>
+      <c t="s" r="N87" s="8">
+        <v>142</v>
+      </c>
+      <c r="O87" s="8"/>
+      <c t="s" r="P87" s="11">
+        <v>143</v>
+      </c>
+      <c t="s" r="Q87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" ht="24.75" customHeight="1">
+      <c r="P88" s="13">
+        <v>4692.4350000000004</v>
+      </c>
+      <c r="Q88" s="13"/>
+    </row>
+    <row r="89" ht="16.5" customHeight="1">
+      <c t="s" r="A89" s="14">
+        <v>251</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c t="s" r="G89" s="15">
+        <v>252</v>
+      </c>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c t="s" r="K89" s="17">
+        <v>253</v>
+      </c>
+      <c r="L89" s="17"/>
+      <c r="M89" s="17"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="17"/>
+      <c r="P89" s="17"/>
+      <c r="Q89" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="402">
+  <mergeCells count="417">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4376,10 +4496,25 @@
     <mergeCell ref="H84:K84"/>
     <mergeCell ref="L84:M84"/>
     <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="G86:I86"/>
-    <mergeCell ref="K86:Q86"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="H85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="G89:I89"/>
+    <mergeCell ref="K89:Q89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -764,7 +764,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:35 PM</t>
+    <t>Thursday, 25 September, 2025 8:36 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,24 +44,36 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
+    <t>ABIMOL 300MG 5 RECTAL SUPP.</t>
+  </si>
+  <si>
+    <t>17:0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>15.0000</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>ALKAPRESS PLUS 10/160MG 20 F.C. TABS.</t>
   </si>
   <si>
     <t>1:1</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>102.00</t>
   </si>
   <si>
     <t>102.0000</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>ALZENTAL 200MG 6 F.C. TAB.</t>
   </si>
   <si>
@@ -542,6 +554,12 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
     <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
   </si>
   <si>
@@ -620,9 +638,6 @@
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
-    <t>8:0</t>
-  </si>
-  <si>
     <t>84.0000</t>
   </si>
   <si>
@@ -719,12 +734,6 @@
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
-    <t>15.00</t>
-  </si>
-  <si>
-    <t>15.0000</t>
-  </si>
-  <si>
     <t>كريم ONE للبشره الحساسه</t>
   </si>
   <si>
@@ -764,7 +773,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:36 PM</t>
+    <t>Thursday, 25 September, 2025 8:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1477,18 +1486,18 @@
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
       <c t="s" r="L9" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M9" s="10"/>
       <c t="s" r="N9" s="8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O9" s="8"/>
       <c t="s" r="P9" s="11">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q9" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="24.75" customHeight="1">
@@ -1497,20 +1506,20 @@
       </c>
       <c r="B10" s="7"/>
       <c t="s" r="C10" s="8">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c t="s" r="H10" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
@@ -1521,7 +1530,7 @@
         <v>29</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1554,7 +1563,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1570,7 +1579,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c t="s" r="H12" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
@@ -1580,14 +1589,14 @@
       </c>
       <c r="M12" s="10"/>
       <c t="s" r="N12" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O12" s="8"/>
       <c t="s" r="P12" s="11">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1596,14 +1605,14 @@
       </c>
       <c r="B13" s="7"/>
       <c t="s" r="C13" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1620,7 +1629,7 @@
         <v>40</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1636,7 +1645,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1646,14 +1655,14 @@
       </c>
       <c r="M14" s="10"/>
       <c t="s" r="N14" s="8">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O14" s="8"/>
       <c t="s" r="P14" s="11">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1662,14 +1671,14 @@
       </c>
       <c r="B15" s="7"/>
       <c t="s" r="C15" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1686,7 +1695,7 @@
         <v>47</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>48</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1695,14 +1704,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1712,14 +1721,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
+        <v>51</v>
+      </c>
+      <c t="s" r="Q16" s="12">
         <v>52</v>
-      </c>
-      <c t="s" r="Q16" s="12">
-        <v>53</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1728,14 +1737,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1745,14 +1754,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>56</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>57</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1768,7 +1777,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1778,14 +1787,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1794,14 +1803,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1834,7 +1843,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1844,14 +1853,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1860,14 +1869,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1884,7 +1893,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1933,7 +1942,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1943,11 +1952,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -1959,14 +1968,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1976,14 +1985,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1992,14 +2001,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2009,14 +2018,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2025,14 +2034,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2042,14 +2051,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2058,14 +2067,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>73</v>
+        <v>26</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2075,14 +2084,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2091,14 +2100,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2108,14 +2117,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2124,14 +2133,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2141,14 +2150,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2157,14 +2166,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2174,14 +2183,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2197,7 +2206,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2207,14 +2216,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
+        <v>100</v>
+      </c>
+      <c t="s" r="Q31" s="12">
         <v>101</v>
-      </c>
-      <c t="s" r="Q31" s="12">
-        <v>48</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2230,7 +2239,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2240,14 +2249,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2256,14 +2265,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2273,14 +2282,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2289,14 +2298,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2306,14 +2315,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2322,14 +2331,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2339,14 +2348,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2355,7 +2364,7 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
@@ -2372,14 +2381,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2388,14 +2397,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2412,7 +2421,7 @@
         <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2421,14 +2430,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2445,7 +2454,7 @@
         <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2454,14 +2463,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>16</v>
+        <v>101</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2471,14 +2480,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2487,14 +2496,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2504,14 +2513,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2520,31 +2529,31 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c r="K41" s="9"/>
       <c t="s" r="L41" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2553,31 +2562,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2586,31 +2595,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>97</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2619,14 +2628,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2636,14 +2645,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>56</v>
+        <v>104</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>22</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2652,14 +2661,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2669,14 +2678,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>142</v>
+        <v>60</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2685,14 +2694,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2702,14 +2711,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2718,14 +2727,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2735,14 +2744,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2751,14 +2760,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2768,14 +2777,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2784,14 +2793,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2801,14 +2810,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>66</v>
+        <v>154</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2817,14 +2826,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2834,14 +2843,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2857,7 +2866,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2867,14 +2876,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q51" s="12">
         <v>161</v>
-      </c>
-      <c t="s" r="Q51" s="12">
-        <v>27</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2890,24 +2899,24 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>12</v>
+        <v>163</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>121</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2916,31 +2925,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2949,14 +2958,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>168</v>
+        <v>105</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>16</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2999,14 +3008,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3015,14 +3024,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>97</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3032,14 +3041,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3048,14 +3057,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3081,14 +3090,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3098,14 +3107,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>178</v>
+        <v>43</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3114,14 +3123,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>181</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3147,14 +3156,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3164,14 +3173,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3180,14 +3189,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3197,14 +3206,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3230,14 +3239,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3263,14 +3272,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3279,14 +3288,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3296,14 +3305,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>32</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3312,14 +3321,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>195</v>
+        <v>31</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3329,14 +3338,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3352,7 +3361,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>73</v>
+        <v>16</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3369,7 +3378,7 @@
         <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>62</v>
+        <v>201</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3411,14 +3420,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>178</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3444,28 +3453,28 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>203</v>
+        <v>66</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>153</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3477,31 +3486,31 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>62</v>
+        <v>182</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
       <c t="s" r="L70" s="10">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3510,28 +3519,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3550,24 +3559,24 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>212</v>
+        <v>66</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3576,28 +3585,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>16</v>
+        <v>215</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>70</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3609,31 +3618,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>62</v>
+        <v>217</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3642,31 +3651,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>224</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3675,28 +3684,28 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3708,31 +3717,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>66</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>153</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>229</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3748,21 +3757,21 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>86</v>
+        <v>231</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>181</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3774,28 +3783,28 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>73</v>
+        <v>234</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>142</v>
+        <v>70</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3807,28 +3816,28 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>90</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3840,28 +3849,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>146</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3873,28 +3882,28 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>32</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3913,21 +3922,21 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3939,28 +3948,28 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>173</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3972,28 +3981,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>246</v>
+        <v>66</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4005,28 +4014,28 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>99</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4038,66 +4047,132 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>142</v>
+        <v>238</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>143</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
-      <c r="P88" s="13">
-        <v>4692.4350000000004</v>
-      </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" ht="16.5" customHeight="1">
-      <c t="s" r="A89" s="14">
+      <c r="A88" s="7">
+        <v>82</v>
+      </c>
+      <c r="B88" s="7"/>
+      <c t="s" r="C88" s="8">
+        <v>250</v>
+      </c>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c t="s" r="H88" s="9">
+        <v>103</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
+      <c t="s" r="L88" s="10">
+        <v>27</v>
+      </c>
+      <c r="M88" s="10"/>
+      <c t="s" r="N88" s="8">
+        <v>104</v>
+      </c>
+      <c r="O88" s="8"/>
+      <c t="s" r="P88" s="11">
         <v>251</v>
       </c>
-      <c r="B89" s="14"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c t="s" r="G89" s="15">
+      <c t="s" r="Q88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" ht="25.5" customHeight="1">
+      <c r="A89" s="7">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7"/>
+      <c t="s" r="C89" s="8">
         <v>252</v>
       </c>
-      <c r="H89" s="15"/>
-      <c r="I89" s="15"/>
-      <c r="J89" s="16"/>
-      <c t="s" r="K89" s="17">
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c t="s" r="H89" s="9">
         <v>253</v>
       </c>
-      <c r="L89" s="17"/>
-      <c r="M89" s="17"/>
-      <c r="N89" s="17"/>
-      <c r="O89" s="17"/>
-      <c r="P89" s="17"/>
-      <c r="Q89" s="17"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
+      <c t="s" r="L89" s="10">
+        <v>27</v>
+      </c>
+      <c r="M89" s="10"/>
+      <c t="s" r="N89" s="8">
+        <v>146</v>
+      </c>
+      <c r="O89" s="8"/>
+      <c t="s" r="P89" s="11">
+        <v>147</v>
+      </c>
+      <c t="s" r="Q89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" ht="24.75" customHeight="1">
+      <c r="P90" s="13">
+        <v>4722.4350000000004</v>
+      </c>
+      <c r="Q90" s="13"/>
+    </row>
+    <row r="91" ht="16.5" customHeight="1">
+      <c t="s" r="A91" s="14">
+        <v>254</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c t="s" r="G91" s="15">
+        <v>255</v>
+      </c>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c t="s" r="K91" s="17">
+        <v>256</v>
+      </c>
+      <c r="L91" s="17"/>
+      <c r="M91" s="17"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="17"/>
+      <c r="P91" s="17"/>
+      <c r="Q91" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="417">
+  <mergeCells count="427">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4511,10 +4586,20 @@
     <mergeCell ref="H87:K87"/>
     <mergeCell ref="L87:M87"/>
     <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="G89:I89"/>
-    <mergeCell ref="K89:Q89"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:G88"/>
+    <mergeCell ref="H88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="H89:K89"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="G91:I91"/>
+    <mergeCell ref="K91:Q91"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -773,7 +773,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:40 PM</t>
+    <t>Thursday, 25 September, 2025 8:42 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -347,6 +347,12 @@
     <t>23.0000</t>
   </si>
   <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
     <t>DOLIPRANE 1 GM 15 TABS.</t>
   </si>
   <si>
@@ -389,6 +395,15 @@
     <t>0:3</t>
   </si>
   <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>139.5000</t>
+  </si>
+  <si>
     <t>FEROGLOBIN 30 CAPS</t>
   </si>
   <si>
@@ -530,6 +545,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
     <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -773,7 +797,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:42 PM</t>
+    <t>Thursday, 25 September, 2025 8:53 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2338,7 +2362,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2352,10 +2376,10 @@
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2364,14 +2388,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2381,14 +2405,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2397,14 +2421,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2414,14 +2438,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2430,14 +2454,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2447,14 +2471,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>125</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2463,14 +2487,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2480,14 +2504,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>26</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2496,14 +2520,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2513,14 +2537,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2529,14 +2553,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2546,11 +2570,11 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c t="s" r="Q41" s="12">
         <v>26</v>
@@ -2562,31 +2586,31 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
       <c r="K42" s="9"/>
       <c t="s" r="L42" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2595,31 +2619,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2628,31 +2652,31 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>104</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2668,24 +2692,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>66</v>
+        <v>144</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2694,7 +2718,7 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
@@ -2711,14 +2735,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2734,7 +2758,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2744,11 +2768,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>60</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>26</v>
@@ -2760,14 +2784,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2777,7 +2801,7 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
@@ -2800,7 +2824,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2833,7 +2857,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2843,7 +2867,7 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>70</v>
+        <v>141</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
@@ -2866,7 +2890,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2883,7 +2907,7 @@
         <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>161</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2892,14 +2916,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2909,14 +2933,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>70</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2925,31 +2949,31 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c t="s" r="L53" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2958,14 +2982,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>18</v>
+        <v>168</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2979,10 +3003,10 @@
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>105</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>170</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2998,24 +3022,24 @@
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>87</v>
+        <v>121</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
         <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3031,7 +3055,7 @@
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3045,10 +3069,10 @@
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
+        <v>105</v>
+      </c>
+      <c t="s" r="Q56" s="12">
         <v>175</v>
-      </c>
-      <c t="s" r="Q56" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3064,7 +3088,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3074,7 +3098,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3097,24 +3121,24 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>179</v>
+        <v>66</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>43</v>
+        <v>179</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3130,7 +3154,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>182</v>
+        <v>22</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3140,14 +3164,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>14</v>
+        <v>182</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>15</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3156,14 +3180,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3173,14 +3197,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>185</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3196,7 +3220,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3206,14 +3230,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3222,14 +3246,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>66</v>
+        <v>190</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3239,11 +3263,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>189</v>
+        <v>14</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>190</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>16</v>
@@ -3262,7 +3286,7 @@
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3272,11 +3296,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3288,14 +3312,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3305,14 +3329,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3321,14 +3345,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3338,14 +3362,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3354,14 +3378,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3371,11 +3395,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3387,14 +3411,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>201</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3404,7 +3428,7 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
@@ -3427,7 +3451,7 @@
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3437,14 +3461,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3453,14 +3477,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3470,14 +3494,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
         <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3493,7 +3517,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3503,14 +3527,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>184</v>
+        <v>118</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3519,28 +3543,28 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
       <c t="s" r="L71" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>70</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3552,7 +3576,7 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
@@ -3565,18 +3589,18 @@
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>39</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3585,28 +3609,28 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>215</v>
+        <v>190</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
       <c t="s" r="L73" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>70</v>
+        <v>192</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>157</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3618,14 +3642,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3635,14 +3659,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>218</v>
+        <v>70</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3651,14 +3675,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3668,14 +3692,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3684,14 +3708,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>223</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3701,11 +3725,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>70</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3717,14 +3741,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>225</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3734,14 +3758,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>229</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3750,14 +3774,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3767,11 +3791,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>16</v>
@@ -3783,14 +3807,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>234</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3800,11 +3824,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3816,14 +3840,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3833,14 +3857,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>90</v>
+        <v>235</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>187</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3849,14 +3873,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3866,11 +3890,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>146</v>
+        <v>239</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3882,14 +3906,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3899,11 +3923,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>70</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3915,14 +3939,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3932,11 +3956,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>14</v>
+        <v>90</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>15</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3948,14 +3972,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3965,11 +3989,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>37</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -3981,14 +4005,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -3998,11 +4022,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4014,14 +4038,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4031,11 +4055,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>177</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4047,14 +4071,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4064,11 +4088,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>238</v>
+        <v>36</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>239</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4080,14 +4104,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4097,11 +4121,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4113,14 +4137,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4130,49 +4154,148 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
-      <c r="P90" s="13">
-        <v>4722.4350000000004</v>
-      </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" ht="16.5" customHeight="1">
-      <c t="s" r="A91" s="14">
-        <v>254</v>
-      </c>
-      <c r="B91" s="14"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c t="s" r="G91" s="15">
-        <v>255</v>
-      </c>
-      <c r="H91" s="15"/>
-      <c r="I91" s="15"/>
-      <c r="J91" s="16"/>
-      <c t="s" r="K91" s="17">
+      <c r="A90" s="7">
+        <v>84</v>
+      </c>
+      <c r="B90" s="7"/>
+      <c t="s" r="C90" s="8">
         <v>256</v>
       </c>
-      <c r="L91" s="17"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="17"/>
-      <c r="O91" s="17"/>
-      <c r="P91" s="17"/>
-      <c r="Q91" s="17"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c t="s" r="H90" s="9">
+        <v>257</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
+      <c t="s" r="L90" s="10">
+        <v>27</v>
+      </c>
+      <c r="M90" s="10"/>
+      <c t="s" r="N90" s="8">
+        <v>246</v>
+      </c>
+      <c r="O90" s="8"/>
+      <c t="s" r="P90" s="11">
+        <v>247</v>
+      </c>
+      <c t="s" r="Q90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" ht="25.5" customHeight="1">
+      <c r="A91" s="7">
+        <v>85</v>
+      </c>
+      <c r="B91" s="7"/>
+      <c t="s" r="C91" s="8">
+        <v>258</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c t="s" r="H91" s="9">
+        <v>103</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c t="s" r="L91" s="10">
+        <v>27</v>
+      </c>
+      <c r="M91" s="10"/>
+      <c t="s" r="N91" s="8">
+        <v>104</v>
+      </c>
+      <c r="O91" s="8"/>
+      <c t="s" r="P91" s="11">
+        <v>259</v>
+      </c>
+      <c t="s" r="Q91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" ht="25.5" customHeight="1">
+      <c r="A92" s="7">
+        <v>86</v>
+      </c>
+      <c r="B92" s="7"/>
+      <c t="s" r="C92" s="8">
+        <v>260</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c t="s" r="H92" s="9">
+        <v>261</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
+      <c t="s" r="L92" s="10">
+        <v>27</v>
+      </c>
+      <c r="M92" s="10"/>
+      <c t="s" r="N92" s="8">
+        <v>151</v>
+      </c>
+      <c r="O92" s="8"/>
+      <c t="s" r="P92" s="11">
+        <v>152</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="P93" s="13">
+        <v>5159.9350000000004</v>
+      </c>
+      <c r="Q93" s="13"/>
+    </row>
+    <row r="94" ht="16.5" customHeight="1">
+      <c t="s" r="A94" s="14">
+        <v>262</v>
+      </c>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c t="s" r="G94" s="15">
+        <v>263</v>
+      </c>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c t="s" r="K94" s="17">
+        <v>264</v>
+      </c>
+      <c r="L94" s="17"/>
+      <c r="M94" s="17"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="17"/>
+      <c r="P94" s="17"/>
+      <c r="Q94" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="427">
+  <mergeCells count="442">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4596,10 +4719,25 @@
     <mergeCell ref="H89:K89"/>
     <mergeCell ref="L89:M89"/>
     <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="A91:F91"/>
-    <mergeCell ref="G91:I91"/>
-    <mergeCell ref="K91:Q91"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:G90"/>
+    <mergeCell ref="H90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="H91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:G92"/>
+    <mergeCell ref="H92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="G94:I94"/>
+    <mergeCell ref="K94:Q94"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -488,10 +488,13 @@
     <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
   </si>
   <si>
+    <t>2:3</t>
+  </si>
+  <si>
     <t>96.00</t>
   </si>
   <si>
-    <t>15.3600</t>
+    <t>0.0000</t>
   </si>
   <si>
     <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
@@ -599,6 +602,12 @@
     <t>50.0000</t>
   </si>
   <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -797,7 +806,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:53 PM</t>
+    <t>Thursday, 25 September, 2025 8:56 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2890,7 +2899,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2900,14 +2909,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2916,7 +2925,7 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2937,7 +2946,7 @@
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>16</v>
@@ -2949,7 +2958,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -2966,14 +2975,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2982,14 +2991,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2999,11 +3008,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>31</v>
@@ -3015,7 +3024,7 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
@@ -3036,7 +3045,7 @@
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>127</v>
@@ -3048,7 +3057,7 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
@@ -3065,14 +3074,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>105</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3081,7 +3090,7 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
@@ -3102,7 +3111,7 @@
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>16</v>
@@ -3114,7 +3123,7 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
@@ -3131,11 +3140,11 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>16</v>
@@ -3147,7 +3156,7 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
@@ -3164,11 +3173,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>26</v>
@@ -3180,7 +3189,7 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
@@ -3201,7 +3210,7 @@
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3213,14 +3222,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3234,7 +3243,7 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>26</v>
@@ -3246,14 +3255,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3279,7 +3288,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3296,11 +3305,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>26</v>
@@ -3312,7 +3321,7 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
@@ -3333,7 +3342,7 @@
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
         <v>16</v>
@@ -3345,14 +3354,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3362,14 +3371,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>198</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3385,7 +3394,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3395,14 +3404,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3411,7 +3420,7 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
@@ -3428,11 +3437,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>32</v>
+        <v>200</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>26</v>
@@ -3444,14 +3453,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3461,11 +3470,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3477,14 +3486,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3494,7 +3503,7 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
@@ -3517,7 +3526,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>209</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3527,7 +3536,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>118</v>
+        <v>209</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3550,7 +3559,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3560,14 +3569,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>118</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
         <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3583,7 +3592,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3593,11 +3602,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>39</v>
+        <v>215</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>16</v>
@@ -3609,14 +3618,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>190</v>
+        <v>66</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3626,11 +3635,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>192</v>
+        <v>39</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3642,28 +3651,28 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3675,14 +3684,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3692,14 +3701,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3715,7 +3724,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>223</v>
+        <v>66</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3725,14 +3734,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>162</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3741,14 +3750,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3758,14 +3767,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3774,14 +3783,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>228</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3798,7 +3807,7 @@
         <v>230</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3814,7 +3823,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3864,7 +3873,7 @@
         <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3873,7 +3882,7 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
@@ -3890,14 +3899,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
+        <v>239</v>
+      </c>
+      <c t="s" r="Q81" s="12">
         <v>240</v>
-      </c>
-      <c t="s" r="Q81" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3913,7 +3922,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>242</v>
+        <v>66</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3923,11 +3932,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>70</v>
+        <v>242</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>162</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3939,14 +3948,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>103</v>
+        <v>245</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3956,11 +3965,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>195</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3972,14 +3981,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3989,11 +3998,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4005,14 +4014,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4022,11 +4031,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>151</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4045,7 +4054,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4055,11 +4064,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>14</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>15</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4071,14 +4080,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4088,11 +4097,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4104,14 +4113,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>253</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4121,11 +4130,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>36</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4144,7 +4153,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4154,11 +4163,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>125</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>185</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4170,14 +4179,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4187,11 +4196,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>246</v>
+        <v>125</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>247</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4203,14 +4212,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4220,11 +4229,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>104</v>
+        <v>249</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4236,14 +4245,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>261</v>
+        <v>103</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4253,49 +4262,82 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
+        <v>262</v>
+      </c>
+      <c t="s" r="Q92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" ht="24.75" customHeight="1">
+      <c r="A93" s="7">
+        <v>87</v>
+      </c>
+      <c r="B93" s="7"/>
+      <c t="s" r="C93" s="8">
+        <v>263</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c t="s" r="H93" s="9">
+        <v>264</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
+      <c t="s" r="L93" s="10">
+        <v>27</v>
+      </c>
+      <c r="M93" s="10"/>
+      <c t="s" r="N93" s="8">
+        <v>151</v>
+      </c>
+      <c r="O93" s="8"/>
+      <c t="s" r="P93" s="11">
         <v>152</v>
       </c>
-      <c t="s" r="Q92" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" ht="24.75" customHeight="1">
-      <c r="P93" s="13">
-        <v>5159.9350000000004</v>
-      </c>
-      <c r="Q93" s="13"/>
-    </row>
-    <row r="94" ht="16.5" customHeight="1">
-      <c t="s" r="A94" s="14">
-        <v>262</v>
-      </c>
-      <c r="B94" s="14"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c t="s" r="G94" s="15">
-        <v>263</v>
-      </c>
-      <c r="H94" s="15"/>
-      <c r="I94" s="15"/>
-      <c r="J94" s="16"/>
-      <c t="s" r="K94" s="17">
-        <v>264</v>
-      </c>
-      <c r="L94" s="17"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="17"/>
-      <c r="O94" s="17"/>
-      <c r="P94" s="17"/>
-      <c r="Q94" s="17"/>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="P94" s="13">
+        <v>5175.5749999999998</v>
+      </c>
+      <c r="Q94" s="13"/>
+    </row>
+    <row r="95" ht="16.5" customHeight="1">
+      <c t="s" r="A95" s="14">
+        <v>265</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c t="s" r="G95" s="15">
+        <v>266</v>
+      </c>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c t="s" r="K95" s="17">
+        <v>267</v>
+      </c>
+      <c r="L95" s="17"/>
+      <c r="M95" s="17"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="17"/>
+      <c r="P95" s="17"/>
+      <c r="Q95" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="442">
+  <mergeCells count="447">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4734,10 +4776,15 @@
     <mergeCell ref="H92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="G94:I94"/>
-    <mergeCell ref="K94:Q94"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="H93:K93"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="G95:I95"/>
+    <mergeCell ref="K95:Q95"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -806,7 +806,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 8:56 PM</t>
+    <t>Thursday, 25 September, 2025 9:06 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -600,6 +600,15 @@
   </si>
   <si>
     <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -3361,7 +3370,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3375,10 +3384,10 @@
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>79</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3387,14 +3396,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3404,14 +3413,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3427,7 +3436,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3437,14 +3446,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3453,7 +3462,7 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
@@ -3470,11 +3479,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3486,14 +3495,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3503,11 +3512,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3519,14 +3528,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3536,7 +3545,7 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>96</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
@@ -3559,7 +3568,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3569,7 +3578,7 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>118</v>
+        <v>212</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
@@ -3592,7 +3601,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>77</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3602,14 +3611,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>215</v>
+        <v>118</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3625,7 +3634,7 @@
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3635,11 +3644,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3651,14 +3660,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3668,11 +3677,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3684,7 +3693,7 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
@@ -3697,15 +3706,15 @@
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3717,14 +3726,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3734,14 +3743,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3757,7 +3766,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>226</v>
+        <v>66</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3767,14 +3776,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>70</v>
+        <v>226</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>163</v>
+        <v>227</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3783,14 +3792,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3800,14 +3809,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3816,14 +3825,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3840,7 +3849,7 @@
         <v>233</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3856,7 +3865,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3906,7 +3915,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>240</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3915,7 +3924,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3932,14 +3941,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
+        <v>242</v>
+      </c>
+      <c t="s" r="Q82" s="12">
         <v>243</v>
-      </c>
-      <c t="s" r="Q82" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3955,7 +3964,7 @@
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>245</v>
+        <v>66</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3965,11 +3974,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>163</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -3981,14 +3990,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>103</v>
+        <v>248</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -3998,11 +4007,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4014,14 +4023,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4031,11 +4040,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4047,14 +4056,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4064,11 +4073,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>151</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4087,7 +4096,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4097,11 +4106,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>14</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>15</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4113,14 +4122,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>253</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4130,11 +4139,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4146,14 +4155,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>256</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4163,11 +4172,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4186,7 +4195,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>258</v>
+        <v>66</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4196,11 +4205,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>125</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>186</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4212,14 +4221,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4229,11 +4238,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>249</v>
+        <v>125</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>250</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4245,14 +4254,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4262,11 +4271,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>104</v>
+        <v>252</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4278,14 +4287,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>103</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4295,49 +4304,82 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
+        <v>265</v>
+      </c>
+      <c t="s" r="Q93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" ht="25.5" customHeight="1">
+      <c r="A94" s="7">
+        <v>88</v>
+      </c>
+      <c r="B94" s="7"/>
+      <c t="s" r="C94" s="8">
+        <v>266</v>
+      </c>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c t="s" r="H94" s="9">
+        <v>267</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
+      <c t="s" r="L94" s="10">
+        <v>27</v>
+      </c>
+      <c r="M94" s="10"/>
+      <c t="s" r="N94" s="8">
+        <v>151</v>
+      </c>
+      <c r="O94" s="8"/>
+      <c t="s" r="P94" s="11">
         <v>152</v>
       </c>
-      <c t="s" r="Q93" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" ht="25.5" customHeight="1">
-      <c r="P94" s="13">
-        <v>5175.5749999999998</v>
-      </c>
-      <c r="Q94" s="13"/>
-    </row>
-    <row r="95" ht="16.5" customHeight="1">
-      <c t="s" r="A95" s="14">
-        <v>265</v>
-      </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c t="s" r="G95" s="15">
-        <v>266</v>
-      </c>
-      <c r="H95" s="15"/>
-      <c r="I95" s="15"/>
-      <c r="J95" s="16"/>
-      <c t="s" r="K95" s="17">
-        <v>267</v>
-      </c>
-      <c r="L95" s="17"/>
-      <c r="M95" s="17"/>
-      <c r="N95" s="17"/>
-      <c r="O95" s="17"/>
-      <c r="P95" s="17"/>
-      <c r="Q95" s="17"/>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="P95" s="13">
+        <v>5203.5749999999998</v>
+      </c>
+      <c r="Q95" s="13"/>
+    </row>
+    <row r="96" ht="16.5" customHeight="1">
+      <c t="s" r="A96" s="14">
+        <v>268</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c t="s" r="G96" s="15">
+        <v>269</v>
+      </c>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c t="s" r="K96" s="17">
+        <v>270</v>
+      </c>
+      <c r="L96" s="17"/>
+      <c r="M96" s="17"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="17"/>
+      <c r="P96" s="17"/>
+      <c r="Q96" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="447">
+  <mergeCells count="452">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4781,10 +4823,15 @@
     <mergeCell ref="H93:K93"/>
     <mergeCell ref="L93:M93"/>
     <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="G95:I95"/>
-    <mergeCell ref="K95:Q95"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:G94"/>
+    <mergeCell ref="H94:K94"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="K96:Q96"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -3403,7 +3406,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3413,14 +3416,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>201</v>
+        <v>110</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3429,14 +3432,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3446,14 +3449,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3462,14 +3465,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3479,14 +3482,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3495,7 +3498,7 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
@@ -3512,11 +3515,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>26</v>
@@ -3528,14 +3531,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3545,11 +3548,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3561,14 +3564,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3578,11 +3581,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>26</v>
@@ -3594,14 +3597,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3611,11 +3614,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>118</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3627,14 +3630,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3644,14 +3647,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3660,14 +3663,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3677,11 +3680,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3693,14 +3696,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>191</v>
+        <v>66</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3710,11 +3713,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>193</v>
+        <v>39</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>16</v>
@@ -3726,7 +3729,7 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
@@ -3739,15 +3742,15 @@
       <c r="J76" s="9"/>
       <c r="K76" s="9"/>
       <c t="s" r="L76" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>163</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3766,7 +3769,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>66</v>
+        <v>191</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3776,14 +3779,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3792,14 +3795,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>229</v>
+        <v>66</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3809,14 +3812,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>163</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3825,14 +3828,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3842,14 +3845,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>232</v>
+        <v>70</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3858,14 +3861,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>232</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3875,14 +3878,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3891,14 +3894,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3908,11 +3911,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3924,7 +3927,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3941,14 +3944,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>243</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3957,7 +3960,7 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
@@ -3974,14 +3977,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>244</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3990,14 +3993,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>248</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4007,11 +4010,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>70</v>
+        <v>246</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>163</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4023,14 +4026,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>103</v>
+        <v>249</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4040,11 +4043,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4063,7 +4066,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4073,11 +4076,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>151</v>
+        <v>90</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4096,7 +4099,7 @@
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4106,11 +4109,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>151</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4122,14 +4125,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4139,11 +4142,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4162,7 +4165,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>256</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4172,11 +4175,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4188,14 +4191,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>66</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4205,11 +4208,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>36</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4221,14 +4224,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>66</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4238,11 +4241,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4254,14 +4257,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4271,11 +4274,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>252</v>
+        <v>125</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>253</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4287,14 +4290,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>103</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4304,11 +4307,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4320,14 +4323,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>267</v>
+        <v>103</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4337,49 +4340,82 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>151</v>
+        <v>104</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" ht="24.75" customHeight="1">
+      <c r="A95" s="7">
+        <v>89</v>
+      </c>
+      <c r="B95" s="7"/>
+      <c t="s" r="C95" s="8">
+        <v>267</v>
+      </c>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c t="s" r="H95" s="9">
+        <v>268</v>
+      </c>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
+      <c t="s" r="L95" s="10">
+        <v>27</v>
+      </c>
+      <c r="M95" s="10"/>
+      <c t="s" r="N95" s="8">
+        <v>151</v>
+      </c>
+      <c r="O95" s="8"/>
+      <c t="s" r="P95" s="11">
         <v>152</v>
       </c>
-      <c t="s" r="Q94" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" ht="24.75" customHeight="1">
-      <c r="P95" s="13">
-        <v>5203.5749999999998</v>
-      </c>
-      <c r="Q95" s="13"/>
-    </row>
-    <row r="96" ht="16.5" customHeight="1">
-      <c t="s" r="A96" s="14">
-        <v>268</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c t="s" r="G96" s="15">
+      <c t="s" r="Q95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" ht="25.5" customHeight="1">
+      <c r="P96" s="13">
+        <v>5226.5749999999998</v>
+      </c>
+      <c r="Q96" s="13"/>
+    </row>
+    <row r="97" ht="16.5" customHeight="1">
+      <c t="s" r="A97" s="14">
         <v>269</v>
       </c>
-      <c r="H96" s="15"/>
-      <c r="I96" s="15"/>
-      <c r="J96" s="16"/>
-      <c t="s" r="K96" s="17">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c t="s" r="G97" s="15">
         <v>270</v>
       </c>
-      <c r="L96" s="17"/>
-      <c r="M96" s="17"/>
-      <c r="N96" s="17"/>
-      <c r="O96" s="17"/>
-      <c r="P96" s="17"/>
-      <c r="Q96" s="17"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c t="s" r="K97" s="17">
+        <v>271</v>
+      </c>
+      <c r="L97" s="17"/>
+      <c r="M97" s="17"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="17"/>
+      <c r="P97" s="17"/>
+      <c r="Q97" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="452">
+  <mergeCells count="457">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4828,10 +4864,15 @@
     <mergeCell ref="H94:K94"/>
     <mergeCell ref="L94:M94"/>
     <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="A96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="K96:Q96"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="H95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="K97:Q97"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -269,6 +269,18 @@
     <t>85.8000</t>
   </si>
   <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
     <t>COLD CONTROL 20 TAB</t>
   </si>
   <si>
@@ -362,6 +374,12 @@
     <t>63.8400</t>
   </si>
   <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -440,13 +458,19 @@
     <t>83.1600</t>
   </si>
   <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>57.0000</t>
+    <t>114.0000</t>
   </si>
   <si>
     <t>IVY ZAD SYRUP 120 ML</t>
@@ -473,12 +497,6 @@
     <t>LARYPRO 20 LOZENGES</t>
   </si>
   <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
     <t>LASILACTONE 50/20MG 30 TAB.</t>
   </si>
   <si>
@@ -521,9 +539,6 @@
     <t>2:1</t>
   </si>
   <si>
-    <t>92.00</t>
-  </si>
-  <si>
     <t>46.0000</t>
   </si>
   <si>
@@ -638,9 +653,6 @@
     <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
   </si>
   <si>
-    <t>18.0000</t>
-  </si>
-  <si>
     <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
   </si>
   <si>
@@ -665,6 +677,18 @@
     <t>16.8300</t>
   </si>
   <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8216:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>4.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -731,15 +755,9 @@
     <t>4.00</t>
   </si>
   <si>
-    <t>4.0000</t>
-  </si>
-  <si>
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>2.00</t>
-  </si>
-  <si>
     <t>50.8000</t>
   </si>
   <si>
@@ -818,7 +836,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:06 PM</t>
+    <t>Thursday, 25 September, 2025 9:10 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2086,7 +2104,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2096,11 +2114,11 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
         <v>26</v>
@@ -2112,14 +2130,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2129,11 +2147,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -2145,14 +2163,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2162,14 +2180,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2178,14 +2196,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2195,14 +2213,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2211,14 +2229,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2228,14 +2246,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2244,14 +2262,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2261,14 +2279,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>101</v>
+        <v>16</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2284,7 +2302,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>103</v>
+        <v>18</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2294,14 +2312,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q32" s="12">
         <v>105</v>
-      </c>
-      <c t="s" r="Q32" s="12">
-        <v>52</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2317,7 +2335,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2327,14 +2345,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2343,14 +2361,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2360,14 +2378,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2376,14 +2394,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2393,11 +2411,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2409,14 +2427,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2430,10 +2448,10 @@
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2442,14 +2460,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2459,14 +2477,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2475,14 +2493,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2492,14 +2510,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>121</v>
+        <v>32</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
         <v>122</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2515,7 +2533,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>124</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2525,14 +2543,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2541,14 +2559,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2558,14 +2576,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2574,14 +2592,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2591,14 +2609,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q41" s="12">
         <v>133</v>
-      </c>
-      <c t="s" r="Q41" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2614,7 +2632,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2631,7 +2649,7 @@
         <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2647,7 +2665,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2680,13 +2698,13 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
       <c r="K44" s="9"/>
       <c t="s" r="L44" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
@@ -2697,7 +2715,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2713,24 +2731,24 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>144</v>
+        <v>31</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>50</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
         <v>145</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2746,24 +2764,24 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>104</v>
+        <v>147</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>101</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2772,14 +2790,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2789,14 +2807,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2805,31 +2823,31 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>50</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2838,14 +2856,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2855,14 +2873,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
         <v>155</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2878,7 +2896,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2888,14 +2906,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
         <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2911,7 +2929,7 @@
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>66</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2921,14 +2939,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2937,14 +2955,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2954,14 +2972,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -2970,14 +2988,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2987,14 +3005,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>167</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3003,14 +3021,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3020,14 +3038,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>31</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3036,31 +3054,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>121</v>
+        <v>70</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>127</v>
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3069,14 +3087,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3086,14 +3104,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3102,14 +3120,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>66</v>
+        <v>175</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3119,14 +3137,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3135,14 +3153,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3152,14 +3170,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>16</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3168,14 +3186,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3185,14 +3203,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>184</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>26</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3201,14 +3219,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3218,11 +3236,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>16</v>
@@ -3234,31 +3252,31 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>188</v>
+        <v>66</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>43</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3267,14 +3285,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3284,14 +3302,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>15</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3300,14 +3318,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3317,14 +3335,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3333,14 +3351,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>73</v>
+        <v>193</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3350,14 +3368,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>90</v>
+        <v>43</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3366,14 +3384,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3383,11 +3401,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>198</v>
+        <v>14</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>199</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3399,14 +3417,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>101</v>
+        <v>66</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3416,14 +3434,14 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>110</v>
+        <v>198</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>111</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3432,14 +3450,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3449,14 +3467,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>94</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3465,14 +3483,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3482,11 +3500,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3498,14 +3516,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>105</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3515,14 +3533,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>204</v>
+        <v>114</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>207</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3531,7 +3549,7 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
@@ -3548,11 +3566,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>32</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>26</v>
@@ -3564,14 +3582,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3581,14 +3599,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>96</v>
+        <v>209</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3597,14 +3615,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3614,11 +3632,11 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
         <v>26</v>
@@ -3630,14 +3648,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>216</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3647,11 +3665,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3663,14 +3681,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>77</v>
+        <v>31</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3680,14 +3698,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3696,14 +3714,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3713,14 +3731,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3729,14 +3747,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3746,14 +3764,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>193</v>
+        <v>124</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3762,31 +3780,31 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>191</v>
+        <v>223</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
       <c r="K77" s="9"/>
       <c t="s" r="L77" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>163</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3802,13 +3820,13 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
@@ -3819,7 +3837,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3835,21 +3853,21 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>230</v>
+        <v>66</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
       <c t="s" r="L79" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>163</v>
+        <v>230</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3868,24 +3886,24 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
       <c r="K80" s="9"/>
       <c t="s" r="L80" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>198</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3894,14 +3912,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>196</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3911,11 +3929,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>236</v>
+        <v>70</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3927,7 +3945,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -3944,14 +3962,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3960,14 +3978,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>66</v>
+        <v>238</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -3977,14 +3995,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>70</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -3993,14 +4011,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>240</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4010,14 +4028,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4026,14 +4044,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4043,11 +4061,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>163</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4059,14 +4077,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4076,11 +4094,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>90</v>
+        <v>247</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4092,14 +4110,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4109,14 +4127,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>151</v>
+        <v>224</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4125,14 +4143,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4142,11 +4160,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4158,14 +4176,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4175,11 +4193,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>15</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4198,7 +4216,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>107</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4208,11 +4226,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4224,14 +4242,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4241,11 +4259,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>259</v>
+        <v>159</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4257,14 +4275,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>262</v>
+        <v>16</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4274,11 +4292,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>125</v>
+        <v>259</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>186</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4290,14 +4308,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4307,11 +4325,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>253</v>
+        <v>14</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>254</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4323,14 +4341,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4340,11 +4358,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>104</v>
+        <v>36</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4356,14 +4374,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>268</v>
+        <v>66</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4373,49 +4391,181 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
-      <c r="P96" s="13">
-        <v>5226.5749999999998</v>
-      </c>
-      <c r="Q96" s="13"/>
-    </row>
-    <row r="97" ht="16.5" customHeight="1">
-      <c t="s" r="A97" s="14">
+      <c r="A96" s="7">
+        <v>90</v>
+      </c>
+      <c r="B96" s="7"/>
+      <c t="s" r="C96" s="8">
+        <v>267</v>
+      </c>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c t="s" r="H96" s="9">
+        <v>268</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
+      <c t="s" r="L96" s="10">
+        <v>27</v>
+      </c>
+      <c r="M96" s="10"/>
+      <c t="s" r="N96" s="8">
+        <v>131</v>
+      </c>
+      <c r="O96" s="8"/>
+      <c t="s" r="P96" s="11">
+        <v>191</v>
+      </c>
+      <c t="s" r="Q96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" ht="25.5" customHeight="1">
+      <c r="A97" s="7">
+        <v>91</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c t="s" r="C97" s="8">
         <v>269</v>
       </c>
-      <c r="B97" s="14"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c t="s" r="G97" s="15">
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c t="s" r="H97" s="9">
         <v>270</v>
       </c>
-      <c r="H97" s="15"/>
-      <c r="I97" s="15"/>
-      <c r="J97" s="16"/>
-      <c t="s" r="K97" s="17">
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c t="s" r="L97" s="10">
+        <v>27</v>
+      </c>
+      <c r="M97" s="10"/>
+      <c t="s" r="N97" s="8">
+        <v>259</v>
+      </c>
+      <c r="O97" s="8"/>
+      <c t="s" r="P97" s="11">
+        <v>260</v>
+      </c>
+      <c t="s" r="Q97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" ht="24.75" customHeight="1">
+      <c r="A98" s="7">
+        <v>92</v>
+      </c>
+      <c r="B98" s="7"/>
+      <c t="s" r="C98" s="8">
         <v>271</v>
       </c>
-      <c r="L97" s="17"/>
-      <c r="M97" s="17"/>
-      <c r="N97" s="17"/>
-      <c r="O97" s="17"/>
-      <c r="P97" s="17"/>
-      <c r="Q97" s="17"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c t="s" r="H98" s="9">
+        <v>107</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="9"/>
+      <c r="K98" s="9"/>
+      <c t="s" r="L98" s="10">
+        <v>27</v>
+      </c>
+      <c r="M98" s="10"/>
+      <c t="s" r="N98" s="8">
+        <v>108</v>
+      </c>
+      <c r="O98" s="8"/>
+      <c t="s" r="P98" s="11">
+        <v>272</v>
+      </c>
+      <c t="s" r="Q98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" ht="25.5" customHeight="1">
+      <c r="A99" s="7">
+        <v>93</v>
+      </c>
+      <c r="B99" s="7"/>
+      <c t="s" r="C99" s="8">
+        <v>273</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c t="s" r="H99" s="9">
+        <v>274</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="9"/>
+      <c r="K99" s="9"/>
+      <c t="s" r="L99" s="10">
+        <v>27</v>
+      </c>
+      <c r="M99" s="10"/>
+      <c t="s" r="N99" s="8">
+        <v>159</v>
+      </c>
+      <c r="O99" s="8"/>
+      <c t="s" r="P99" s="11">
+        <v>160</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="P100" s="13">
+        <v>5419.5749999999998</v>
+      </c>
+      <c r="Q100" s="13"/>
+    </row>
+    <row r="101" ht="16.5" customHeight="1">
+      <c t="s" r="A101" s="14">
+        <v>275</v>
+      </c>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c t="s" r="G101" s="15">
+        <v>276</v>
+      </c>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c t="s" r="K101" s="17">
+        <v>277</v>
+      </c>
+      <c r="L101" s="17"/>
+      <c r="M101" s="17"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="17"/>
+      <c r="P101" s="17"/>
+      <c r="Q101" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="457">
+  <mergeCells count="477">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -4869,10 +5019,30 @@
     <mergeCell ref="H95:K95"/>
     <mergeCell ref="L95:M95"/>
     <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="A97:F97"/>
-    <mergeCell ref="G97:I97"/>
-    <mergeCell ref="K97:Q97"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="H96:K96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="C97:G97"/>
+    <mergeCell ref="H97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="H98:K98"/>
+    <mergeCell ref="L98:M98"/>
+    <mergeCell ref="N98:O98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:G99"/>
+    <mergeCell ref="H99:K99"/>
+    <mergeCell ref="L99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="P100:Q100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="G101:I101"/>
+    <mergeCell ref="K101:Q101"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -644,6 +644,15 @@
     <t>123.0000</t>
   </si>
   <si>
+    <t>TRIO-CLAR 42 CAP</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
     <t>URICODROP 80 MG 30 F.C. TABS.</t>
   </si>
   <si>
@@ -689,6 +698,15 @@
     <t>4.0000</t>
   </si>
   <si>
+    <t>WE.GEL GEL 75 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
     <t>XORAXON 1GM I.M. VIAL</t>
   </si>
   <si>
@@ -809,9 +827,6 @@
     <t>8.00</t>
   </si>
   <si>
-    <t>8.0000</t>
-  </si>
-  <si>
     <t>محلول ملح</t>
   </si>
   <si>
@@ -836,7 +851,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:10 PM</t>
+    <t>Thursday, 25 September, 2025 9:12 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -3622,7 +3637,7 @@
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3632,14 +3647,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3648,7 +3663,7 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
@@ -3665,11 +3680,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>32</v>
+        <v>209</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>122</v>
+        <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>26</v>
@@ -3681,14 +3696,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3698,11 +3713,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>215</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>26</v>
@@ -3714,14 +3729,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3731,7 +3746,7 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
@@ -3754,7 +3769,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3764,7 +3779,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3797,14 +3812,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>224</v>
+        <v>124</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3813,14 +3828,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3837,7 +3852,7 @@
         <v>228</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3863,11 +3878,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3879,14 +3894,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>196</v>
+        <v>77</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3896,11 +3911,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -3912,28 +3927,28 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>196</v>
+        <v>66</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
       <c t="s" r="L81" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>169</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -3945,31 +3960,31 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>66</v>
+        <v>196</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
       <c r="K82" s="9"/>
       <c t="s" r="L82" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -3978,14 +3993,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4011,14 +4026,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4035,7 +4050,7 @@
         <v>242</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4051,7 +4066,7 @@
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4061,11 +4076,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4077,14 +4092,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4098,10 +4113,10 @@
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4110,14 +4125,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4127,14 +4142,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>250</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4143,7 +4158,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4160,11 +4175,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>16</v>
@@ -4183,7 +4198,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>66</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4193,14 +4208,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>70</v>
+        <v>227</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>169</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4209,14 +4224,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4226,11 +4241,11 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4242,14 +4257,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4259,11 +4274,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>159</v>
+        <v>70</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>16</v>
@@ -4275,14 +4290,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>16</v>
+        <v>107</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4292,11 +4307,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>259</v>
+        <v>94</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4308,14 +4323,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4325,11 +4340,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4341,14 +4356,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>263</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4358,11 +4373,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4374,7 +4389,7 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
@@ -4391,11 +4406,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>265</v>
+        <v>14</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>266</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4407,14 +4422,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4424,11 +4439,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4440,14 +4455,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>270</v>
+        <v>66</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4457,14 +4472,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>260</v>
+        <v>92</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4473,14 +4488,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>107</v>
+        <v>273</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4490,11 +4505,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>272</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4506,14 +4521,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4523,49 +4538,115 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>159</v>
+        <v>265</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
+        <v>266</v>
+      </c>
+      <c t="s" r="Q99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" ht="24.75" customHeight="1">
+      <c r="A100" s="7">
+        <v>94</v>
+      </c>
+      <c r="B100" s="7"/>
+      <c t="s" r="C100" s="8">
+        <v>276</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c t="s" r="H100" s="9">
+        <v>107</v>
+      </c>
+      <c r="I100" s="9"/>
+      <c r="J100" s="9"/>
+      <c r="K100" s="9"/>
+      <c t="s" r="L100" s="10">
+        <v>27</v>
+      </c>
+      <c r="M100" s="10"/>
+      <c t="s" r="N100" s="8">
+        <v>108</v>
+      </c>
+      <c r="O100" s="8"/>
+      <c t="s" r="P100" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="A101" s="7">
+        <v>95</v>
+      </c>
+      <c r="B101" s="7"/>
+      <c t="s" r="C101" s="8">
+        <v>278</v>
+      </c>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c t="s" r="H101" s="9">
+        <v>279</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c t="s" r="L101" s="10">
+        <v>27</v>
+      </c>
+      <c r="M101" s="10"/>
+      <c t="s" r="N101" s="8">
+        <v>159</v>
+      </c>
+      <c r="O101" s="8"/>
+      <c t="s" r="P101" s="11">
         <v>160</v>
       </c>
-      <c t="s" r="Q99" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" ht="24.75" customHeight="1">
-      <c r="P100" s="13">
-        <v>5419.5749999999998</v>
-      </c>
-      <c r="Q100" s="13"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="14">
-        <v>275</v>
-      </c>
-      <c r="B101" s="14"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c t="s" r="G101" s="15">
-        <v>276</v>
-      </c>
-      <c r="H101" s="15"/>
-      <c r="I101" s="15"/>
-      <c r="J101" s="16"/>
-      <c t="s" r="K101" s="17">
-        <v>277</v>
-      </c>
-      <c r="L101" s="17"/>
-      <c r="M101" s="17"/>
-      <c r="N101" s="17"/>
-      <c r="O101" s="17"/>
-      <c r="P101" s="17"/>
-      <c r="Q101" s="17"/>
+      <c t="s" r="Q101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" ht="25.5" customHeight="1">
+      <c r="P102" s="13">
+        <v>5715.5749999999998</v>
+      </c>
+      <c r="Q102" s="13"/>
+    </row>
+    <row r="103" ht="16.5" customHeight="1">
+      <c t="s" r="A103" s="14">
+        <v>280</v>
+      </c>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c t="s" r="G103" s="15">
+        <v>281</v>
+      </c>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c t="s" r="K103" s="17">
+        <v>282</v>
+      </c>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="17"/>
+      <c r="P103" s="17"/>
+      <c r="Q103" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="477">
+  <mergeCells count="487">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5039,10 +5120,20 @@
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
     <mergeCell ref="N99:O99"/>
-    <mergeCell ref="P100:Q100"/>
-    <mergeCell ref="A101:F101"/>
-    <mergeCell ref="G101:I101"/>
-    <mergeCell ref="K101:Q101"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:G101"/>
+    <mergeCell ref="H101:K101"/>
+    <mergeCell ref="L101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="P102:Q102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="G103:I103"/>
+    <mergeCell ref="K103:Q103"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -851,7 +851,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:12 PM</t>
+    <t>Thursday, 25 September, 2025 9:13 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -134,6 +134,18 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>AQUA PLUS SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>45.0000</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -209,9 +221,6 @@
     <t>BRADIPECT 5 MG 28 F.C. TABS</t>
   </si>
   <si>
-    <t>0:0</t>
-  </si>
-  <si>
     <t>168.00</t>
   </si>
   <si>
@@ -242,399 +251,405 @@
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>62.0000</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>CIPROFAR 500MG 10 F.C.TAB</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>69.0000</t>
+  </si>
+  <si>
+    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>130.00</t>
+  </si>
+  <si>
+    <t>85.8000</t>
+  </si>
+  <si>
+    <t>CLEAREST 14 CAPS</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>44.00</t>
+  </si>
+  <si>
+    <t>22.0000</t>
+  </si>
+  <si>
+    <t>COLD CONTROL 20 TAB</t>
+  </si>
+  <si>
+    <t>32.00</t>
+  </si>
+  <si>
+    <t>16.0000</t>
+  </si>
+  <si>
+    <t>CONGESTAL 20 TABS</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
+  </si>
+  <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>31.00</t>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>-26.0000</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>139.5000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>GRAMITIN TAB</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
   </si>
   <si>
     <t>31.0000</t>
   </si>
   <si>
-    <t>CIPROFAR 500MG 10 F.C.TAB</t>
-  </si>
-  <si>
-    <t>69.00</t>
-  </si>
-  <si>
-    <t>69.0000</t>
-  </si>
-  <si>
-    <t>CLAVIMOX 1 GM 12 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>130.00</t>
-  </si>
-  <si>
-    <t>85.8000</t>
-  </si>
-  <si>
-    <t>CLEAREST 14 CAPS</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>44.00</t>
-  </si>
-  <si>
-    <t>22.0000</t>
-  </si>
-  <si>
-    <t>COLD CONTROL 20 TAB</t>
-  </si>
-  <si>
-    <t>32.00</t>
-  </si>
-  <si>
-    <t>16.0000</t>
-  </si>
-  <si>
-    <t>CONGESTAL 20 TABS</t>
-  </si>
-  <si>
-    <t>50.00</t>
-  </si>
-  <si>
-    <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
-  </si>
-  <si>
-    <t>CYMBATEX 20 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>174.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>2:0</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>-26.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:2</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>12.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>139.5000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>GRAMITIN TAB</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>KAPRITAGE SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>45.0000</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>SELGON 10MG 6 INFANT SUPP.</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
     <t>TORSERETIC 20MG 30 TABS.</t>
   </si>
   <si>
@@ -851,7 +866,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:13 PM</t>
+    <t>Thursday, 25 September, 2025 9:18 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1740,7 +1755,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1756,7 +1771,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1766,11 +1781,11 @@
       </c>
       <c r="M15" s="10"/>
       <c t="s" r="N15" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O15" s="8"/>
       <c t="s" r="P15" s="11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
         <v>26</v>
@@ -1782,14 +1797,14 @@
       </c>
       <c r="B16" s="7"/>
       <c t="s" r="C16" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1806,7 +1821,7 @@
         <v>51</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>52</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1815,14 +1830,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1832,14 +1847,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
+        <v>55</v>
+      </c>
+      <c t="s" r="Q17" s="12">
         <v>56</v>
-      </c>
-      <c t="s" r="Q17" s="12">
-        <v>57</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1848,14 +1863,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1865,14 +1880,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
+        <v>60</v>
+      </c>
+      <c t="s" r="Q18" s="12">
         <v>61</v>
-      </c>
-      <c t="s" r="Q18" s="12">
-        <v>31</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1888,7 +1903,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>16</v>
+        <v>63</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1898,14 +1913,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1914,14 +1929,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1954,7 +1969,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1971,7 +1986,7 @@
         <v>71</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1987,7 +2002,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1997,14 +2012,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2013,14 +2028,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2030,11 +2045,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2046,14 +2061,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2070,7 +2085,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2079,14 +2094,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2096,14 +2111,14 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c t="s" r="Q25" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -2112,14 +2127,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2136,7 +2151,7 @@
         <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2152,7 +2167,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2162,11 +2177,11 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>26</v>
@@ -2178,14 +2193,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2195,11 +2210,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>26</v>
@@ -2211,14 +2226,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2228,14 +2243,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2244,14 +2259,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2261,14 +2276,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2277,14 +2292,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2294,14 +2309,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2310,14 +2325,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2327,14 +2342,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2343,14 +2358,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2367,7 +2382,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>52</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2383,7 +2398,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2393,14 +2408,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2409,14 +2424,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2433,7 +2448,7 @@
         <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2449,7 +2464,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2459,14 +2474,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>55</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2475,14 +2490,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2492,14 +2507,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2508,14 +2523,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2525,14 +2540,14 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c t="s" r="Q38" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -2541,14 +2556,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>18</v>
+        <v>125</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2558,14 +2573,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2574,14 +2589,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2591,14 +2606,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
         <v>128</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2614,7 +2629,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2624,14 +2639,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2640,14 +2655,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2657,14 +2672,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2673,14 +2688,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>105</v>
+        <v>136</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2690,14 +2705,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
+        <v>138</v>
+      </c>
+      <c t="s" r="Q43" s="12">
         <v>139</v>
-      </c>
-      <c t="s" r="Q43" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2713,7 +2728,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2730,7 +2745,7 @@
         <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2746,7 +2761,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2779,13 +2794,13 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
       <c r="K46" s="9"/>
       <c t="s" r="L46" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
@@ -2796,7 +2811,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2812,7 +2827,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2829,7 +2844,7 @@
         <v>151</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2845,7 +2860,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2855,14 +2870,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>50</v>
+        <v>153</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>105</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2871,14 +2886,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2888,14 +2903,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2904,31 +2919,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2937,14 +2952,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2954,14 +2969,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2970,14 +2985,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2987,11 +3002,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>26</v>
@@ -3003,14 +3018,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3020,11 +3035,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>147</v>
+        <v>43</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>16</v>
@@ -3036,14 +3051,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3053,14 +3068,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>166</v>
+        <v>92</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>66</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3069,14 +3084,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3086,11 +3101,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>70</v>
+        <v>153</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3102,14 +3117,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>169</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3119,14 +3134,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>173</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3135,14 +3150,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>175</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3152,14 +3167,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>150</v>
+        <v>73</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3168,31 +3183,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>133</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3201,14 +3216,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3218,14 +3233,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>181</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3234,31 +3249,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
+        <v>182</v>
+      </c>
+      <c t="s" r="Q60" s="12">
         <v>183</v>
-      </c>
-      <c t="s" r="Q60" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3274,13 +3289,13 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c t="s" r="L61" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
@@ -3288,10 +3303,10 @@
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
+        <v>115</v>
+      </c>
+      <c t="s" r="Q61" s="12">
         <v>186</v>
-      </c>
-      <c t="s" r="Q61" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3307,7 +3322,7 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3317,14 +3332,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3333,24 +3348,24 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>105</v>
+        <v>42</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
@@ -3373,7 +3388,7 @@
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>193</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3383,7 +3398,7 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
@@ -3406,7 +3421,7 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>83</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3416,11 +3431,11 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>15</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3439,7 +3454,7 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>66</v>
+        <v>198</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3449,7 +3464,7 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>198</v>
+        <v>47</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
@@ -3472,7 +3487,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3482,11 +3497,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>201</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3498,14 +3513,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3515,14 +3530,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3531,14 +3546,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3548,11 +3563,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>115</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3571,7 +3586,7 @@
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3585,10 +3600,10 @@
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3597,14 +3612,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3614,11 +3629,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>209</v>
+        <v>120</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>210</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3630,14 +3645,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3647,14 +3662,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3663,14 +3678,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3680,14 +3695,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
         <v>215</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3703,7 +3718,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3713,14 +3728,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>32</v>
+        <v>217</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>122</v>
+        <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3729,14 +3744,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3746,11 +3761,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>26</v>
@@ -3762,14 +3777,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3779,11 +3794,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>220</v>
+        <v>32</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>26</v>
@@ -3802,7 +3817,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>223</v>
+        <v>31</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3812,11 +3827,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3828,14 +3843,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>226</v>
+        <v>16</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3845,14 +3860,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>105</v>
+        <v>26</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3861,14 +3876,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3878,14 +3893,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>230</v>
+        <v>130</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3894,14 +3909,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3911,14 +3926,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3927,14 +3942,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3944,7 +3959,7 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>39</v>
+        <v>235</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
@@ -3967,7 +3982,7 @@
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>196</v>
+        <v>100</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3977,11 +3992,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -3993,28 +4008,28 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>196</v>
+        <v>42</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
       <c r="K83" s="9"/>
       <c t="s" r="L83" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4026,31 +4041,31 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>66</v>
+        <v>136</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
       <c r="K84" s="9"/>
       <c t="s" r="L84" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4059,14 +4074,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>244</v>
+        <v>136</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4076,11 +4091,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4099,7 +4114,7 @@
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>246</v>
+        <v>42</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4109,14 +4124,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4125,14 +4140,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>249</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4142,11 +4157,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>250</v>
+        <v>73</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>251</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4158,14 +4173,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>66</v>
+        <v>251</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4175,14 +4190,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4198,7 +4213,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4208,14 +4223,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>256</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4231,7 +4246,7 @@
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4245,7 +4260,7 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>233</v>
       </c>
       <c t="s" r="Q90" s="12">
         <v>16</v>
@@ -4257,14 +4272,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>261</v>
+        <v>42</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4274,14 +4289,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>70</v>
+        <v>232</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>261</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4297,7 +4312,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>107</v>
+        <v>42</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4307,11 +4322,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>94</v>
+        <v>263</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>201</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4323,14 +4338,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4340,11 +4355,11 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>159</v>
+        <v>73</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4356,14 +4371,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>16</v>
+        <v>113</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4373,11 +4388,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>265</v>
+        <v>98</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>266</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4389,14 +4404,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4406,11 +4421,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4422,14 +4437,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>269</v>
+        <v>16</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4439,11 +4454,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>36</v>
+        <v>270</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>37</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4455,14 +4470,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4472,14 +4487,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>271</v>
+        <v>14</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4488,14 +4503,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4505,11 +4520,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>131</v>
+        <v>36</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>191</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4521,14 +4536,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>275</v>
+        <v>42</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4538,14 +4553,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>266</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4554,14 +4569,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>107</v>
+        <v>278</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4571,11 +4586,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4587,14 +4602,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4604,49 +4619,115 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>160</v>
+        <v>271</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
-      <c r="P102" s="13">
-        <v>5715.5749999999998</v>
-      </c>
-      <c r="Q102" s="13"/>
-    </row>
-    <row r="103" ht="16.5" customHeight="1">
-      <c t="s" r="A103" s="14">
-        <v>280</v>
-      </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c t="s" r="G103" s="15">
+      <c r="A102" s="7">
+        <v>96</v>
+      </c>
+      <c r="B102" s="7"/>
+      <c t="s" r="C102" s="8">
         <v>281</v>
       </c>
-      <c r="H103" s="15"/>
-      <c r="I103" s="15"/>
-      <c r="J103" s="16"/>
-      <c t="s" r="K103" s="17">
+      <c r="D102" s="8"/>
+      <c r="E102" s="8"/>
+      <c r="F102" s="8"/>
+      <c r="G102" s="8"/>
+      <c t="s" r="H102" s="9">
+        <v>113</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="9"/>
+      <c r="K102" s="9"/>
+      <c t="s" r="L102" s="10">
+        <v>27</v>
+      </c>
+      <c r="M102" s="10"/>
+      <c t="s" r="N102" s="8">
+        <v>114</v>
+      </c>
+      <c r="O102" s="8"/>
+      <c t="s" r="P102" s="11">
         <v>282</v>
       </c>
-      <c r="L103" s="17"/>
-      <c r="M103" s="17"/>
-      <c r="N103" s="17"/>
-      <c r="O103" s="17"/>
-      <c r="P103" s="17"/>
-      <c r="Q103" s="17"/>
+      <c t="s" r="Q102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" ht="24.75" customHeight="1">
+      <c r="A103" s="7">
+        <v>97</v>
+      </c>
+      <c r="B103" s="7"/>
+      <c t="s" r="C103" s="8">
+        <v>283</v>
+      </c>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c t="s" r="H103" s="9">
+        <v>284</v>
+      </c>
+      <c r="I103" s="9"/>
+      <c r="J103" s="9"/>
+      <c r="K103" s="9"/>
+      <c t="s" r="L103" s="10">
+        <v>27</v>
+      </c>
+      <c r="M103" s="10"/>
+      <c t="s" r="N103" s="8">
+        <v>43</v>
+      </c>
+      <c r="O103" s="8"/>
+      <c t="s" r="P103" s="11">
+        <v>44</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="P104" s="13">
+        <v>5843.4949999999999</v>
+      </c>
+      <c r="Q104" s="13"/>
+    </row>
+    <row r="105" ht="16.5" customHeight="1">
+      <c t="s" r="A105" s="14">
+        <v>285</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c t="s" r="G105" s="15">
+        <v>286</v>
+      </c>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c t="s" r="K105" s="17">
+        <v>287</v>
+      </c>
+      <c r="L105" s="17"/>
+      <c r="M105" s="17"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="17"/>
+      <c r="P105" s="17"/>
+      <c r="Q105" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="487">
+  <mergeCells count="497">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5130,10 +5211,20 @@
     <mergeCell ref="H101:K101"/>
     <mergeCell ref="L101:M101"/>
     <mergeCell ref="N101:O101"/>
-    <mergeCell ref="P102:Q102"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="G103:I103"/>
-    <mergeCell ref="K103:Q103"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="H102:K102"/>
+    <mergeCell ref="L102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:G103"/>
+    <mergeCell ref="H103:K103"/>
+    <mergeCell ref="L103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="P104:Q104"/>
+    <mergeCell ref="A105:F105"/>
+    <mergeCell ref="G105:I105"/>
+    <mergeCell ref="K105:Q105"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -866,7 +866,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:18 PM</t>
+    <t>Thursday, 25 September, 2025 9:23 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -323,6 +323,15 @@
     <t>57.4200</t>
   </si>
   <si>
+    <t>DELCABRIN 0.5 MG 2 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
     <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
   </si>
   <si>
@@ -398,6 +407,15 @@
     <t>18.0000</t>
   </si>
   <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -866,7 +884,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:23 PM</t>
+    <t>Thursday, 25 September, 2025 9:35 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2332,7 +2350,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2365,7 +2383,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2382,7 +2400,7 @@
         <v>109</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2398,7 +2416,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2408,14 +2426,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2424,14 +2442,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2441,14 +2459,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2457,14 +2475,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2481,7 +2499,7 @@
         <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>26</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2497,7 +2515,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>16</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2514,7 +2532,7 @@
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2530,7 +2548,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2540,11 +2558,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>16</v>
@@ -2556,14 +2574,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>125</v>
+        <v>31</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2580,7 +2598,7 @@
         <v>126</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2596,7 +2614,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2606,14 +2624,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2622,14 +2640,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2639,14 +2657,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
         <v>131</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2662,7 +2680,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2679,7 +2697,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2695,7 +2713,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2705,14 +2723,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>139</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2721,14 +2739,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2738,14 +2756,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2754,14 +2772,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>83</v>
+        <v>142</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2771,14 +2789,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
+        <v>144</v>
+      </c>
+      <c t="s" r="Q45" s="12">
         <v>145</v>
-      </c>
-      <c t="s" r="Q45" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2794,7 +2812,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2811,7 +2829,7 @@
         <v>148</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2827,7 +2845,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2860,13 +2878,13 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
       <c r="K48" s="9"/>
       <c t="s" r="L48" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
@@ -2877,7 +2895,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2893,7 +2911,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2910,7 +2928,7 @@
         <v>157</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2926,7 +2944,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2936,14 +2954,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>83</v>
+        <v>31</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2952,14 +2970,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2969,14 +2987,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>114</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2985,31 +3003,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>26</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3018,7 +3036,7 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
@@ -3035,14 +3053,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3051,14 +3069,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3068,11 +3086,11 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c t="s" r="Q54" s="12">
         <v>26</v>
@@ -3084,14 +3102,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3101,11 +3119,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>153</v>
+        <v>43</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3117,14 +3135,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>169</v>
+        <v>26</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3134,14 +3152,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>170</v>
+        <v>92</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>171</v>
+        <v>93</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>42</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3157,7 +3175,7 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3167,7 +3185,7 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>73</v>
+        <v>159</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3190,7 +3208,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>22</v>
+        <v>175</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3200,14 +3218,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>177</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3223,7 +3241,7 @@
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>179</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3233,14 +3251,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3249,24 +3267,24 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
@@ -3289,7 +3307,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>18</v>
+        <v>185</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3299,14 +3317,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3322,24 +3340,24 @@
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>16</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3348,31 +3366,31 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c t="s" r="L63" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>191</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3381,14 +3399,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3398,14 +3416,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
         <v>194</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3421,21 +3439,21 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>137</v>
+        <v>196</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
         <v>16</v>
@@ -3447,14 +3465,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>198</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3464,11 +3482,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>26</v>
@@ -3480,14 +3498,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>136</v>
+        <v>83</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3497,11 +3515,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>14</v>
+        <v>143</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>15</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>16</v>
@@ -3513,14 +3531,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3530,11 +3548,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>47</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>26</v>
@@ -3546,14 +3564,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>76</v>
+        <v>142</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3563,11 +3581,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>98</v>
+        <v>14</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3579,14 +3597,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3596,14 +3614,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3612,14 +3630,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3629,11 +3647,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>121</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3645,14 +3663,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>91</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3662,14 +3680,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3678,14 +3696,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3695,11 +3713,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>214</v>
+        <v>123</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>215</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3718,7 +3736,7 @@
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3735,7 +3753,7 @@
         <v>218</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3751,7 +3769,7 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3761,14 +3779,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3777,14 +3795,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3794,14 +3812,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>32</v>
+        <v>223</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>128</v>
+        <v>224</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3810,14 +3828,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3827,11 +3845,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>105</v>
+        <v>220</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>26</v>
@@ -3843,14 +3861,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3860,11 +3878,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>225</v>
+        <v>32</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>26</v>
@@ -3876,14 +3894,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>228</v>
+        <v>31</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3893,7 +3911,7 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
@@ -3916,7 +3934,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>231</v>
+        <v>16</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3926,14 +3944,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3942,14 +3960,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>42</v>
+        <v>234</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3959,14 +3977,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>235</v>
+        <v>136</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3975,14 +3993,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>100</v>
+        <v>237</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -3999,7 +4017,7 @@
         <v>239</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4025,11 +4043,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>39</v>
+        <v>241</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4041,14 +4059,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4058,11 +4076,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4074,28 +4092,28 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
       <c r="K85" s="9"/>
       <c t="s" r="L85" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>173</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>16</v>
@@ -4107,31 +4125,31 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>42</v>
+        <v>142</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
       <c r="K86" s="9"/>
       <c t="s" r="L86" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4140,14 +4158,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>249</v>
+        <v>142</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4161,7 +4179,7 @@
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4173,14 +4191,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>251</v>
+        <v>42</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4197,7 +4215,7 @@
         <v>253</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4213,7 +4231,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4223,11 +4241,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>255</v>
+        <v>73</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4239,14 +4257,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>42</v>
+        <v>257</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4260,10 +4278,10 @@
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4272,14 +4290,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4289,14 +4307,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>261</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4305,7 +4323,7 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
@@ -4322,11 +4340,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4345,7 +4363,7 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>266</v>
+        <v>42</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4355,14 +4373,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>73</v>
+        <v>238</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4371,14 +4389,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4388,11 +4406,11 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>98</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
         <v>16</v>
@@ -4404,14 +4422,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4421,11 +4439,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>44</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4437,14 +4455,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>16</v>
+        <v>116</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4454,11 +4472,11 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>270</v>
+        <v>98</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>271</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4470,14 +4488,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4487,11 +4505,11 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4503,14 +4521,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>274</v>
+        <v>16</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4520,11 +4538,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4536,7 +4554,7 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
@@ -4553,14 +4571,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>276</v>
+        <v>14</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>96</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4569,14 +4587,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4586,11 +4604,11 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>137</v>
+        <v>36</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>196</v>
+        <v>37</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4602,14 +4620,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4619,14 +4637,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4635,14 +4653,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4652,11 +4670,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>282</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>16</v>
@@ -4668,14 +4686,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4685,49 +4703,115 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
+        <v>277</v>
+      </c>
+      <c t="s" r="Q103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" ht="25.5" customHeight="1">
+      <c r="A104" s="7">
+        <v>98</v>
+      </c>
+      <c r="B104" s="7"/>
+      <c t="s" r="C104" s="8">
+        <v>287</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="8"/>
+      <c r="F104" s="8"/>
+      <c r="G104" s="8"/>
+      <c t="s" r="H104" s="9">
+        <v>116</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="9"/>
+      <c t="s" r="L104" s="10">
+        <v>27</v>
+      </c>
+      <c r="M104" s="10"/>
+      <c t="s" r="N104" s="8">
+        <v>117</v>
+      </c>
+      <c r="O104" s="8"/>
+      <c t="s" r="P104" s="11">
+        <v>288</v>
+      </c>
+      <c t="s" r="Q104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" ht="24.75" customHeight="1">
+      <c r="A105" s="7">
+        <v>99</v>
+      </c>
+      <c r="B105" s="7"/>
+      <c t="s" r="C105" s="8">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c t="s" r="H105" s="9">
+        <v>290</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="9"/>
+      <c r="K105" s="9"/>
+      <c t="s" r="L105" s="10">
+        <v>27</v>
+      </c>
+      <c r="M105" s="10"/>
+      <c t="s" r="N105" s="8">
+        <v>43</v>
+      </c>
+      <c r="O105" s="8"/>
+      <c t="s" r="P105" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q103" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" ht="25.5" customHeight="1">
-      <c r="P104" s="13">
-        <v>5843.4949999999999</v>
-      </c>
-      <c r="Q104" s="13"/>
-    </row>
-    <row r="105" ht="16.5" customHeight="1">
-      <c t="s" r="A105" s="14">
-        <v>285</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c t="s" r="G105" s="15">
-        <v>286</v>
-      </c>
-      <c r="H105" s="15"/>
-      <c r="I105" s="15"/>
-      <c r="J105" s="16"/>
-      <c t="s" r="K105" s="17">
-        <v>287</v>
-      </c>
-      <c r="L105" s="17"/>
-      <c r="M105" s="17"/>
-      <c r="N105" s="17"/>
-      <c r="O105" s="17"/>
-      <c r="P105" s="17"/>
-      <c r="Q105" s="17"/>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="P106" s="13">
+        <v>6088.4949999999999</v>
+      </c>
+      <c r="Q106" s="13"/>
+    </row>
+    <row r="107" ht="16.5" customHeight="1">
+      <c t="s" r="A107" s="14">
+        <v>291</v>
+      </c>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c t="s" r="G107" s="15">
+        <v>292</v>
+      </c>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c t="s" r="K107" s="17">
+        <v>293</v>
+      </c>
+      <c r="L107" s="17"/>
+      <c r="M107" s="17"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="17"/>
+      <c r="P107" s="17"/>
+      <c r="Q107" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="497">
+  <mergeCells count="507">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5221,10 +5305,20 @@
     <mergeCell ref="H103:K103"/>
     <mergeCell ref="L103:M103"/>
     <mergeCell ref="N103:O103"/>
-    <mergeCell ref="P104:Q104"/>
-    <mergeCell ref="A105:F105"/>
-    <mergeCell ref="G105:I105"/>
-    <mergeCell ref="K105:Q105"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="H104:K104"/>
+    <mergeCell ref="L104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="H105:K105"/>
+    <mergeCell ref="L105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="P106:Q106"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="G107:I107"/>
+    <mergeCell ref="K107:Q107"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -854,6 +854,15 @@
     <t>11:0</t>
   </si>
   <si>
+    <t>كريم جلايسوليد</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>35.0000</t>
+  </si>
+  <si>
     <t>مجموعه برد</t>
   </si>
   <si>
@@ -884,7 +893,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:35 PM</t>
+    <t>Thursday, 25 September, 2025 9:40 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -4627,7 +4636,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4641,10 +4650,10 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4653,14 +4662,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>284</v>
+        <v>42</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4670,14 +4679,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>143</v>
+        <v>285</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>83</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4686,14 +4695,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4703,11 +4712,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>276</v>
+        <v>143</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>277</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4719,14 +4728,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4736,11 +4745,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>117</v>
+        <v>276</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4752,14 +4761,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>290</v>
+        <v>116</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4769,49 +4778,82 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>43</v>
+        <v>117</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
+        <v>291</v>
+      </c>
+      <c t="s" r="Q105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" ht="25.5" customHeight="1">
+      <c r="A106" s="7">
+        <v>100</v>
+      </c>
+      <c r="B106" s="7"/>
+      <c t="s" r="C106" s="8">
+        <v>292</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="8"/>
+      <c t="s" r="H106" s="9">
+        <v>293</v>
+      </c>
+      <c r="I106" s="9"/>
+      <c r="J106" s="9"/>
+      <c r="K106" s="9"/>
+      <c t="s" r="L106" s="10">
+        <v>27</v>
+      </c>
+      <c r="M106" s="10"/>
+      <c t="s" r="N106" s="8">
+        <v>43</v>
+      </c>
+      <c r="O106" s="8"/>
+      <c t="s" r="P106" s="11">
         <v>44</v>
       </c>
-      <c t="s" r="Q105" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" ht="25.5" customHeight="1">
-      <c r="P106" s="13">
-        <v>6088.4949999999999</v>
-      </c>
-      <c r="Q106" s="13"/>
-    </row>
-    <row r="107" ht="16.5" customHeight="1">
-      <c t="s" r="A107" s="14">
-        <v>291</v>
-      </c>
-      <c r="B107" s="14"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c t="s" r="G107" s="15">
-        <v>292</v>
-      </c>
-      <c r="H107" s="15"/>
-      <c r="I107" s="15"/>
-      <c r="J107" s="16"/>
-      <c t="s" r="K107" s="17">
-        <v>293</v>
-      </c>
-      <c r="L107" s="17"/>
-      <c r="M107" s="17"/>
-      <c r="N107" s="17"/>
-      <c r="O107" s="17"/>
-      <c r="P107" s="17"/>
-      <c r="Q107" s="17"/>
+      <c t="s" r="Q106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" ht="25.5" customHeight="1">
+      <c r="P107" s="13">
+        <v>6123.4949999999999</v>
+      </c>
+      <c r="Q107" s="13"/>
+    </row>
+    <row r="108" ht="16.5" customHeight="1">
+      <c t="s" r="A108" s="14">
+        <v>294</v>
+      </c>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c t="s" r="G108" s="15">
+        <v>295</v>
+      </c>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c t="s" r="K108" s="17">
+        <v>296</v>
+      </c>
+      <c r="L108" s="17"/>
+      <c r="M108" s="17"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="17"/>
+      <c r="P108" s="17"/>
+      <c r="Q108" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="507">
+  <mergeCells count="512">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5315,10 +5357,15 @@
     <mergeCell ref="H105:K105"/>
     <mergeCell ref="L105:M105"/>
     <mergeCell ref="N105:O105"/>
-    <mergeCell ref="P106:Q106"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="G107:I107"/>
-    <mergeCell ref="K107:Q107"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="H106:K106"/>
+    <mergeCell ref="L106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="P107:Q107"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="K108:Q108"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -74,6 +74,18 @@
     <t>102.0000</t>
   </si>
   <si>
+    <t>ALPHINTERN 30 F.C.TABS</t>
+  </si>
+  <si>
+    <t>2:0</t>
+  </si>
+  <si>
+    <t>87.00</t>
+  </si>
+  <si>
+    <t>87.0000</t>
+  </si>
+  <si>
     <t>ALZENTAL 200MG 6 F.C. TAB.</t>
   </si>
   <si>
@@ -134,6 +146,18 @@
     <t>67.5000</t>
   </si>
   <si>
+    <t>ANTI-COX II 15MG/3ML 6 AMP</t>
+  </si>
+  <si>
+    <t>1:4</t>
+  </si>
+  <si>
+    <t>78.00</t>
+  </si>
+  <si>
+    <t>78.0000</t>
+  </si>
+  <si>
     <t>AQUA PLUS SYRUP 100 ML</t>
   </si>
   <si>
@@ -260,9 +284,6 @@
     <t>62.0000</t>
   </si>
   <si>
-    <t>2:0</t>
-  </si>
-  <si>
     <t>CIPROFAR 500MG 10 F.C.TAB</t>
   </si>
   <si>
@@ -356,6 +377,15 @@
     <t>44.0000</t>
   </si>
   <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
     <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
   </si>
   <si>
@@ -467,6 +497,9 @@
     <t>90.0000</t>
   </si>
   <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
     <t>FLUMOX 500MG 16 CAPS</t>
   </si>
   <si>
@@ -629,6 +662,15 @@
     <t>7.0500</t>
   </si>
   <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
     <t>SELGON 10MG 6 INFANT SUPP.</t>
   </si>
   <si>
@@ -704,9 +746,6 @@
     <t>VERSERC 16MG 30 TAB</t>
   </si>
   <si>
-    <t>87.00</t>
-  </si>
-  <si>
     <t>28.7100</t>
   </si>
   <si>
@@ -755,6 +794,12 @@
     <t>135.0000</t>
   </si>
   <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t>96.0000</t>
+  </si>
+  <si>
     <t>ZURCAL 40MG POWDER FOR I.V. INF. VIAL</t>
   </si>
   <si>
@@ -809,10 +854,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>50.8000</t>
-  </si>
-  <si>
-    <t>25:0</t>
+    <t>64.8000</t>
+  </si>
+  <si>
+    <t>32:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -839,12 +884,6 @@
     <t>فازلين بيور وسط</t>
   </si>
   <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
     <t xml:space="preserve">كالونا </t>
   </si>
   <si>
@@ -893,7 +932,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:40 PM</t>
+    <t>Thursday, 25 September, 2025 9:52 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1639,18 +1678,18 @@
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
       <c t="s" r="L10" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M10" s="10"/>
       <c t="s" r="N10" s="8">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" s="8"/>
       <c t="s" r="P10" s="11">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q10" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="25.5" customHeight="1">
@@ -1659,20 +1698,20 @@
       </c>
       <c r="B11" s="7"/>
       <c t="s" r="C11" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c t="s" r="H11" s="9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c t="s" r="L11" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M11" s="10"/>
       <c t="s" r="N11" s="8">
@@ -1683,7 +1722,7 @@
         <v>33</v>
       </c>
       <c t="s" r="Q11" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="25.5" customHeight="1">
@@ -1716,7 +1755,7 @@
         <v>37</v>
       </c>
       <c t="s" r="Q12" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1732,7 +1771,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1742,14 +1781,14 @@
       </c>
       <c r="M13" s="10"/>
       <c t="s" r="N13" s="8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O13" s="8"/>
       <c t="s" r="P13" s="11">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q13" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1758,14 +1797,14 @@
       </c>
       <c r="B14" s="7"/>
       <c t="s" r="C14" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1782,7 +1821,7 @@
         <v>44</v>
       </c>
       <c t="s" r="Q14" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" ht="24.75" customHeight="1">
@@ -1815,7 +1854,7 @@
         <v>48</v>
       </c>
       <c t="s" r="Q15" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" ht="25.5" customHeight="1">
@@ -1831,7 +1870,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c t="s" r="H16" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="9"/>
@@ -1841,14 +1880,14 @@
       </c>
       <c r="M16" s="10"/>
       <c t="s" r="N16" s="8">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O16" s="8"/>
       <c t="s" r="P16" s="11">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q16" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1857,14 +1896,14 @@
       </c>
       <c r="B17" s="7"/>
       <c t="s" r="C17" s="8">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1874,14 +1913,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>56</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1897,7 +1936,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1907,14 +1946,14 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q18" s="12">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1923,14 +1962,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1940,14 +1979,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1956,14 +1995,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1980,7 +2019,7 @@
         <v>68</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>16</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1989,14 +2028,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2006,14 +2045,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2022,14 +2061,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2039,14 +2078,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2055,14 +2094,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2072,11 +2111,11 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c t="s" r="Q23" s="12">
         <v>16</v>
@@ -2088,14 +2127,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2112,7 +2151,7 @@
         <v>82</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2121,14 +2160,14 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>42</v>
+        <v>84</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2161,7 +2200,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2171,14 +2210,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2187,14 +2226,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2211,7 +2250,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2227,7 +2266,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2244,7 +2283,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2260,7 +2299,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2270,14 +2309,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2286,14 +2325,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2303,14 +2342,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>23</v>
+        <v>102</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2319,14 +2358,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2336,14 +2375,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2352,14 +2391,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>42</v>
+        <v>107</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2369,11 +2408,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>16</v>
@@ -2385,14 +2424,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2402,14 +2441,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2418,14 +2457,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2435,14 +2474,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2451,14 +2490,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2468,11 +2507,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>16</v>
@@ -2484,14 +2523,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2501,14 +2540,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>56</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2517,14 +2556,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2534,14 +2573,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
         <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2557,7 +2596,7 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2590,7 +2629,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>31</v>
+        <v>126</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2600,14 +2639,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2616,14 +2655,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>128</v>
+        <v>16</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2633,14 +2672,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>59</v>
+        <v>130</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2649,14 +2688,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2666,14 +2705,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2682,14 +2721,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>91</v>
+        <v>35</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2699,11 +2738,11 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>133</v>
+        <v>67</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
         <v>16</v>
@@ -2715,14 +2754,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2732,14 +2771,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>136</v>
+        <v>67</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2748,14 +2787,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2765,14 +2804,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>139</v>
+        <v>36</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2781,14 +2820,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>142</v>
+        <v>98</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2805,7 +2844,7 @@
         <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>145</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2814,14 +2853,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2831,11 +2870,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2847,14 +2886,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2864,14 +2903,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2880,14 +2919,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2904,7 +2943,7 @@
         <v>154</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>26</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2913,14 +2952,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2930,14 +2969,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2946,31 +2985,31 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
       <c r="K50" s="9"/>
       <c t="s" r="L50" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2979,14 +3018,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2996,14 +3035,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>23</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3012,31 +3051,31 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
       <c r="K52" s="9"/>
       <c t="s" r="L52" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
         <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3052,7 +3091,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3062,14 +3101,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>117</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3078,31 +3117,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>64</v>
+        <v>170</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3111,14 +3150,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3128,11 +3167,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>44</v>
+        <v>174</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>16</v>
@@ -3144,31 +3183,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>93</v>
+        <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3177,14 +3216,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3194,14 +3233,14 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3210,14 +3249,14 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>175</v>
+        <v>50</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
@@ -3227,14 +3266,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>176</v>
+        <v>72</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3243,14 +3282,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3260,11 +3299,11 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>179</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q59" s="12">
         <v>16</v>
@@ -3276,14 +3315,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3293,14 +3332,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>182</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>183</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3309,14 +3348,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>185</v>
+        <v>35</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3326,14 +3365,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3342,31 +3381,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>18</v>
+        <v>186</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
         <v>188</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>189</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3375,14 +3414,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3392,14 +3431,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>81</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>118</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>192</v>
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3408,14 +3447,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3425,14 +3464,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
+        <v>193</v>
+      </c>
+      <c t="s" r="Q64" s="12">
         <v>194</v>
-      </c>
-      <c t="s" r="Q64" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3448,24 +3487,24 @@
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
       <c t="s" r="L65" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
         <v>197</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3481,24 +3520,24 @@
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>199</v>
+        <v>149</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
+        <v>199</v>
+      </c>
+      <c t="s" r="Q66" s="12">
         <v>200</v>
-      </c>
-      <c t="s" r="Q66" s="12">
-        <v>26</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3514,7 +3553,7 @@
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3524,14 +3563,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>143</v>
+        <v>202</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>16</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3540,14 +3579,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3557,14 +3596,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
         <v>205</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3580,21 +3619,21 @@
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>142</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>14</v>
+        <v>207</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>15</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>16</v>
@@ -3606,14 +3645,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3623,14 +3662,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3639,14 +3678,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3656,11 +3695,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>98</v>
+        <v>153</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3672,14 +3711,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3689,14 +3728,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>55</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3705,14 +3744,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3722,11 +3761,11 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>123</v>
+        <v>218</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q73" s="12">
         <v>16</v>
@@ -3738,14 +3777,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3755,14 +3794,14 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>218</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q74" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3771,14 +3810,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3788,14 +3827,14 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3804,14 +3843,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3821,11 +3860,11 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>223</v>
+        <v>105</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
         <v>16</v>
@@ -3837,14 +3876,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3854,14 +3893,14 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" ht="24.75" customHeight="1">
@@ -3870,14 +3909,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3887,14 +3926,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>32</v>
+        <v>133</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3903,14 +3942,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3920,14 +3959,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>108</v>
+        <v>231</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3936,14 +3975,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3953,14 +3992,14 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c t="s" r="Q80" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="25.5" customHeight="1">
@@ -3969,14 +4008,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -3986,14 +4025,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4002,14 +4041,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>237</v>
+        <v>18</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4019,14 +4058,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4035,14 +4074,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4052,14 +4091,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>241</v>
+        <v>36</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>242</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4068,14 +4107,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4085,14 +4124,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>244</v>
+        <v>115</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4101,14 +4140,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4118,14 +4157,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4134,14 +4173,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>142</v>
+        <v>247</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4151,14 +4190,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>208</v>
+        <v>146</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4167,31 +4206,31 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>142</v>
+        <v>250</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
       <c r="K87" s="9"/>
       <c t="s" r="L87" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>73</v>
+        <v>251</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4200,31 +4239,31 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
       <c r="K88" s="9"/>
       <c t="s" r="L88" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4233,28 +4272,28 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>255</v>
+        <v>107</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
       <c r="K89" s="9"/>
       <c t="s" r="L89" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>179</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>16</v>
@@ -4266,31 +4305,31 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>257</v>
+        <v>50</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
       <c r="K90" s="9"/>
       <c t="s" r="L90" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>258</v>
+        <v>43</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4299,24 +4338,24 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
       <c r="K91" s="9"/>
       <c t="s" r="L91" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4339,21 +4378,21 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
       <c r="K92" s="9"/>
       <c t="s" r="L92" s="10">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4372,24 +4411,24 @@
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>238</v>
+        <v>81</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4398,31 +4437,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4431,28 +4470,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4464,31 +4503,31 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>98</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>211</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4497,28 +4536,28 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>44</v>
+        <v>277</v>
       </c>
       <c t="s" r="Q97" s="12">
         <v>16</v>
@@ -4530,28 +4569,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4563,31 +4602,31 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>14</v>
+        <v>251</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>15</v>
+        <v>281</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>16</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4596,28 +4635,28 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>280</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c t="s" r="Q100" s="12">
         <v>16</v>
@@ -4629,28 +4668,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>16</v>
+        <v>287</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>282</v>
+        <v>81</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4662,31 +4701,31 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>42</v>
+        <v>126</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
       <c r="K102" s="9"/>
       <c t="s" r="L102" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>285</v>
+        <v>105</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>96</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>83</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4695,28 +4734,28 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>287</v>
+        <v>107</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
       <c r="K103" s="9"/>
       <c t="s" r="L103" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>202</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4728,28 +4767,28 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
       <c r="K104" s="9"/>
       <c t="s" r="L104" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>276</v>
+        <v>123</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>277</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4761,28 +4800,28 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
       <c r="K105" s="9"/>
       <c t="s" r="L105" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>291</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4807,53 +4846,251 @@
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
-      <c r="P107" s="13">
-        <v>6123.4949999999999</v>
-      </c>
-      <c r="Q107" s="13"/>
-    </row>
-    <row r="108" ht="16.5" customHeight="1">
-      <c t="s" r="A108" s="14">
+      <c r="A107" s="7">
+        <v>101</v>
+      </c>
+      <c r="B107" s="7"/>
+      <c t="s" r="C107" s="8">
         <v>294</v>
       </c>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c t="s" r="G108" s="15">
+      <c r="D107" s="8"/>
+      <c r="E107" s="8"/>
+      <c r="F107" s="8"/>
+      <c r="G107" s="8"/>
+      <c t="s" r="H107" s="9">
+        <v>16</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="9"/>
+      <c r="K107" s="9"/>
+      <c t="s" r="L107" s="10">
+        <v>31</v>
+      </c>
+      <c r="M107" s="10"/>
+      <c t="s" r="N107" s="8">
         <v>295</v>
       </c>
-      <c r="H108" s="15"/>
-      <c r="I108" s="15"/>
-      <c r="J108" s="16"/>
-      <c t="s" r="K108" s="17">
+      <c r="O107" s="8"/>
+      <c t="s" r="P107" s="11">
         <v>296</v>
       </c>
-      <c r="L108" s="17"/>
-      <c r="M108" s="17"/>
-      <c r="N108" s="17"/>
-      <c r="O108" s="17"/>
-      <c r="P108" s="17"/>
-      <c r="Q108" s="17"/>
+      <c t="s" r="Q107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" ht="24.75" customHeight="1">
+      <c r="A108" s="7">
+        <v>102</v>
+      </c>
+      <c r="B108" s="7"/>
+      <c t="s" r="C108" s="8">
+        <v>297</v>
+      </c>
+      <c r="D108" s="8"/>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8"/>
+      <c r="G108" s="8"/>
+      <c t="s" r="H108" s="9">
+        <v>50</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="9"/>
+      <c r="K108" s="9"/>
+      <c t="s" r="L108" s="10">
+        <v>31</v>
+      </c>
+      <c r="M108" s="10"/>
+      <c t="s" r="N108" s="8">
+        <v>298</v>
+      </c>
+      <c r="O108" s="8"/>
+      <c t="s" r="P108" s="11">
+        <v>103</v>
+      </c>
+      <c t="s" r="Q108" s="12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" ht="25.5" customHeight="1">
+      <c r="A109" s="7">
+        <v>103</v>
+      </c>
+      <c r="B109" s="7"/>
+      <c t="s" r="C109" s="8">
+        <v>299</v>
+      </c>
+      <c r="D109" s="8"/>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8"/>
+      <c r="G109" s="8"/>
+      <c t="s" r="H109" s="9">
+        <v>300</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="9"/>
+      <c t="s" r="L109" s="10">
+        <v>31</v>
+      </c>
+      <c r="M109" s="10"/>
+      <c t="s" r="N109" s="8">
+        <v>153</v>
+      </c>
+      <c r="O109" s="8"/>
+      <c t="s" r="P109" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" ht="24.75" customHeight="1">
+      <c r="A110" s="7">
+        <v>104</v>
+      </c>
+      <c r="B110" s="7"/>
+      <c t="s" r="C110" s="8">
+        <v>301</v>
+      </c>
+      <c r="D110" s="8"/>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8"/>
+      <c r="G110" s="8"/>
+      <c t="s" r="H110" s="9">
+        <v>302</v>
+      </c>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="9"/>
+      <c t="s" r="L110" s="10">
+        <v>31</v>
+      </c>
+      <c r="M110" s="10"/>
+      <c t="s" r="N110" s="8">
+        <v>123</v>
+      </c>
+      <c r="O110" s="8"/>
+      <c t="s" r="P110" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" ht="25.5" customHeight="1">
+      <c r="A111" s="7">
+        <v>105</v>
+      </c>
+      <c r="B111" s="7"/>
+      <c t="s" r="C111" s="8">
+        <v>303</v>
+      </c>
+      <c r="D111" s="8"/>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8"/>
+      <c r="G111" s="8"/>
+      <c t="s" r="H111" s="9">
+        <v>126</v>
+      </c>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c t="s" r="L111" s="10">
+        <v>31</v>
+      </c>
+      <c r="M111" s="10"/>
+      <c t="s" r="N111" s="8">
+        <v>127</v>
+      </c>
+      <c r="O111" s="8"/>
+      <c t="s" r="P111" s="11">
+        <v>304</v>
+      </c>
+      <c t="s" r="Q111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" ht="25.5" customHeight="1">
+      <c r="A112" s="7">
+        <v>106</v>
+      </c>
+      <c r="B112" s="7"/>
+      <c t="s" r="C112" s="8">
+        <v>305</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8"/>
+      <c r="G112" s="8"/>
+      <c t="s" r="H112" s="9">
+        <v>306</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c t="s" r="L112" s="10">
+        <v>31</v>
+      </c>
+      <c r="M112" s="10"/>
+      <c t="s" r="N112" s="8">
+        <v>51</v>
+      </c>
+      <c r="O112" s="8"/>
+      <c t="s" r="P112" s="11">
+        <v>52</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="P113" s="13">
+        <v>6565.8149999999996</v>
+      </c>
+      <c r="Q113" s="13"/>
+    </row>
+    <row r="114" ht="16.5" customHeight="1">
+      <c t="s" r="A114" s="14">
+        <v>307</v>
+      </c>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c t="s" r="G114" s="15">
+        <v>308</v>
+      </c>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c t="s" r="K114" s="17">
+        <v>309</v>
+      </c>
+      <c r="L114" s="17"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="17"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="512">
+  <mergeCells count="542">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5362,10 +5599,40 @@
     <mergeCell ref="H106:K106"/>
     <mergeCell ref="L106:M106"/>
     <mergeCell ref="N106:O106"/>
-    <mergeCell ref="P107:Q107"/>
-    <mergeCell ref="A108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="K108:Q108"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="C107:G107"/>
+    <mergeCell ref="H107:K107"/>
+    <mergeCell ref="L107:M107"/>
+    <mergeCell ref="N107:O107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="H108:K108"/>
+    <mergeCell ref="L108:M108"/>
+    <mergeCell ref="N108:O108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="C109:G109"/>
+    <mergeCell ref="H109:K109"/>
+    <mergeCell ref="L109:M109"/>
+    <mergeCell ref="N109:O109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="H110:K110"/>
+    <mergeCell ref="L110:M110"/>
+    <mergeCell ref="N110:O110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="C111:G111"/>
+    <mergeCell ref="H111:K111"/>
+    <mergeCell ref="L111:M111"/>
+    <mergeCell ref="N111:O111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="H112:K112"/>
+    <mergeCell ref="L112:M112"/>
+    <mergeCell ref="N112:O112"/>
+    <mergeCell ref="P113:Q113"/>
+    <mergeCell ref="A114:F114"/>
+    <mergeCell ref="G114:I114"/>
+    <mergeCell ref="K114:Q114"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -332,456 +332,480 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>66.0000</t>
+  </si>
+  <si>
+    <t>CYMBATEX 20 MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>174.00</t>
+  </si>
+  <si>
+    <t>57.4200</t>
+  </si>
+  <si>
+    <t>DELCABRIN 0.5 MG 2 SCORED TAB.</t>
+  </si>
+  <si>
+    <t>73.00</t>
+  </si>
+  <si>
+    <t>73.0000</t>
+  </si>
+  <si>
+    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
+  </si>
+  <si>
+    <t>144.00</t>
+  </si>
+  <si>
+    <t>144.0000</t>
+  </si>
+  <si>
+    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
+  </si>
+  <si>
+    <t>85.00</t>
+  </si>
+  <si>
+    <t>170.0000</t>
+  </si>
+  <si>
+    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
+  </si>
+  <si>
+    <t>44.0000</t>
+  </si>
+  <si>
+    <t>DEXAGLOBE 1 AMP. 2ML</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>30.0000</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>-26.0000</t>
+  </si>
+  <si>
+    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>187.50</t>
+  </si>
+  <si>
+    <t>61.8750</t>
+  </si>
+  <si>
+    <t>DIASMECT 20% SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>23.0000</t>
+  </si>
+  <si>
+    <t>DICLAC 150 ID 20 PROLONGED R TABS</t>
+  </si>
+  <si>
+    <t>132.00</t>
+  </si>
+  <si>
+    <t>DOLCYL 2MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>48.0000</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>7:3</t>
+  </si>
+  <si>
+    <t>63.8400</t>
+  </si>
+  <si>
+    <t>DOLPHIN 12.5MG 10 SUPP</t>
+  </si>
+  <si>
+    <t>18.0000</t>
+  </si>
+  <si>
+    <t>DOSTINEX 0.5 MG 2 TABS.</t>
+  </si>
+  <si>
+    <t>172.00</t>
+  </si>
+  <si>
+    <t>172.0000</t>
+  </si>
+  <si>
+    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>51.0000</t>
+  </si>
+  <si>
+    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>17.2800</t>
+  </si>
+  <si>
+    <t>FAWAR FRUIT 6 SACHETS</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>24.00</t>
+  </si>
+  <si>
+    <t>19.9200</t>
+  </si>
+  <si>
+    <t>0:5</t>
+  </si>
+  <si>
+    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t>139.50</t>
+  </si>
+  <si>
+    <t>139.5000</t>
+  </si>
+  <si>
+    <t>FEROGLOBIN 30 CAPS</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>90.0000</t>
+  </si>
+  <si>
+    <t>FLECTOR 50MG 30 CAPS</t>
+  </si>
+  <si>
+    <t>FLUMOX 500MG 16 CAPS</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>35.5000</t>
+  </si>
+  <si>
+    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>306.00</t>
+  </si>
+  <si>
+    <t>100.9800</t>
+  </si>
+  <si>
+    <t>GRAMITIN TAB</t>
+  </si>
+  <si>
+    <t>126.00</t>
+  </si>
+  <si>
+    <t>83.1600</t>
+  </si>
+  <si>
+    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>92.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>114.0000</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>130.0000</t>
+  </si>
+  <si>
+    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
+  </si>
+  <si>
+    <t>26.7300</t>
+  </si>
+  <si>
+    <t>KAPRITAGE SOAP 100 GM</t>
+  </si>
+  <si>
+    <t>KETOLAC 30MG/2ML 5 AMP. FOR I.M./I.V. INF.</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>60.0000</t>
+  </si>
+  <si>
+    <t>LARYPRO 20 LOZENGES</t>
+  </si>
+  <si>
+    <t>LASILACTONE 50/20MG 30 TAB.</t>
+  </si>
+  <si>
+    <t>126.0000</t>
+  </si>
+  <si>
+    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
+  </si>
+  <si>
+    <t>2:3</t>
+  </si>
+  <si>
+    <t>96.00</t>
+  </si>
+  <si>
+    <t>0.0000</t>
+  </si>
+  <si>
+    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
+  </si>
+  <si>
+    <t>20.0000</t>
+  </si>
+  <si>
+    <t>OCTOZINC 25MG 20 CAPS</t>
+  </si>
+  <si>
+    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>64.0000</t>
+  </si>
+  <si>
+    <t>0:4</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>46.0000</t>
+  </si>
+  <si>
+    <t>PANADOL EXTRA 48 TAB</t>
+  </si>
+  <si>
+    <t>81.0000</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>PARAMOL 1000 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>0:-1</t>
+  </si>
+  <si>
+    <t>PRIDOCAINE CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>32.0000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>250.0000</t>
+  </si>
+  <si>
+    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
+    <t>98.0100</t>
+  </si>
+  <si>
+    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
+  </si>
+  <si>
+    <t>24.0000</t>
+  </si>
+  <si>
+    <t>RIVO 320MG 20*10 TABS</t>
+  </si>
+  <si>
+    <t>1:8</t>
+  </si>
+  <si>
+    <t>7.0500</t>
+  </si>
+  <si>
+    <t>RX MASSAGE GEL 50 GM</t>
+  </si>
+  <si>
+    <t>79.90</t>
+  </si>
+  <si>
+    <t>79.9000</t>
+  </si>
+  <si>
+    <t>SELGON 10MG 6 INFANT SUPP.</t>
+  </si>
+  <si>
+    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>84.00</t>
+  </si>
+  <si>
+    <t>42.0000</t>
+  </si>
+  <si>
+    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>50.0000</t>
+  </si>
+  <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>28.0000</t>
+  </si>
+  <si>
+    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>62.00</t>
+  </si>
+  <si>
+    <t>31.0000</t>
+  </si>
+  <si>
+    <t>TORSERETIC 20MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>123.00</t>
+  </si>
+  <si>
+    <t>123.0000</t>
+  </si>
+  <si>
+    <t>TRIO-CLAR 42 CAP</t>
+  </si>
+  <si>
+    <t>220.00</t>
+  </si>
+  <si>
+    <t>220.0000</t>
+  </si>
+  <si>
+    <t>URICODROP 80 MG 30 F.C. TABS.</t>
+  </si>
+  <si>
+    <t>40.5900</t>
+  </si>
+  <si>
+    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
+  </si>
+  <si>
+    <t>47.5200</t>
+  </si>
+  <si>
+    <t>VERSERC 16MG 30 TAB</t>
+  </si>
+  <si>
+    <t>28.7100</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>16.8300</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>8211:0</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>14.0000</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>WE.GEL GEL 75 GM</t>
+  </si>
+  <si>
+    <t>68.00</t>
+  </si>
+  <si>
+    <t>68.0000</t>
+  </si>
+  <si>
+    <t>XORAXON 1GM I.M. VIAL</t>
+  </si>
+  <si>
     <t>13:0</t>
   </si>
   <si>
-    <t>CYMBATEX 20 MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>174.00</t>
-  </si>
-  <si>
-    <t>57.4200</t>
-  </si>
-  <si>
-    <t>DELCABRIN 0.5 MG 2 SCORED TAB.</t>
-  </si>
-  <si>
-    <t>73.00</t>
-  </si>
-  <si>
-    <t>73.0000</t>
-  </si>
-  <si>
-    <t>DEPAKINE CHRONO 500MG 30 SCORED PROLONGED REL. F.C. TAB.</t>
-  </si>
-  <si>
-    <t>144.00</t>
-  </si>
-  <si>
-    <t>144.0000</t>
-  </si>
-  <si>
-    <t>DEPOVIT B12-1000MCG/ML 5 I.M. AMP</t>
-  </si>
-  <si>
-    <t>85.00</t>
-  </si>
-  <si>
-    <t>170.0000</t>
-  </si>
-  <si>
-    <t>DERMOVATE 0.05% TOP. CREAM 25 GM</t>
-  </si>
-  <si>
-    <t>44.0000</t>
-  </si>
-  <si>
-    <t>DEXAGLOBE 1 AMP. 2ML</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
-    <t>30.0000</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-MUP 8MG/2ML 5 AMP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>-26.0000</t>
-  </si>
-  <si>
-    <t>DIAMONRECTA 5 MG 30 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>187.50</t>
-  </si>
-  <si>
-    <t>61.8750</t>
-  </si>
-  <si>
-    <t>DIASMECT 20% SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>23.0000</t>
-  </si>
-  <si>
-    <t>DOLCYL 2MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>48.0000</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>7:3</t>
-  </si>
-  <si>
-    <t>63.8400</t>
-  </si>
-  <si>
-    <t>DOLPHIN 12.5MG 10 SUPP</t>
-  </si>
-  <si>
-    <t>18.0000</t>
-  </si>
-  <si>
-    <t>DOSTINEX 0.5 MG 2 TABS.</t>
-  </si>
-  <si>
-    <t>172.00</t>
-  </si>
-  <si>
-    <t>172.0000</t>
-  </si>
-  <si>
-    <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>51.0000</t>
-  </si>
-  <si>
-    <t>FAROVIGA 100MG 12 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>17.2800</t>
-  </si>
-  <si>
-    <t>FAWAR FRUIT 6 SACHETS</t>
-  </si>
-  <si>
-    <t>8:0</t>
-  </si>
-  <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>19.9200</t>
-  </si>
-  <si>
-    <t>0:5</t>
-  </si>
-  <si>
-    <t>FEBURIC 80MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t>139.50</t>
-  </si>
-  <si>
-    <t>139.5000</t>
-  </si>
-  <si>
-    <t>FEROGLOBIN 30 CAPS</t>
-  </si>
-  <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>90.0000</t>
-  </si>
-  <si>
-    <t>FLECTOR 50MG 30 CAPS</t>
-  </si>
-  <si>
-    <t>FLUMOX 500MG 16 CAPS</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>35.5000</t>
-  </si>
-  <si>
-    <t>FORFLOZIN 10MG 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>306.00</t>
-  </si>
-  <si>
-    <t>100.9800</t>
-  </si>
-  <si>
-    <t>GRAMITIN TAB</t>
-  </si>
-  <si>
-    <t>126.00</t>
-  </si>
-  <si>
-    <t>83.1600</t>
-  </si>
-  <si>
-    <t>HIBIOTIC N 600MG SUSP. 80 ML</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>92.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>114.0000</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>130.0000</t>
-  </si>
-  <si>
-    <t>JUSPRIN 81MG 60 ENTERIC COATED TAB</t>
-  </si>
-  <si>
-    <t>26.7300</t>
-  </si>
-  <si>
-    <t>KAPRITAGE SOAP 100 GM</t>
-  </si>
-  <si>
-    <t>LARYPRO 20 LOZENGES</t>
-  </si>
-  <si>
-    <t>LASILACTONE 50/20MG 30 TAB.</t>
-  </si>
-  <si>
-    <t>126.0000</t>
-  </si>
-  <si>
-    <t>NITROMAK RETARD 2.5MG 60 CAPS</t>
-  </si>
-  <si>
-    <t>2:3</t>
-  </si>
-  <si>
-    <t>96.00</t>
-  </si>
-  <si>
-    <t>0.0000</t>
-  </si>
-  <si>
-    <t>NOVALGIN OBLONG 500MG 10 F.C TAB.</t>
-  </si>
-  <si>
-    <t>20.0000</t>
-  </si>
-  <si>
-    <t>OMNEVORA 8 I.M. AMP. 2 ML</t>
-  </si>
-  <si>
-    <t>128.00</t>
-  </si>
-  <si>
-    <t>64.0000</t>
-  </si>
-  <si>
-    <t>0:4</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>46.0000</t>
-  </si>
-  <si>
-    <t>PANADOL EXTRA 48 TAB</t>
-  </si>
-  <si>
-    <t>81.0000</t>
-  </si>
-  <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>PARAMOL 1000 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>52.00</t>
-  </si>
-  <si>
-    <t>0:-1</t>
-  </si>
-  <si>
-    <t>PRIDOCAINE CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>32.0000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
-  </si>
-  <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>250.0000</t>
-  </si>
-  <si>
-    <t>RECOXIBRIGHT 90 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>98.0100</t>
-  </si>
-  <si>
-    <t>REMOWAX 5 % EAR DROPS. 15 ML</t>
-  </si>
-  <si>
-    <t>24.0000</t>
-  </si>
-  <si>
-    <t>RIVO 320MG 20*10 TABS</t>
-  </si>
-  <si>
-    <t>1:8</t>
-  </si>
-  <si>
-    <t>7.0500</t>
-  </si>
-  <si>
-    <t>RX MASSAGE GEL 50 GM</t>
-  </si>
-  <si>
-    <t>79.90</t>
-  </si>
-  <si>
-    <t>79.9000</t>
-  </si>
-  <si>
-    <t>SELGON 10MG 6 INFANT SUPP.</t>
-  </si>
-  <si>
-    <t>TAVONIZA 10 MG 20 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>84.00</t>
-  </si>
-  <si>
-    <t>42.0000</t>
-  </si>
-  <si>
-    <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
-  </si>
-  <si>
-    <t>50.0000</t>
-  </si>
-  <si>
-    <t>TERRAMYCIN EYE OINT. 5 GM</t>
-  </si>
-  <si>
-    <t>28.00</t>
-  </si>
-  <si>
-    <t>28.0000</t>
-  </si>
-  <si>
-    <t>TOBRIN 0.3% EYE DROPS 5 ML</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>62.00</t>
-  </si>
-  <si>
-    <t>31.0000</t>
-  </si>
-  <si>
-    <t>TORSERETIC 20MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>123.00</t>
-  </si>
-  <si>
-    <t>123.0000</t>
-  </si>
-  <si>
-    <t>TRIO-CLAR 42 CAP</t>
-  </si>
-  <si>
-    <t>220.00</t>
-  </si>
-  <si>
-    <t>220.0000</t>
-  </si>
-  <si>
-    <t>URICODROP 80 MG 30 F.C. TABS.</t>
-  </si>
-  <si>
-    <t>40.5900</t>
-  </si>
-  <si>
-    <t>VASTAFLAM 50MG 20 SUGAR COATED TAB.</t>
-  </si>
-  <si>
-    <t>VEGAPANTIN 600MG 10 F.C. TAB</t>
-  </si>
-  <si>
-    <t>47.5200</t>
-  </si>
-  <si>
-    <t>VERSERC 16MG 30 TAB</t>
-  </si>
-  <si>
-    <t>28.7100</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>1:3</t>
-  </si>
-  <si>
-    <t>16.8300</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>8216:0</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>4.0000</t>
-  </si>
-  <si>
-    <t>WE.GEL GEL 75 GM</t>
-  </si>
-  <si>
-    <t>68.00</t>
-  </si>
-  <si>
-    <t>68.0000</t>
-  </si>
-  <si>
-    <t>XORAXON 1GM I.M. VIAL</t>
-  </si>
-  <si>
     <t>56.00</t>
   </si>
   <si>
@@ -932,7 +956,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 9:52 PM</t>
+    <t>Thursday, 25 September, 2025 10:01 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2398,7 +2422,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2412,10 +2436,10 @@
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2728,7 +2752,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2738,14 +2762,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>67</v>
+        <v>136</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2761,7 +2785,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>138</v>
+        <v>35</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2775,10 +2799,10 @@
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2787,14 +2811,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2804,14 +2828,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2827,7 +2851,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2837,14 +2861,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>143</v>
+        <v>36</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2853,14 +2877,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2870,11 +2894,11 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
         <v>16</v>
@@ -2886,14 +2910,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2903,14 +2927,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2919,14 +2943,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>152</v>
+        <v>26</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2936,14 +2960,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>155</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2952,14 +2976,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>35</v>
+        <v>154</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2969,14 +2993,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>16</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2985,14 +3009,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3002,14 +3026,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3018,14 +3042,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3035,14 +3059,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>23</v>
+        <v>162</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3051,14 +3075,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3068,14 +3092,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>23</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3084,14 +3108,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3101,11 +3125,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3117,31 +3141,31 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
       <c t="s" r="L54" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3150,31 +3174,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3183,31 +3207,31 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
       <c r="K56" s="9"/>
       <c t="s" r="L56" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>62</v>
+        <v>175</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3223,17 +3247,17 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
@@ -3266,14 +3290,14 @@
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>72</v>
+        <v>127</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
         <v>180</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3299,14 +3323,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>52</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3315,14 +3339,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3332,14 +3356,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3348,14 +3372,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3365,11 +3389,11 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c t="s" r="Q61" s="12">
         <v>16</v>
@@ -3381,14 +3405,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3398,14 +3422,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3414,14 +3438,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3431,11 +3455,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>81</v>
+        <v>172</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3447,14 +3471,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>26</v>
+        <v>191</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3471,7 +3495,7 @@
         <v>193</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>194</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3480,14 +3504,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>196</v>
+        <v>16</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3497,14 +3521,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3513,31 +3537,31 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
       <c t="s" r="L66" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>199</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q66" s="12">
-        <v>200</v>
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -3546,14 +3570,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3563,14 +3587,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>128</v>
+        <v>199</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3579,14 +3603,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>50</v>
+        <v>202</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3596,14 +3620,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>102</v>
+        <v>175</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3612,14 +3636,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3629,14 +3653,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3645,14 +3669,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3662,14 +3686,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>211</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>30</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3678,14 +3702,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3695,11 +3719,11 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>153</v>
+        <v>102</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c t="s" r="Q71" s="12">
         <v>16</v>
@@ -3711,31 +3735,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>215</v>
+        <v>50</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>55</v>
+        <v>213</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3744,14 +3768,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3761,14 +3785,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3777,14 +3801,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>152</v>
+        <v>22</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3794,11 +3818,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>15</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3810,14 +3834,14 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>221</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
@@ -3827,11 +3851,11 @@
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>222</v>
+        <v>55</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c t="s" r="Q75" s="12">
         <v>30</v>
@@ -3843,14 +3867,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3860,7 +3884,7 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
@@ -3883,7 +3907,7 @@
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3893,11 +3917,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>227</v>
+        <v>14</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>228</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3909,14 +3933,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3926,14 +3950,14 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>134</v>
+        <v>229</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3949,7 +3973,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3959,14 +3983,14 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>231</v>
+        <v>105</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -3975,14 +3999,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -3992,11 +4016,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4008,14 +4032,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4025,11 +4049,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>133</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>134</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>16</v>
@@ -4041,7 +4065,7 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
@@ -4058,11 +4082,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>30</v>
@@ -4074,14 +4098,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4091,14 +4115,14 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>36</v>
+        <v>240</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>141</v>
+        <v>241</v>
       </c>
       <c t="s" r="Q83" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="25.5" customHeight="1">
@@ -4114,7 +4138,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4124,14 +4148,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4140,14 +4164,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4157,11 +4181,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>23</v>
+        <v>240</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4173,14 +4197,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>247</v>
+        <v>18</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4190,11 +4214,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>146</v>
+        <v>36</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>248</v>
+        <v>143</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>30</v>
@@ -4206,14 +4230,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>250</v>
+        <v>35</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4223,14 +4247,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>251</v>
+        <v>115</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4239,14 +4263,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4256,14 +4280,14 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q88" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="89" ht="25.5" customHeight="1">
@@ -4272,14 +4296,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>107</v>
+        <v>253</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4289,14 +4313,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>257</v>
+        <v>148</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4305,14 +4329,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>50</v>
+        <v>256</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4322,14 +4346,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>43</v>
+        <v>257</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4338,14 +4362,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4355,7 +4379,7 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>187</v>
+        <v>261</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
@@ -4378,7 +4402,7 @@
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4388,11 +4412,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>16</v>
@@ -4404,28 +4428,28 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
       <c r="K93" s="9"/>
       <c t="s" r="L93" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>190</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q93" s="12">
         <v>16</v>
@@ -4437,31 +4461,31 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
       <c r="K94" s="9"/>
       <c t="s" r="L94" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>267</v>
+        <v>192</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4470,28 +4494,28 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>270</v>
+        <v>154</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
       <c r="K95" s="9"/>
       <c t="s" r="L95" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>81</v>
+        <v>228</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4503,14 +4527,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4520,14 +4544,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>273</v>
+        <v>81</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4536,14 +4560,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4553,14 +4577,14 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4569,14 +4593,14 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>50</v>
+        <v>278</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4586,11 +4610,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>279</v>
+        <v>81</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4602,14 +4626,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>50</v>
+        <v>280</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4619,14 +4643,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>282</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4642,7 +4666,7 @@
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4675,7 +4699,7 @@
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4685,14 +4709,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>81</v>
+        <v>287</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>16</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4708,7 +4732,7 @@
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4718,14 +4742,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>105</v>
+        <v>257</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>225</v>
+        <v>289</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>16</v>
+        <v>290</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4734,14 +4758,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4751,11 +4775,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>51</v>
+        <v>292</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>52</v>
+        <v>293</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4767,14 +4791,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>16</v>
+        <v>295</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4784,11 +4808,11 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>124</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q104" s="12">
         <v>16</v>
@@ -4800,14 +4824,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>126</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4817,11 +4841,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>15</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>16</v>
@@ -4833,14 +4857,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4850,11 +4874,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4866,7 +4890,7 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
@@ -4883,11 +4907,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>295</v>
+        <v>123</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>296</v>
+        <v>124</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4899,7 +4923,7 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
@@ -4916,14 +4940,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>298</v>
+        <v>14</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4932,14 +4956,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4949,11 +4973,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>213</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4965,14 +4989,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>302</v>
+        <v>16</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -4982,11 +5006,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>123</v>
+        <v>303</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>124</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -4998,14 +5022,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5015,14 +5039,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5031,14 +5055,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5048,49 +5072,148 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>51</v>
+        <v>155</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" ht="24.75" customHeight="1">
+      <c r="A113" s="7">
+        <v>107</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c t="s" r="C113" s="8">
+        <v>309</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8"/>
+      <c r="G113" s="8"/>
+      <c t="s" r="H113" s="9">
+        <v>310</v>
+      </c>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="9"/>
+      <c t="s" r="L113" s="10">
+        <v>31</v>
+      </c>
+      <c r="M113" s="10"/>
+      <c t="s" r="N113" s="8">
+        <v>123</v>
+      </c>
+      <c r="O113" s="8"/>
+      <c t="s" r="P113" s="11">
+        <v>124</v>
+      </c>
+      <c t="s" r="Q113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" ht="25.5" customHeight="1">
+      <c r="A114" s="7">
+        <v>108</v>
+      </c>
+      <c r="B114" s="7"/>
+      <c t="s" r="C114" s="8">
+        <v>311</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="8"/>
+      <c t="s" r="H114" s="9">
+        <v>126</v>
+      </c>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="9"/>
+      <c t="s" r="L114" s="10">
+        <v>31</v>
+      </c>
+      <c r="M114" s="10"/>
+      <c t="s" r="N114" s="8">
+        <v>127</v>
+      </c>
+      <c r="O114" s="8"/>
+      <c t="s" r="P114" s="11">
+        <v>312</v>
+      </c>
+      <c t="s" r="Q114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" ht="24.75" customHeight="1">
+      <c r="A115" s="7">
+        <v>109</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c t="s" r="C115" s="8">
+        <v>313</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="8"/>
+      <c t="s" r="H115" s="9">
+        <v>314</v>
+      </c>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="9"/>
+      <c t="s" r="L115" s="10">
+        <v>31</v>
+      </c>
+      <c r="M115" s="10"/>
+      <c t="s" r="N115" s="8">
+        <v>51</v>
+      </c>
+      <c r="O115" s="8"/>
+      <c t="s" r="P115" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q112" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="113" ht="24.75" customHeight="1">
-      <c r="P113" s="13">
-        <v>6565.8149999999996</v>
-      </c>
-      <c r="Q113" s="13"/>
-    </row>
-    <row r="114" ht="16.5" customHeight="1">
-      <c t="s" r="A114" s="14">
-        <v>307</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c t="s" r="G114" s="15">
-        <v>308</v>
-      </c>
-      <c r="H114" s="15"/>
-      <c r="I114" s="15"/>
-      <c r="J114" s="16"/>
-      <c t="s" r="K114" s="17">
-        <v>309</v>
-      </c>
-      <c r="L114" s="17"/>
-      <c r="M114" s="17"/>
-      <c r="N114" s="17"/>
-      <c r="O114" s="17"/>
-      <c r="P114" s="17"/>
-      <c r="Q114" s="17"/>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="P116" s="13">
+        <v>6784.8149999999996</v>
+      </c>
+      <c r="Q116" s="13"/>
+    </row>
+    <row r="117" ht="16.5" customHeight="1">
+      <c t="s" r="A117" s="14">
+        <v>315</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c t="s" r="G117" s="15">
+        <v>316</v>
+      </c>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c t="s" r="K117" s="17">
+        <v>317</v>
+      </c>
+      <c r="L117" s="17"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="17"/>
+      <c r="O117" s="17"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="542">
+  <mergeCells count="557">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5629,10 +5752,25 @@
     <mergeCell ref="H112:K112"/>
     <mergeCell ref="L112:M112"/>
     <mergeCell ref="N112:O112"/>
-    <mergeCell ref="P113:Q113"/>
-    <mergeCell ref="A114:F114"/>
-    <mergeCell ref="G114:I114"/>
-    <mergeCell ref="K114:Q114"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="C113:G113"/>
+    <mergeCell ref="H113:K113"/>
+    <mergeCell ref="L113:M113"/>
+    <mergeCell ref="N113:O113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="H114:K114"/>
+    <mergeCell ref="L114:M114"/>
+    <mergeCell ref="N114:O114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="C115:G115"/>
+    <mergeCell ref="H115:K115"/>
+    <mergeCell ref="L115:M115"/>
+    <mergeCell ref="N115:O115"/>
+    <mergeCell ref="P116:Q116"/>
+    <mergeCell ref="A117:F117"/>
+    <mergeCell ref="G117:I117"/>
+    <mergeCell ref="K117:Q117"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -260,6 +260,15 @@
     <t>10.0000</t>
   </si>
   <si>
+    <t>CALMARE PLUS 130 ML NASAL SPRAY</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>150.0000</t>
+  </si>
+  <si>
     <t>CETAL 120 MG 5 INFANTILE SUPP</t>
   </si>
   <si>
@@ -452,6 +461,12 @@
     <t>172.0000</t>
   </si>
   <si>
+    <t>ETHOXA 250MG/5ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>99.00</t>
+  </si>
+  <si>
     <t>EZACARD 75MG 30 ENTERIC COATED TAB.</t>
   </si>
   <si>
@@ -515,6 +530,18 @@
     <t>35.5000</t>
   </si>
   <si>
+    <t>FORBUDES 400/12MCG 60 INHALATION CAPS.+INHALER</t>
+  </si>
+  <si>
+    <t>1:3</t>
+  </si>
+  <si>
+    <t>334.00</t>
+  </si>
+  <si>
+    <t>53.4400</t>
+  </si>
+  <si>
     <t>FORFLOZIN 10MG 30 F.C. TABS</t>
   </si>
   <si>
@@ -770,9 +797,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>1:3</t>
-  </si>
-  <si>
     <t>16.8300</t>
   </si>
   <si>
@@ -863,12 +887,6 @@
     <t>زيت باراشوت صغير</t>
   </si>
   <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>150.0000</t>
-  </si>
-  <si>
     <t>سرنجات 10 سم</t>
   </si>
   <si>
@@ -956,7 +974,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:01 PM</t>
+    <t>Thursday, 25 September, 2025 10:41 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -2191,7 +2209,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -2201,11 +2219,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2217,14 +2235,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2234,14 +2252,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2250,14 +2268,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2274,7 +2292,7 @@
         <v>93</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2290,7 +2308,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2307,7 +2325,7 @@
         <v>96</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2323,7 +2341,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>98</v>
+        <v>16</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2333,14 +2351,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2349,14 +2367,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2389,7 +2407,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2403,7 +2421,7 @@
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q31" s="12">
         <v>30</v>
@@ -2415,14 +2433,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2432,14 +2450,14 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2448,14 +2466,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2465,14 +2483,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
         <v>110</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2488,7 +2506,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2505,7 +2523,7 @@
         <v>113</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2521,7 +2539,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2554,7 +2572,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2571,7 +2589,7 @@
         <v>119</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2587,7 +2605,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2597,14 +2615,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2613,7 +2631,7 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
@@ -2630,7 +2648,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2653,7 +2671,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2663,14 +2681,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2679,14 +2697,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2703,7 +2721,7 @@
         <v>131</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2719,7 +2737,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2736,7 +2754,7 @@
         <v>134</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2752,7 +2770,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2766,10 +2784,10 @@
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2778,14 +2796,14 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
@@ -2795,14 +2813,14 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2811,14 +2829,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>140</v>
+        <v>35</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2835,7 +2853,7 @@
         <v>141</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2851,7 +2869,7 @@
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>71</v>
+        <v>143</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2861,14 +2879,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2877,14 +2895,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2894,14 +2912,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>145</v>
+        <v>36</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2917,7 +2935,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2950,7 +2968,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2964,10 +2982,10 @@
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>152</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -2976,14 +2994,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2993,14 +3011,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>157</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -3009,14 +3027,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3026,14 +3044,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3042,14 +3060,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3059,14 +3077,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>30</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3075,14 +3093,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3092,14 +3110,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>23</v>
+        <v>164</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3108,14 +3126,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3125,11 +3143,11 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c t="s" r="Q53" s="12">
         <v>30</v>
@@ -3141,14 +3159,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3158,14 +3176,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>170</v>
+        <v>113</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3174,31 +3192,31 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
       <c t="s" r="L55" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -3207,14 +3225,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>16</v>
+        <v>174</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3231,7 +3249,7 @@
         <v>176</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3247,24 +3265,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>62</v>
+        <v>178</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -3273,31 +3291,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3306,14 +3324,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3323,14 +3341,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>72</v>
+        <v>184</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3339,31 +3357,31 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
       <c t="s" r="L60" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>52</v>
+        <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3372,14 +3390,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3389,14 +3407,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3405,14 +3423,14 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
@@ -3422,11 +3440,11 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>100</v>
+        <v>191</v>
       </c>
       <c t="s" r="Q62" s="12">
         <v>30</v>
@@ -3438,14 +3456,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3455,11 +3473,11 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>189</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q63" s="12">
         <v>16</v>
@@ -3471,14 +3489,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>191</v>
+        <v>22</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3488,14 +3506,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3504,14 +3522,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3521,14 +3539,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>81</v>
+        <v>102</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>195</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3537,14 +3555,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3554,11 +3572,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>124</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3570,14 +3588,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3587,14 +3605,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3603,14 +3621,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>202</v>
+        <v>16</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3620,14 +3638,14 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q68" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="25.5" customHeight="1">
@@ -3636,31 +3654,31 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
       <c r="K69" s="9"/>
       <c t="s" r="L69" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>206</v>
+        <v>16</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3669,14 +3687,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3686,11 +3704,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>209</v>
@@ -3709,7 +3727,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>50</v>
+        <v>211</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3719,14 +3737,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>102</v>
+        <v>184</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3735,14 +3753,14 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
@@ -3752,14 +3770,14 @@
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
         <v>214</v>
       </c>
       <c t="s" r="Q72" s="12">
-        <v>16</v>
+        <v>215</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3768,14 +3786,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3785,14 +3803,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>217</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>30</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3801,14 +3819,14 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
@@ -3818,11 +3836,11 @@
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c t="s" r="Q74" s="12">
         <v>16</v>
@@ -3834,31 +3852,31 @@
       </c>
       <c r="B75" s="7"/>
       <c t="s" r="C75" s="8">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>221</v>
+        <v>50</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
-        <v>55</v>
+        <v>222</v>
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c t="s" r="Q75" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3867,14 +3885,14 @@
       </c>
       <c r="B76" s="7"/>
       <c t="s" r="C76" s="8">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3884,14 +3902,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3900,14 +3918,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>154</v>
+        <v>22</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3917,11 +3935,11 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
-        <v>15</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q77" s="12">
         <v>16</v>
@@ -3933,14 +3951,14 @@
       </c>
       <c r="B78" s="7"/>
       <c t="s" r="C78" s="8">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D78" s="8"/>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>50</v>
+        <v>230</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
@@ -3950,11 +3968,11 @@
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>228</v>
+        <v>55</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
         <v>30</v>
@@ -3966,14 +3984,14 @@
       </c>
       <c r="B79" s="7"/>
       <c t="s" r="C79" s="8">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -3983,11 +4001,11 @@
       </c>
       <c r="M79" s="10"/>
       <c t="s" r="N79" s="8">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="O79" s="8"/>
       <c t="s" r="P79" s="11">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
         <v>16</v>
@@ -3999,14 +4017,14 @@
       </c>
       <c r="B80" s="7"/>
       <c t="s" r="C80" s="8">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4016,11 +4034,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>234</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4032,14 +4050,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4049,14 +4067,14 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>133</v>
+        <v>237</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>134</v>
+        <v>238</v>
       </c>
       <c t="s" r="Q81" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -4065,14 +4083,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4082,14 +4100,14 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q82" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" ht="24.75" customHeight="1">
@@ -4098,14 +4116,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4115,11 +4133,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4131,14 +4149,14 @@
       </c>
       <c r="B84" s="7"/>
       <c t="s" r="C84" s="8">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4148,11 +4166,11 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c t="s" r="Q84" s="12">
         <v>16</v>
@@ -4181,11 +4199,11 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c t="s" r="Q85" s="12">
         <v>30</v>
@@ -4197,14 +4215,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4214,14 +4232,14 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>36</v>
+        <v>249</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c t="s" r="Q86" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -4230,14 +4248,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4247,14 +4265,14 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>115</v>
+        <v>252</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c t="s" r="Q87" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="88" ht="24.75" customHeight="1">
@@ -4263,14 +4281,14 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
       <c t="s" r="H88" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
@@ -4280,11 +4298,11 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>23</v>
+        <v>249</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c t="s" r="Q88" s="12">
         <v>30</v>
@@ -4296,14 +4314,14 @@
       </c>
       <c r="B89" s="7"/>
       <c t="s" r="C89" s="8">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>253</v>
+        <v>18</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4313,11 +4331,11 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>254</v>
+        <v>146</v>
       </c>
       <c t="s" r="Q89" s="12">
         <v>30</v>
@@ -4329,14 +4347,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>256</v>
+        <v>35</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4346,14 +4364,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>257</v>
+        <v>118</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
         <v>258</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>259</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4362,14 +4380,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4379,14 +4397,14 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>261</v>
+        <v>23</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c t="s" r="Q91" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -4395,14 +4413,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>264</v>
+        <v>174</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4412,14 +4430,14 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>265</v>
+        <v>153</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c t="s" r="Q92" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" ht="24.75" customHeight="1">
@@ -4428,14 +4446,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4445,14 +4463,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>43</v>
+        <v>265</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>16</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4461,14 +4479,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4478,7 +4496,7 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>192</v>
+        <v>269</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
@@ -4501,7 +4519,7 @@
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>154</v>
+        <v>272</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4511,11 +4529,11 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q95" s="12">
         <v>16</v>
@@ -4527,28 +4545,28 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>154</v>
+        <v>50</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
       <c r="K96" s="9"/>
       <c t="s" r="L96" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>195</v>
+        <v>276</v>
       </c>
       <c t="s" r="Q96" s="12">
         <v>16</v>
@@ -4560,31 +4578,31 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
       <c r="K97" s="9"/>
       <c t="s" r="L97" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q97" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" ht="24.75" customHeight="1">
@@ -4593,28 +4611,28 @@
       </c>
       <c r="B98" s="7"/>
       <c t="s" r="C98" s="8">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c t="s" r="L98" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>81</v>
+        <v>237</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>195</v>
+        <v>280</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4626,14 +4644,14 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>280</v>
+        <v>159</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
@@ -4643,14 +4661,14 @@
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>281</v>
+        <v>81</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>282</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q99" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" ht="24.75" customHeight="1">
@@ -4659,14 +4677,14 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
@@ -4676,14 +4694,14 @@
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4692,14 +4710,14 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>50</v>
+        <v>286</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
@@ -4709,14 +4727,14 @@
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>287</v>
+        <v>81</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q101" s="12">
-        <v>126</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -4725,14 +4743,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>50</v>
+        <v>288</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4742,14 +4760,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>290</v>
+        <v>35</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4765,7 +4783,7 @@
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4775,11 +4793,11 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>292</v>
+        <v>84</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>293</v>
+        <v>85</v>
       </c>
       <c t="s" r="Q103" s="12">
         <v>16</v>
@@ -4791,14 +4809,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>295</v>
+        <v>50</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4808,14 +4826,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>81</v>
+        <v>293</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>16</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4824,14 +4842,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4841,14 +4859,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>105</v>
+        <v>265</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>231</v>
+        <v>295</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>16</v>
+        <v>296</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4864,7 +4882,7 @@
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>264</v>
+        <v>50</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4874,11 +4892,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>51</v>
+        <v>298</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>52</v>
+        <v>299</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4890,14 +4908,14 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>16</v>
+        <v>301</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4907,11 +4925,11 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c t="s" r="Q107" s="12">
         <v>16</v>
@@ -4923,14 +4941,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>50</v>
+        <v>129</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4940,11 +4958,11 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c t="s" r="Q108" s="12">
         <v>16</v>
@@ -4956,14 +4974,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4973,11 +4991,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -4989,7 +5007,7 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
@@ -5006,11 +5024,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>303</v>
+        <v>126</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>304</v>
+        <v>127</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5039,14 +5057,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5055,14 +5073,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5072,11 +5090,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>219</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5088,14 +5106,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5105,11 +5123,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>123</v>
+        <v>309</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>124</v>
+        <v>310</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5128,7 +5146,7 @@
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>126</v>
+        <v>50</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5138,14 +5156,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>127</v>
+        <v>312</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>312</v>
+        <v>106</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5171,49 +5189,148 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>51</v>
+        <v>160</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
+        <v>228</v>
+      </c>
+      <c t="s" r="Q115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" ht="25.5" customHeight="1">
+      <c r="A116" s="7">
+        <v>110</v>
+      </c>
+      <c r="B116" s="7"/>
+      <c t="s" r="C116" s="8">
+        <v>315</v>
+      </c>
+      <c r="D116" s="8"/>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8"/>
+      <c r="G116" s="8"/>
+      <c t="s" r="H116" s="9">
+        <v>316</v>
+      </c>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="9"/>
+      <c t="s" r="L116" s="10">
+        <v>31</v>
+      </c>
+      <c r="M116" s="10"/>
+      <c t="s" r="N116" s="8">
+        <v>126</v>
+      </c>
+      <c r="O116" s="8"/>
+      <c t="s" r="P116" s="11">
+        <v>127</v>
+      </c>
+      <c t="s" r="Q116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" ht="25.5" customHeight="1">
+      <c r="A117" s="7">
+        <v>111</v>
+      </c>
+      <c r="B117" s="7"/>
+      <c t="s" r="C117" s="8">
+        <v>317</v>
+      </c>
+      <c r="D117" s="8"/>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8"/>
+      <c r="G117" s="8"/>
+      <c t="s" r="H117" s="9">
+        <v>129</v>
+      </c>
+      <c r="I117" s="9"/>
+      <c r="J117" s="9"/>
+      <c r="K117" s="9"/>
+      <c t="s" r="L117" s="10">
+        <v>31</v>
+      </c>
+      <c r="M117" s="10"/>
+      <c t="s" r="N117" s="8">
+        <v>130</v>
+      </c>
+      <c r="O117" s="8"/>
+      <c t="s" r="P117" s="11">
+        <v>318</v>
+      </c>
+      <c t="s" r="Q117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" ht="24.75" customHeight="1">
+      <c r="A118" s="7">
+        <v>112</v>
+      </c>
+      <c r="B118" s="7"/>
+      <c t="s" r="C118" s="8">
+        <v>319</v>
+      </c>
+      <c r="D118" s="8"/>
+      <c r="E118" s="8"/>
+      <c r="F118" s="8"/>
+      <c r="G118" s="8"/>
+      <c t="s" r="H118" s="9">
+        <v>320</v>
+      </c>
+      <c r="I118" s="9"/>
+      <c r="J118" s="9"/>
+      <c r="K118" s="9"/>
+      <c t="s" r="L118" s="10">
+        <v>31</v>
+      </c>
+      <c r="M118" s="10"/>
+      <c t="s" r="N118" s="8">
+        <v>51</v>
+      </c>
+      <c r="O118" s="8"/>
+      <c t="s" r="P118" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q115" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" ht="25.5" customHeight="1">
-      <c r="P116" s="13">
-        <v>6784.8149999999996</v>
-      </c>
-      <c r="Q116" s="13"/>
-    </row>
-    <row r="117" ht="16.5" customHeight="1">
-      <c t="s" r="A117" s="14">
-        <v>315</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c t="s" r="G117" s="15">
-        <v>316</v>
-      </c>
-      <c r="H117" s="15"/>
-      <c r="I117" s="15"/>
-      <c r="J117" s="16"/>
-      <c t="s" r="K117" s="17">
-        <v>317</v>
-      </c>
-      <c r="L117" s="17"/>
-      <c r="M117" s="17"/>
-      <c r="N117" s="17"/>
-      <c r="O117" s="17"/>
-      <c r="P117" s="17"/>
-      <c r="Q117" s="17"/>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="P119" s="13">
+        <v>7087.2550000000001</v>
+      </c>
+      <c r="Q119" s="13"/>
+    </row>
+    <row r="120" ht="16.5" customHeight="1">
+      <c t="s" r="A120" s="14">
+        <v>321</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c t="s" r="G120" s="15">
+        <v>322</v>
+      </c>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c t="s" r="K120" s="17">
+        <v>323</v>
+      </c>
+      <c r="L120" s="17"/>
+      <c r="M120" s="17"/>
+      <c r="N120" s="17"/>
+      <c r="O120" s="17"/>
+      <c r="P120" s="17"/>
+      <c r="Q120" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="557">
+  <mergeCells count="572">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5767,10 +5884,25 @@
     <mergeCell ref="H115:K115"/>
     <mergeCell ref="L115:M115"/>
     <mergeCell ref="N115:O115"/>
-    <mergeCell ref="P116:Q116"/>
-    <mergeCell ref="A117:F117"/>
-    <mergeCell ref="G117:I117"/>
-    <mergeCell ref="K117:Q117"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="C116:G116"/>
+    <mergeCell ref="H116:K116"/>
+    <mergeCell ref="L116:M116"/>
+    <mergeCell ref="N116:O116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="C117:G117"/>
+    <mergeCell ref="H117:K117"/>
+    <mergeCell ref="L117:M117"/>
+    <mergeCell ref="N117:O117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:G118"/>
+    <mergeCell ref="H118:K118"/>
+    <mergeCell ref="L118:M118"/>
+    <mergeCell ref="N118:O118"/>
+    <mergeCell ref="P119:Q119"/>
+    <mergeCell ref="A120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="K120:Q120"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -974,7 +974,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:41 PM</t>
+    <t>Thursday, 25 September, 2025 10:57 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -170,6 +170,9 @@
     <t>45.0000</t>
   </si>
   <si>
+    <t>ASPOCID 75MG 30 TAB.</t>
+  </si>
+  <si>
     <t>ATOREZA 20/10MG 21 F.C. TAB.</t>
   </si>
   <si>
@@ -221,6 +224,18 @@
     <t>0:-3</t>
   </si>
   <si>
+    <t>BECOZYME I.M./I.V. 12 AMP</t>
+  </si>
+  <si>
+    <t>1:9</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>9.6000</t>
+  </si>
+  <si>
     <t>BI ALCOFAN 150 MG 30 TABS.</t>
   </si>
   <si>
@@ -674,6 +689,15 @@
     <t>32.0000</t>
   </si>
   <si>
+    <t>PROGEST 100MG 24 ORAL/VAGINAL CAPS.</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>110.0000</t>
+  </si>
+  <si>
     <t xml:space="preserve">REBIRTH WHITENING  CREAM</t>
   </si>
   <si>
@@ -896,10 +920,10 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
-    <t>64.8000</t>
-  </si>
-  <si>
-    <t>32:0</t>
+    <t>66.8000</t>
+  </si>
+  <si>
+    <t>33:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -974,7 +998,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 10:57 PM</t>
+    <t>Thursday, 25 September, 2025 11:00 PM</t>
   </si>
   <si>
     <t>1/1</t>
@@ -1945,7 +1969,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1955,14 +1979,14 @@
       </c>
       <c r="M17" s="10"/>
       <c t="s" r="N17" s="8">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="O17" s="8"/>
       <c t="s" r="P17" s="11">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c t="s" r="Q17" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" ht="24.75" customHeight="1">
@@ -1971,14 +1995,14 @@
       </c>
       <c r="B18" s="7"/>
       <c t="s" r="C18" s="8">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1988,11 +2012,11 @@
       </c>
       <c r="M18" s="10"/>
       <c t="s" r="N18" s="8">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="O18" s="8"/>
       <c t="s" r="P18" s="11">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c t="s" r="Q18" s="12">
         <v>30</v>
@@ -2004,14 +2028,14 @@
       </c>
       <c r="B19" s="7"/>
       <c t="s" r="C19" s="8">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -2021,14 +2045,14 @@
       </c>
       <c r="M19" s="10"/>
       <c t="s" r="N19" s="8">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="O19" s="8"/>
       <c t="s" r="P19" s="11">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c t="s" r="Q19" s="12">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -2037,14 +2061,14 @@
       </c>
       <c r="B20" s="7"/>
       <c t="s" r="C20" s="8">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -2054,14 +2078,14 @@
       </c>
       <c r="M20" s="10"/>
       <c t="s" r="N20" s="8">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="O20" s="8"/>
       <c t="s" r="P20" s="11">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c t="s" r="Q20" s="12">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -2070,14 +2094,14 @@
       </c>
       <c r="B21" s="7"/>
       <c t="s" r="C21" s="8">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -2087,14 +2111,14 @@
       </c>
       <c r="M21" s="10"/>
       <c t="s" r="N21" s="8">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="O21" s="8"/>
       <c t="s" r="P21" s="11">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c t="s" r="Q21" s="12">
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -2103,14 +2127,14 @@
       </c>
       <c r="B22" s="7"/>
       <c t="s" r="C22" s="8">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -2120,14 +2144,14 @@
       </c>
       <c r="M22" s="10"/>
       <c t="s" r="N22" s="8">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="O22" s="8"/>
       <c t="s" r="P22" s="11">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="Q22" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -2136,14 +2160,14 @@
       </c>
       <c r="B23" s="7"/>
       <c t="s" r="C23" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -2153,14 +2177,14 @@
       </c>
       <c r="M23" s="10"/>
       <c t="s" r="N23" s="8">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O23" s="8"/>
       <c t="s" r="P23" s="11">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="Q23" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -2169,14 +2193,14 @@
       </c>
       <c r="B24" s="7"/>
       <c t="s" r="C24" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -2186,14 +2210,14 @@
       </c>
       <c r="M24" s="10"/>
       <c t="s" r="N24" s="8">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O24" s="8"/>
       <c t="s" r="P24" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c t="s" r="Q24" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -2202,7 +2226,7 @@
       </c>
       <c r="B25" s="7"/>
       <c t="s" r="C25" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
@@ -2219,11 +2243,11 @@
       </c>
       <c r="M25" s="10"/>
       <c t="s" r="N25" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O25" s="8"/>
       <c t="s" r="P25" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q25" s="12">
         <v>16</v>
@@ -2235,14 +2259,14 @@
       </c>
       <c r="B26" s="7"/>
       <c t="s" r="C26" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -2252,14 +2276,14 @@
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -2268,14 +2292,14 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -2285,14 +2309,14 @@
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q27" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" ht="24.75" customHeight="1">
@@ -2301,14 +2325,14 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -2318,11 +2342,11 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q28" s="12">
         <v>16</v>
@@ -2334,14 +2358,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2351,14 +2375,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>35</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2367,14 +2391,14 @@
       </c>
       <c r="B30" s="7"/>
       <c t="s" r="C30" s="8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -2384,14 +2408,14 @@
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2400,14 +2424,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2417,14 +2441,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2433,14 +2457,14 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
@@ -2450,11 +2474,11 @@
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q32" s="12">
         <v>30</v>
@@ -2473,7 +2497,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2483,14 +2507,14 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q33" s="12">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -2499,7 +2523,7 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
@@ -2516,11 +2540,11 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q34" s="12">
         <v>30</v>
@@ -2539,7 +2563,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2549,14 +2573,14 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q35" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -2565,14 +2589,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2582,14 +2606,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2598,14 +2622,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2615,14 +2639,14 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c t="s" r="Q37" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -2631,14 +2655,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2648,7 +2672,7 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>102</v>
+        <v>123</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
@@ -2671,7 +2695,7 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2688,7 +2712,7 @@
         <v>127</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2704,7 +2728,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2714,14 +2738,14 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>130</v>
+        <v>107</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c t="s" r="Q40" s="12">
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -2730,14 +2754,14 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
@@ -2747,14 +2771,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2763,14 +2787,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2780,14 +2804,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2796,7 +2820,7 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
@@ -2813,11 +2837,11 @@
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c t="s" r="Q43" s="12">
         <v>30</v>
@@ -2836,7 +2860,7 @@
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>35</v>
+        <v>134</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2846,11 +2870,11 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>67</v>
+        <v>141</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q44" s="12">
         <v>16</v>
@@ -2862,14 +2886,14 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>143</v>
+        <v>16</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
@@ -2879,14 +2903,14 @@
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>67</v>
+        <v>144</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q45" s="12">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" ht="25.5" customHeight="1">
@@ -2902,7 +2926,7 @@
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2912,14 +2936,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
         <v>146</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2935,7 +2959,7 @@
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2945,14 +2969,14 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>148</v>
+        <v>68</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
         <v>149</v>
       </c>
       <c t="s" r="Q47" s="12">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" ht="24.75" customHeight="1">
@@ -2968,7 +2992,7 @@
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2978,14 +3002,14 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>151</v>
+        <v>36</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>33</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q48" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" ht="25.5" customHeight="1">
@@ -3001,7 +3025,7 @@
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -3034,7 +3058,7 @@
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -3048,10 +3072,10 @@
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -3060,14 +3084,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>159</v>
+        <v>18</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -3077,14 +3101,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>162</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -3093,14 +3117,14 @@
       </c>
       <c r="B52" s="7"/>
       <c t="s" r="C52" s="8">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -3110,14 +3134,14 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c t="s" r="Q52" s="12">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="24.75" customHeight="1">
@@ -3126,14 +3150,14 @@
       </c>
       <c r="B53" s="7"/>
       <c t="s" r="C53" s="8">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -3143,14 +3167,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>30</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -3159,14 +3183,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -3176,14 +3200,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>23</v>
+        <v>169</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -3192,14 +3216,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -3209,11 +3233,11 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q55" s="12">
         <v>30</v>
@@ -3225,14 +3249,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>174</v>
+        <v>30</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -3242,14 +3266,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>175</v>
+        <v>23</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
-        <v>176</v>
+        <v>118</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -3258,14 +3282,14 @@
       </c>
       <c r="B57" s="7"/>
       <c t="s" r="C57" s="8">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
@@ -3275,11 +3299,11 @@
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q57" s="12">
         <v>30</v>
@@ -3291,31 +3315,31 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>30</v>
+        <v>179</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q58" s="12">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" ht="25.5" customHeight="1">
@@ -3324,14 +3348,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3341,14 +3365,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3357,14 +3381,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3374,14 +3398,14 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>62</v>
+        <v>186</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
         <v>187</v>
       </c>
       <c t="s" r="Q60" s="12">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61" ht="25.5" customHeight="1">
@@ -3397,7 +3421,7 @@
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3407,14 +3431,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3423,31 +3447,31 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c t="s" r="H62" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
       <c r="K62" s="9"/>
       <c t="s" r="L62" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3456,7 +3480,7 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
@@ -3473,14 +3497,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>51</v>
+        <v>135</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3489,14 +3513,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3506,14 +3530,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>77</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3522,14 +3546,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3539,14 +3563,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>102</v>
+        <v>51</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3555,14 +3579,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3572,11 +3596,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>16</v>
@@ -3588,14 +3612,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3605,14 +3629,14 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>201</v>
+        <v>107</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>202</v>
+        <v>108</v>
       </c>
       <c t="s" r="Q67" s="12">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" ht="24.75" customHeight="1">
@@ -3621,14 +3645,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3638,11 +3662,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>16</v>
@@ -3654,14 +3678,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3671,14 +3695,14 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c t="s" r="Q69" s="12">
-        <v>16</v>
+        <v>50</v>
       </c>
     </row>
     <row r="70" ht="24.75" customHeight="1">
@@ -3687,14 +3711,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3704,14 +3728,14 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>207</v>
+        <v>86</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q70" s="12">
-        <v>209</v>
+        <v>16</v>
       </c>
     </row>
     <row r="71" ht="25.5" customHeight="1">
@@ -3727,7 +3751,7 @@
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>211</v>
+        <v>50</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3737,14 +3761,14 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q71" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -3753,31 +3777,31 @@
       </c>
       <c r="B72" s="7"/>
       <c t="s" r="C72" s="8">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c t="s" r="H72" s="9">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
       <c r="K72" s="9"/>
       <c t="s" r="L72" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M72" s="10"/>
       <c t="s" r="N72" s="8">
-        <v>156</v>
+        <v>212</v>
       </c>
       <c r="O72" s="8"/>
       <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
         <v>214</v>
-      </c>
-      <c t="s" r="Q72" s="12">
-        <v>215</v>
       </c>
     </row>
     <row r="73" ht="24.75" customHeight="1">
@@ -3786,14 +3810,14 @@
       </c>
       <c r="B73" s="7"/>
       <c t="s" r="C73" s="8">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c t="s" r="H73" s="9">
-        <v>18</v>
+        <v>216</v>
       </c>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
@@ -3803,14 +3827,14 @@
       </c>
       <c r="M73" s="10"/>
       <c t="s" r="N73" s="8">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="O73" s="8"/>
       <c t="s" r="P73" s="11">
-        <v>131</v>
+        <v>217</v>
       </c>
       <c t="s" r="Q73" s="12">
-        <v>218</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" ht="25.5" customHeight="1">
@@ -3819,31 +3843,31 @@
       </c>
       <c r="B74" s="7"/>
       <c t="s" r="C74" s="8">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D74" s="8"/>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c t="s" r="H74" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
       <c r="K74" s="9"/>
       <c t="s" r="L74" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M74" s="10"/>
       <c t="s" r="N74" s="8">
-        <v>105</v>
+        <v>161</v>
       </c>
       <c r="O74" s="8"/>
       <c t="s" r="P74" s="11">
+        <v>219</v>
+      </c>
+      <c t="s" r="Q74" s="12">
         <v>220</v>
-      </c>
-      <c t="s" r="Q74" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="75" ht="24.75" customHeight="1">
@@ -3859,13 +3883,13 @@
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c t="s" r="H75" s="9">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
       <c t="s" r="L75" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M75" s="10"/>
       <c t="s" r="N75" s="8">
@@ -3873,10 +3897,10 @@
       </c>
       <c r="O75" s="8"/>
       <c t="s" r="P75" s="11">
+        <v>136</v>
+      </c>
+      <c t="s" r="Q75" s="12">
         <v>223</v>
-      </c>
-      <c t="s" r="Q75" s="12">
-        <v>16</v>
       </c>
     </row>
     <row r="76" ht="25.5" customHeight="1">
@@ -3892,7 +3916,7 @@
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c t="s" r="H76" s="9">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
@@ -3902,14 +3926,14 @@
       </c>
       <c r="M76" s="10"/>
       <c t="s" r="N76" s="8">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="O76" s="8"/>
       <c t="s" r="P76" s="11">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c t="s" r="Q76" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -3918,14 +3942,14 @@
       </c>
       <c r="B77" s="7"/>
       <c t="s" r="C77" s="8">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D77" s="8"/>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c t="s" r="H77" s="9">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
@@ -3935,7 +3959,7 @@
       </c>
       <c r="M77" s="10"/>
       <c t="s" r="N77" s="8">
-        <v>160</v>
+        <v>227</v>
       </c>
       <c r="O77" s="8"/>
       <c t="s" r="P77" s="11">
@@ -3958,24 +3982,24 @@
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c t="s" r="H78" s="9">
-        <v>230</v>
+        <v>50</v>
       </c>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c t="s" r="L78" s="10">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="M78" s="10"/>
       <c t="s" r="N78" s="8">
-        <v>55</v>
+        <v>230</v>
       </c>
       <c r="O78" s="8"/>
       <c t="s" r="P78" s="11">
         <v>231</v>
       </c>
       <c t="s" r="Q78" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" ht="25.5" customHeight="1">
@@ -3991,7 +4015,7 @@
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c t="s" r="H79" s="9">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
@@ -4008,7 +4032,7 @@
         <v>234</v>
       </c>
       <c t="s" r="Q79" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" ht="24.75" customHeight="1">
@@ -4024,7 +4048,7 @@
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c t="s" r="H80" s="9">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
@@ -4034,11 +4058,11 @@
       </c>
       <c r="M80" s="10"/>
       <c t="s" r="N80" s="8">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="O80" s="8"/>
       <c t="s" r="P80" s="11">
-        <v>15</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q80" s="12">
         <v>16</v>
@@ -4050,14 +4074,14 @@
       </c>
       <c r="B81" s="7"/>
       <c t="s" r="C81" s="8">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c t="s" r="H81" s="9">
-        <v>50</v>
+        <v>238</v>
       </c>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
@@ -4067,11 +4091,11 @@
       </c>
       <c r="M81" s="10"/>
       <c t="s" r="N81" s="8">
-        <v>237</v>
+        <v>56</v>
       </c>
       <c r="O81" s="8"/>
       <c t="s" r="P81" s="11">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q81" s="12">
         <v>30</v>
@@ -4083,14 +4107,14 @@
       </c>
       <c r="B82" s="7"/>
       <c t="s" r="C82" s="8">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c t="s" r="H82" s="9">
-        <v>87</v>
+        <v>50</v>
       </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
@@ -4100,11 +4124,11 @@
       </c>
       <c r="M82" s="10"/>
       <c t="s" r="N82" s="8">
-        <v>108</v>
+        <v>241</v>
       </c>
       <c r="O82" s="8"/>
       <c t="s" r="P82" s="11">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c t="s" r="Q82" s="12">
         <v>16</v>
@@ -4116,14 +4140,14 @@
       </c>
       <c r="B83" s="7"/>
       <c t="s" r="C83" s="8">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c t="s" r="H83" s="9">
-        <v>101</v>
+        <v>164</v>
       </c>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
@@ -4133,11 +4157,11 @@
       </c>
       <c r="M83" s="10"/>
       <c t="s" r="N83" s="8">
-        <v>242</v>
+        <v>14</v>
       </c>
       <c r="O83" s="8"/>
       <c t="s" r="P83" s="11">
-        <v>243</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q83" s="12">
         <v>16</v>
@@ -4156,7 +4180,7 @@
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c t="s" r="H84" s="9">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
@@ -4166,14 +4190,14 @@
       </c>
       <c r="M84" s="10"/>
       <c t="s" r="N84" s="8">
-        <v>136</v>
+        <v>245</v>
       </c>
       <c r="O84" s="8"/>
       <c t="s" r="P84" s="11">
-        <v>137</v>
+        <v>246</v>
       </c>
       <c t="s" r="Q84" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" ht="24.75" customHeight="1">
@@ -4182,14 +4206,14 @@
       </c>
       <c r="B85" s="7"/>
       <c t="s" r="C85" s="8">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c t="s" r="H85" s="9">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
@@ -4199,14 +4223,14 @@
       </c>
       <c r="M85" s="10"/>
       <c t="s" r="N85" s="8">
-        <v>246</v>
+        <v>113</v>
       </c>
       <c r="O85" s="8"/>
       <c t="s" r="P85" s="11">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q85" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" ht="25.5" customHeight="1">
@@ -4215,14 +4239,14 @@
       </c>
       <c r="B86" s="7"/>
       <c t="s" r="C86" s="8">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c t="s" r="H86" s="9">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
@@ -4232,11 +4256,11 @@
       </c>
       <c r="M86" s="10"/>
       <c t="s" r="N86" s="8">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="O86" s="8"/>
       <c t="s" r="P86" s="11">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c t="s" r="Q86" s="12">
         <v>16</v>
@@ -4248,14 +4272,14 @@
       </c>
       <c r="B87" s="7"/>
       <c t="s" r="C87" s="8">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c t="s" r="H87" s="9">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
@@ -4265,11 +4289,11 @@
       </c>
       <c r="M87" s="10"/>
       <c t="s" r="N87" s="8">
-        <v>252</v>
+        <v>141</v>
       </c>
       <c r="O87" s="8"/>
       <c t="s" r="P87" s="11">
-        <v>253</v>
+        <v>142</v>
       </c>
       <c t="s" r="Q87" s="12">
         <v>16</v>
@@ -4281,7 +4305,7 @@
       </c>
       <c r="B88" s="7"/>
       <c t="s" r="C88" s="8">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
@@ -4298,7 +4322,7 @@
       </c>
       <c r="M88" s="10"/>
       <c t="s" r="N88" s="8">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="O88" s="8"/>
       <c t="s" r="P88" s="11">
@@ -4321,7 +4345,7 @@
       <c r="F89" s="8"/>
       <c r="G89" s="8"/>
       <c t="s" r="H89" s="9">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
@@ -4331,14 +4355,14 @@
       </c>
       <c r="M89" s="10"/>
       <c t="s" r="N89" s="8">
-        <v>36</v>
+        <v>257</v>
       </c>
       <c r="O89" s="8"/>
       <c t="s" r="P89" s="11">
-        <v>146</v>
+        <v>258</v>
       </c>
       <c t="s" r="Q89" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="90" ht="24.75" customHeight="1">
@@ -4347,14 +4371,14 @@
       </c>
       <c r="B90" s="7"/>
       <c t="s" r="C90" s="8">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
       <c r="G90" s="8"/>
       <c t="s" r="H90" s="9">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
@@ -4364,14 +4388,14 @@
       </c>
       <c r="M90" s="10"/>
       <c t="s" r="N90" s="8">
-        <v>118</v>
+        <v>260</v>
       </c>
       <c r="O90" s="8"/>
       <c t="s" r="P90" s="11">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q90" s="12">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="91" ht="25.5" customHeight="1">
@@ -4380,14 +4404,14 @@
       </c>
       <c r="B91" s="7"/>
       <c t="s" r="C91" s="8">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
       <c r="G91" s="8"/>
       <c t="s" r="H91" s="9">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
@@ -4397,11 +4421,11 @@
       </c>
       <c r="M91" s="10"/>
       <c t="s" r="N91" s="8">
-        <v>23</v>
+        <v>257</v>
       </c>
       <c r="O91" s="8"/>
       <c t="s" r="P91" s="11">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c t="s" r="Q91" s="12">
         <v>30</v>
@@ -4413,14 +4437,14 @@
       </c>
       <c r="B92" s="7"/>
       <c t="s" r="C92" s="8">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
       <c r="G92" s="8"/>
       <c t="s" r="H92" s="9">
-        <v>174</v>
+        <v>18</v>
       </c>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
@@ -4430,11 +4454,11 @@
       </c>
       <c r="M92" s="10"/>
       <c t="s" r="N92" s="8">
-        <v>153</v>
+        <v>36</v>
       </c>
       <c r="O92" s="8"/>
       <c t="s" r="P92" s="11">
-        <v>262</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q92" s="12">
         <v>30</v>
@@ -4446,14 +4470,14 @@
       </c>
       <c r="B93" s="7"/>
       <c t="s" r="C93" s="8">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
       <c r="G93" s="8"/>
       <c t="s" r="H93" s="9">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
@@ -4463,14 +4487,14 @@
       </c>
       <c r="M93" s="10"/>
       <c t="s" r="N93" s="8">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="O93" s="8"/>
       <c t="s" r="P93" s="11">
         <v>266</v>
       </c>
       <c t="s" r="Q93" s="12">
-        <v>267</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94" ht="25.5" customHeight="1">
@@ -4479,14 +4503,14 @@
       </c>
       <c r="B94" s="7"/>
       <c t="s" r="C94" s="8">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
       <c t="s" r="H94" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
@@ -4496,14 +4520,14 @@
       </c>
       <c r="M94" s="10"/>
       <c t="s" r="N94" s="8">
-        <v>269</v>
+        <v>23</v>
       </c>
       <c r="O94" s="8"/>
       <c t="s" r="P94" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c t="s" r="Q94" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="95" ht="24.75" customHeight="1">
@@ -4512,14 +4536,14 @@
       </c>
       <c r="B95" s="7"/>
       <c t="s" r="C95" s="8">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
       <c r="G95" s="8"/>
       <c t="s" r="H95" s="9">
-        <v>272</v>
+        <v>179</v>
       </c>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
@@ -4529,14 +4553,14 @@
       </c>
       <c r="M95" s="10"/>
       <c t="s" r="N95" s="8">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="O95" s="8"/>
       <c t="s" r="P95" s="11">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c t="s" r="Q95" s="12">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="96" ht="25.5" customHeight="1">
@@ -4545,14 +4569,14 @@
       </c>
       <c r="B96" s="7"/>
       <c t="s" r="C96" s="8">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="8"/>
       <c t="s" r="H96" s="9">
-        <v>50</v>
+        <v>272</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
@@ -4562,14 +4586,14 @@
       </c>
       <c r="M96" s="10"/>
       <c t="s" r="N96" s="8">
-        <v>43</v>
+        <v>273</v>
       </c>
       <c r="O96" s="8"/>
       <c t="s" r="P96" s="11">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c t="s" r="Q96" s="12">
-        <v>16</v>
+        <v>275</v>
       </c>
     </row>
     <row r="97" ht="25.5" customHeight="1">
@@ -4578,14 +4602,14 @@
       </c>
       <c r="B97" s="7"/>
       <c t="s" r="C97" s="8">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
       <c t="s" r="H97" s="9">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
@@ -4595,7 +4619,7 @@
       </c>
       <c r="M97" s="10"/>
       <c t="s" r="N97" s="8">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="O97" s="8"/>
       <c t="s" r="P97" s="11">
@@ -4618,7 +4642,7 @@
       <c r="F98" s="8"/>
       <c r="G98" s="8"/>
       <c t="s" r="H98" s="9">
-        <v>159</v>
+        <v>280</v>
       </c>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
@@ -4628,11 +4652,11 @@
       </c>
       <c r="M98" s="10"/>
       <c t="s" r="N98" s="8">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="O98" s="8"/>
       <c t="s" r="P98" s="11">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c t="s" r="Q98" s="12">
         <v>16</v>
@@ -4644,28 +4668,28 @@
       </c>
       <c r="B99" s="7"/>
       <c t="s" r="C99" s="8">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
       <c r="G99" s="8"/>
       <c t="s" r="H99" s="9">
-        <v>159</v>
+        <v>50</v>
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
       <c r="K99" s="9"/>
       <c t="s" r="L99" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M99" s="10"/>
       <c t="s" r="N99" s="8">
-        <v>81</v>
+        <v>43</v>
       </c>
       <c r="O99" s="8"/>
       <c t="s" r="P99" s="11">
-        <v>204</v>
+        <v>284</v>
       </c>
       <c t="s" r="Q99" s="12">
         <v>16</v>
@@ -4677,31 +4701,31 @@
       </c>
       <c r="B100" s="7"/>
       <c t="s" r="C100" s="8">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
       <c r="G100" s="8"/>
       <c t="s" r="H100" s="9">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
       <c r="K100" s="9"/>
       <c t="s" r="L100" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M100" s="10"/>
       <c t="s" r="N100" s="8">
-        <v>283</v>
+        <v>206</v>
       </c>
       <c r="O100" s="8"/>
       <c t="s" r="P100" s="11">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q100" s="12">
-        <v>39</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="25.5" customHeight="1">
@@ -4710,28 +4734,28 @@
       </c>
       <c r="B101" s="7"/>
       <c t="s" r="C101" s="8">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
       <c r="G101" s="8"/>
       <c t="s" r="H101" s="9">
-        <v>286</v>
+        <v>164</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
       <c r="K101" s="9"/>
       <c t="s" r="L101" s="10">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="M101" s="10"/>
       <c t="s" r="N101" s="8">
-        <v>81</v>
+        <v>245</v>
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>204</v>
+        <v>288</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>16</v>
@@ -4743,14 +4767,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>288</v>
+        <v>164</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4760,14 +4784,14 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>289</v>
+        <v>86</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>290</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q102" s="12">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" ht="24.75" customHeight="1">
@@ -4776,14 +4800,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4793,14 +4817,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>84</v>
+        <v>291</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>85</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4809,14 +4833,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>50</v>
+        <v>294</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4826,14 +4850,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>293</v>
+        <v>86</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>129</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4842,14 +4866,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>50</v>
+        <v>296</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4859,14 +4883,14 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c t="s" r="Q105" s="12">
-        <v>296</v>
+        <v>35</v>
       </c>
     </row>
     <row r="106" ht="25.5" customHeight="1">
@@ -4875,14 +4899,14 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
@@ -4892,11 +4916,11 @@
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>299</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>16</v>
@@ -4915,7 +4939,7 @@
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>301</v>
+        <v>50</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
@@ -4925,14 +4949,14 @@
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>81</v>
+        <v>301</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>16</v>
+        <v>134</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -4948,7 +4972,7 @@
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -4958,14 +4982,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>108</v>
+        <v>273</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>240</v>
+        <v>303</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>16</v>
+        <v>304</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -4974,14 +4998,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>272</v>
+        <v>50</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -4991,11 +5015,11 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>51</v>
+        <v>306</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>52</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q109" s="12">
         <v>16</v>
@@ -5007,14 +5031,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>16</v>
+        <v>309</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5024,11 +5048,11 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c t="s" r="Q110" s="12">
         <v>16</v>
@@ -5040,14 +5064,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>50</v>
+        <v>134</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5057,11 +5081,11 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>14</v>
+        <v>113</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>15</v>
+        <v>248</v>
       </c>
       <c t="s" r="Q111" s="12">
         <v>16</v>
@@ -5073,14 +5097,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5090,11 +5114,11 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c t="s" r="Q112" s="12">
         <v>16</v>
@@ -5106,7 +5130,7 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
@@ -5123,11 +5147,11 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>309</v>
+        <v>131</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>310</v>
+        <v>132</v>
       </c>
       <c t="s" r="Q113" s="12">
         <v>16</v>
@@ -5139,7 +5163,7 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
@@ -5156,14 +5180,14 @@
       </c>
       <c r="M114" s="10"/>
       <c t="s" r="N114" s="8">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="O114" s="8"/>
       <c t="s" r="P114" s="11">
-        <v>106</v>
+        <v>15</v>
       </c>
       <c t="s" r="Q114" s="12">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115" ht="24.75" customHeight="1">
@@ -5172,14 +5196,14 @@
       </c>
       <c r="B115" s="7"/>
       <c t="s" r="C115" s="8">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5189,11 +5213,11 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>160</v>
+        <v>40</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q115" s="12">
         <v>16</v>
@@ -5205,14 +5229,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>316</v>
+        <v>16</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5222,11 +5246,11 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>126</v>
+        <v>317</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>127</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q116" s="12">
         <v>16</v>
@@ -5238,14 +5262,14 @@
       </c>
       <c r="B117" s="7"/>
       <c t="s" r="C117" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>129</v>
+        <v>50</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
@@ -5255,14 +5279,14 @@
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>130</v>
+        <v>320</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>318</v>
+        <v>111</v>
       </c>
       <c t="s" r="Q117" s="12">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="118" ht="24.75" customHeight="1">
@@ -5271,14 +5295,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5288,49 +5312,148 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
+        <v>236</v>
+      </c>
+      <c t="s" r="Q118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" ht="25.5" customHeight="1">
+      <c r="A119" s="7">
+        <v>113</v>
+      </c>
+      <c r="B119" s="7"/>
+      <c t="s" r="C119" s="8">
+        <v>323</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8"/>
+      <c r="G119" s="8"/>
+      <c t="s" r="H119" s="9">
+        <v>324</v>
+      </c>
+      <c r="I119" s="9"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c t="s" r="L119" s="10">
+        <v>31</v>
+      </c>
+      <c r="M119" s="10"/>
+      <c t="s" r="N119" s="8">
+        <v>131</v>
+      </c>
+      <c r="O119" s="8"/>
+      <c t="s" r="P119" s="11">
+        <v>132</v>
+      </c>
+      <c t="s" r="Q119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" ht="24.75" customHeight="1">
+      <c r="A120" s="7">
+        <v>114</v>
+      </c>
+      <c r="B120" s="7"/>
+      <c t="s" r="C120" s="8">
+        <v>325</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="8"/>
+      <c r="G120" s="8"/>
+      <c t="s" r="H120" s="9">
+        <v>134</v>
+      </c>
+      <c r="I120" s="9"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c t="s" r="L120" s="10">
+        <v>31</v>
+      </c>
+      <c r="M120" s="10"/>
+      <c t="s" r="N120" s="8">
+        <v>135</v>
+      </c>
+      <c r="O120" s="8"/>
+      <c t="s" r="P120" s="11">
+        <v>326</v>
+      </c>
+      <c t="s" r="Q120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" ht="25.5" customHeight="1">
+      <c r="A121" s="7">
+        <v>115</v>
+      </c>
+      <c r="B121" s="7"/>
+      <c t="s" r="C121" s="8">
+        <v>327</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="8"/>
+      <c r="G121" s="8"/>
+      <c t="s" r="H121" s="9">
+        <v>328</v>
+      </c>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c t="s" r="L121" s="10">
+        <v>31</v>
+      </c>
+      <c r="M121" s="10"/>
+      <c t="s" r="N121" s="8">
+        <v>51</v>
+      </c>
+      <c r="O121" s="8"/>
+      <c t="s" r="P121" s="11">
         <v>52</v>
       </c>
-      <c t="s" r="Q118" s="12">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" ht="25.5" customHeight="1">
-      <c r="P119" s="13">
-        <v>7087.2550000000001</v>
-      </c>
-      <c r="Q119" s="13"/>
-    </row>
-    <row r="120" ht="16.5" customHeight="1">
-      <c t="s" r="A120" s="14">
-        <v>321</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c t="s" r="G120" s="15">
-        <v>322</v>
-      </c>
-      <c r="H120" s="15"/>
-      <c r="I120" s="15"/>
-      <c r="J120" s="16"/>
-      <c t="s" r="K120" s="17">
-        <v>323</v>
-      </c>
-      <c r="L120" s="17"/>
-      <c r="M120" s="17"/>
-      <c r="N120" s="17"/>
-      <c r="O120" s="17"/>
-      <c r="P120" s="17"/>
-      <c r="Q120" s="17"/>
+      <c t="s" r="Q121" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" ht="25.5" customHeight="1">
+      <c r="P122" s="13">
+        <v>7241.8549999999996</v>
+      </c>
+      <c r="Q122" s="13"/>
+    </row>
+    <row r="123" ht="16.5" customHeight="1">
+      <c t="s" r="A123" s="14">
+        <v>329</v>
+      </c>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c t="s" r="G123" s="15">
+        <v>330</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c t="s" r="K123" s="17">
+        <v>331</v>
+      </c>
+      <c r="L123" s="17"/>
+      <c r="M123" s="17"/>
+      <c r="N123" s="17"/>
+      <c r="O123" s="17"/>
+      <c r="P123" s="17"/>
+      <c r="Q123" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="572">
+  <mergeCells count="587">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -5899,10 +6022,25 @@
     <mergeCell ref="H118:K118"/>
     <mergeCell ref="L118:M118"/>
     <mergeCell ref="N118:O118"/>
-    <mergeCell ref="P119:Q119"/>
-    <mergeCell ref="A120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="K120:Q120"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="C119:G119"/>
+    <mergeCell ref="H119:K119"/>
+    <mergeCell ref="L119:M119"/>
+    <mergeCell ref="N119:O119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="C120:G120"/>
+    <mergeCell ref="H120:K120"/>
+    <mergeCell ref="L120:M120"/>
+    <mergeCell ref="N120:O120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="H121:K121"/>
+    <mergeCell ref="L121:M121"/>
+    <mergeCell ref="N121:O121"/>
+    <mergeCell ref="P122:Q122"/>
+    <mergeCell ref="A123:F123"/>
+    <mergeCell ref="G123:I123"/>
+    <mergeCell ref="K123:Q123"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -998,7 +998,7 @@
     <t>19:0</t>
   </si>
   <si>
-    <t>Thursday, 25 September, 2025 11:00 PM</t>
+    <t>Thursday, 25 September, 2025 11:09 PM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 12:01 AM</t>
+    <t>Friday, 26 September, 2025 12:07 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 12:07 AM</t>
+    <t>Friday, 26 September, 2025 12:10 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 12:10 AM</t>
+    <t>Friday, 26 September, 2025 12:17 AM</t>
   </si>
   <si>
     <t>1/1</t>

--- a/DaySale_2025-09-25_00-00.xlsx
+++ b/DaySale_2025-09-25_00-00.xlsx
@@ -44,7 +44,7 @@
     <t>عدد التعااملات</t>
   </si>
   <si>
-    <t>Friday, 26 September, 2025 12:17 AM</t>
+    <t>Friday, 26 September, 2025 12:18 AM</t>
   </si>
   <si>
     <t>1/1</t>
